--- a/Homework/ThermoHW9.xlsx
+++ b/Homework/ThermoHW9.xlsx
@@ -5,19 +5,19 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wroos\Desktop\Fall24Classes\Homework\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/b17c6545b7781650/Desktop/Fall24Classes/Homework/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5408625C-A6C6-4AF5-A1B0-FEE761008BE4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="31" documentId="13_ncr:1_{5408625C-A6C6-4AF5-A1B0-FEE761008BE4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C377B108-E6EC-4644-B1D6-858B454CC3E7}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="14616" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="14.4" sheetId="1" r:id="rId1"/>
     <sheet name="14.11" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="solver_adj" localSheetId="1" hidden="1">'14.11'!$E$16</definedName>
+    <definedName name="solver_adj" localSheetId="1" hidden="1">'14.11'!$H$12</definedName>
     <definedName name="solver_cvg" localSheetId="1" hidden="1">0.0001</definedName>
     <definedName name="solver_drv" localSheetId="1" hidden="1">1</definedName>
     <definedName name="solver_eng" localSheetId="1" hidden="1">1</definedName>
@@ -213,12 +213,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -233,8 +239,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -7283,16 +7290,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>504825</xdr:colOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>344805</xdr:colOff>
       <xdr:row>1</xdr:row>
-      <xdr:rowOff>133350</xdr:rowOff>
+      <xdr:rowOff>57150</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>143362</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>57219</xdr:rowOff>
+      <xdr:colOff>547222</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>163899</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -7315,8 +7322,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3743325" y="323850"/>
-          <a:ext cx="3486637" cy="495369"/>
+          <a:off x="4215765" y="240030"/>
+          <a:ext cx="3509497" cy="472509"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -7327,16 +7334,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>485775</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>607695</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>99060</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>267350</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>9764</xdr:rowOff>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>389270</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>99299</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -7359,8 +7366,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7381875" y="390525"/>
-          <a:ext cx="4658375" cy="1714739"/>
+          <a:off x="8395335" y="281940"/>
+          <a:ext cx="4658375" cy="1646159"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -7414,6 +7421,10 @@
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -7717,19 +7728,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M1002"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="69" workbookViewId="0">
-      <selection activeCell="H3" sqref="H3"/>
+    <sheetView tabSelected="1" topLeftCell="A414" zoomScale="69" workbookViewId="0">
+      <selection activeCell="I452" sqref="I452"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="9.28515625" customWidth="1"/>
+    <col min="1" max="1" width="9.33203125" customWidth="1"/>
     <col min="3" max="3" width="10" customWidth="1"/>
-    <col min="4" max="4" width="10.140625" customWidth="1"/>
+    <col min="4" max="4" width="10.109375" customWidth="1"/>
     <col min="5" max="5" width="9" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -7758,7 +7769,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>0</v>
       </c>
@@ -7792,7 +7803,7 @@
         <v>8.3140000000000001</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A3">
         <f>A2+0.001</f>
         <v>1E-3</v>
@@ -7835,7 +7846,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A4">
         <f t="shared" ref="A4:A67" si="0">A3+0.001</f>
         <v>2E-3</v>
@@ -7879,7 +7890,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A5">
         <f t="shared" si="0"/>
         <v>3.0000000000000001E-3</v>
@@ -7923,7 +7934,7 @@
         <v>-192420</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A6">
         <f t="shared" si="0"/>
         <v>4.0000000000000001E-3</v>
@@ -7967,7 +7978,7 @@
         <v>-200240</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A7">
         <f t="shared" si="0"/>
         <v>5.0000000000000001E-3</v>
@@ -8011,7 +8022,7 @@
         <v>-395960</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A8">
         <f t="shared" si="0"/>
         <v>6.0000000000000001E-3</v>
@@ -8049,7 +8060,7 @@
         <v>-40873.169316269923</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A9">
         <f t="shared" si="0"/>
         <v>7.0000000000000001E-3</v>
@@ -8087,7 +8098,7 @@
         <v>-39572.830106975744</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A10">
         <f t="shared" si="0"/>
         <v>8.0000000000000002E-3</v>
@@ -8128,7 +8139,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A11">
         <f t="shared" si="0"/>
         <v>9.0000000000000011E-3</v>
@@ -8166,7 +8177,7 @@
         <v>-37455.356821825226</v>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A12">
         <f t="shared" si="0"/>
         <v>1.0000000000000002E-2</v>
@@ -8204,7 +8215,7 @@
         <v>-36567.723456013453</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A13">
         <f t="shared" si="0"/>
         <v>1.1000000000000003E-2</v>
@@ -8242,7 +8253,7 @@
         <v>-35764.494254166464</v>
       </c>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A14">
         <f t="shared" si="0"/>
         <v>1.2000000000000004E-2</v>
@@ -8280,7 +8291,7 @@
         <v>-35030.833442215197</v>
       </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A15">
         <f t="shared" si="0"/>
         <v>1.3000000000000005E-2</v>
@@ -8318,7 +8329,7 @@
         <v>-34355.510134526383</v>
       </c>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A16">
         <f t="shared" si="0"/>
         <v>1.4000000000000005E-2</v>
@@ -8356,7 +8367,7 @@
         <v>-33729.815443701198</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A17">
         <f t="shared" si="0"/>
         <v>1.5000000000000006E-2</v>
@@ -8394,7 +8405,7 @@
         <v>-33146.858551859594</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A18">
         <f t="shared" si="0"/>
         <v>1.6000000000000007E-2</v>
@@ -8432,7 +8443,7 @@
         <v>-32601.092755634425</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A19">
         <f t="shared" si="0"/>
         <v>1.7000000000000008E-2</v>
@@ -8470,7 +8481,7 @@
         <v>-32087.986728147342</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A20">
         <f t="shared" si="0"/>
         <v>1.8000000000000009E-2</v>
@@ -8508,7 +8519,7 @@
         <v>-31603.790620327316</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A21">
         <f t="shared" si="0"/>
         <v>1.900000000000001E-2</v>
@@ -8546,7 +8557,7 @@
         <v>-31145.36592202782</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A22">
         <f t="shared" si="0"/>
         <v>2.0000000000000011E-2</v>
@@ -8584,7 +8595,7 @@
         <v>-30710.059283563143</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A23">
         <f t="shared" si="0"/>
         <v>2.1000000000000012E-2</v>
@@ -8622,7 +8633,7 @@
         <v>-30295.607324107525</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A24">
         <f t="shared" si="0"/>
         <v>2.2000000000000013E-2</v>
@@ -8660,7 +8671,7 @@
         <v>-29900.06371471097</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A25">
         <f t="shared" si="0"/>
         <v>2.3000000000000013E-2</v>
@@ -8698,7 +8709,7 @@
         <v>-29521.742556666115</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A26">
         <f t="shared" si="0"/>
         <v>2.4000000000000014E-2</v>
@@ -8736,7 +8747,7 @@
         <v>-29159.173868567425</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A27">
         <f t="shared" si="0"/>
         <v>2.5000000000000015E-2</v>
@@ -8774,7 +8785,7 @@
         <v>-28811.068199953272</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A28">
         <f t="shared" si="0"/>
         <v>2.6000000000000016E-2</v>
@@ -8812,7 +8823,7 @@
         <v>-28476.288213816562</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A29">
         <f t="shared" si="0"/>
         <v>2.7000000000000017E-2</v>
@@ -8850,7 +8861,7 @@
         <v>-28153.82565176694</v>
       </c>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A30">
         <f t="shared" si="0"/>
         <v>2.8000000000000018E-2</v>
@@ -8888,7 +8899,7 @@
         <v>-27842.782502731981</v>
       </c>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A31">
         <f t="shared" si="0"/>
         <v>2.9000000000000019E-2</v>
@@ -8926,7 +8937,7 @@
         <v>-27542.355486948483</v>
       </c>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A32">
         <f t="shared" si="0"/>
         <v>3.000000000000002E-2</v>
@@ -8964,7 +8975,7 @@
         <v>-27251.823177706658</v>
       </c>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A33">
         <f t="shared" si="0"/>
         <v>3.1000000000000021E-2</v>
@@ -9002,7 +9013,7 @@
         <v>-26970.535240572619</v>
       </c>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A34">
         <f t="shared" si="0"/>
         <v>3.2000000000000021E-2</v>
@@ -9040,7 +9051,7 @@
         <v>-26697.903385662332</v>
       </c>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A35">
         <f t="shared" si="0"/>
         <v>3.3000000000000022E-2</v>
@@ -9078,7 +9089,7 @@
         <v>-26433.393715196849</v>
       </c>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A36">
         <f t="shared" si="0"/>
         <v>3.4000000000000023E-2</v>
@@ -9116,7 +9127,7 @@
         <v>-26176.520215856704</v>
       </c>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A37">
         <f t="shared" si="0"/>
         <v>3.5000000000000024E-2</v>
@@ -9154,7 +9165,7 @@
         <v>-25926.839196879861</v>
       </c>
     </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A38">
         <f t="shared" si="0"/>
         <v>3.6000000000000025E-2</v>
@@ -9192,7 +9203,7 @@
         <v>-25683.944512798895</v>
       </c>
     </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A39">
         <f t="shared" si="0"/>
         <v>3.7000000000000026E-2</v>
@@ -9230,7 +9241,7 @@
         <v>-25447.463441989363</v>
       </c>
     </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A40">
         <f t="shared" si="0"/>
         <v>3.8000000000000027E-2</v>
@@ -9268,7 +9279,7 @@
         <v>-25217.053115949944</v>
       </c>
     </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A41">
         <f t="shared" si="0"/>
         <v>3.9000000000000028E-2</v>
@@ -9306,7 +9317,7 @@
         <v>-24992.397413021514</v>
       </c>
     </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A42">
         <f t="shared" si="0"/>
         <v>4.0000000000000029E-2</v>
@@ -9344,7 +9355,7 @@
         <v>-24773.204246099318</v>
       </c>
     </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A43">
         <f t="shared" si="0"/>
         <v>4.1000000000000029E-2</v>
@@ -9382,7 +9393,7 @@
         <v>-24559.203185417551</v>
       </c>
     </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A44">
         <f t="shared" si="0"/>
         <v>4.200000000000003E-2</v>
@@ -9420,7 +9431,7 @@
         <v>-24350.143368734258</v>
       </c>
     </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A45">
         <f t="shared" si="0"/>
         <v>4.3000000000000031E-2</v>
@@ -9458,7 +9469,7 @@
         <v>-24145.791657385395</v>
       </c>
     </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A46">
         <f t="shared" si="0"/>
         <v>4.4000000000000032E-2</v>
@@ -9496,7 +9507,7 @@
         <v>-23945.931004418504</v>
       </c>
     </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A47">
         <f t="shared" si="0"/>
         <v>4.5000000000000033E-2</v>
@@ -9534,7 +9545,7 @@
         <v>-23750.359006706254</v>
       </c>
     </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A48">
         <f t="shared" si="0"/>
         <v>4.6000000000000034E-2</v>
@@ -9572,7 +9583,7 @@
         <v>-23558.886616287033</v>
       </c>
     </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A49">
         <f t="shared" si="0"/>
         <v>4.7000000000000035E-2</v>
@@ -9610,7 +9621,7 @@
         <v>-23371.336990210672</v>
       </c>
     </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A50">
         <f t="shared" si="0"/>
         <v>4.8000000000000036E-2</v>
@@ -9648,7 +9659,7 @@
         <v>-23187.544461776248</v>
       </c>
     </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A51">
         <f t="shared" si="0"/>
         <v>4.9000000000000037E-2</v>
@@ -9686,7 +9697,7 @@
         <v>-23007.353618129833</v>
       </c>
     </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A52">
         <f t="shared" si="0"/>
         <v>5.0000000000000037E-2</v>
@@ -9724,7 +9735,7 @@
         <v>-22830.618470616151</v>
       </c>
     </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A53">
         <f t="shared" si="0"/>
         <v>5.1000000000000038E-2</v>
@@ -9762,7 +9773,7 @@
         <v>-22657.201707828768</v>
       </c>
     </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A54">
         <f t="shared" si="0"/>
         <v>5.2000000000000039E-2</v>
@@ -9800,7 +9811,7 @@
         <v>-22486.974021187034</v>
       </c>
     </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A55">
         <f t="shared" si="0"/>
         <v>5.300000000000004E-2</v>
@@ -9838,7 +9849,7 @@
         <v>-22319.813494425016</v>
       </c>
     </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A56">
         <f t="shared" si="0"/>
         <v>5.4000000000000041E-2</v>
@@ -9876,7 +9887,7 @@
         <v>-22155.605050793365</v>
       </c>
     </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A57">
         <f t="shared" si="0"/>
         <v>5.5000000000000042E-2</v>
@@ -9914,7 +9925,7 @@
         <v>-21994.239950581668</v>
       </c>
     </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A58">
         <f t="shared" si="0"/>
         <v>5.6000000000000043E-2</v>
@@ -9952,7 +9963,7 @@
         <v>-21835.615333882724</v>
       </c>
     </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A59">
         <f t="shared" si="0"/>
         <v>5.7000000000000044E-2</v>
@@ -9990,7 +10001,7 @@
         <v>-21679.633804364112</v>
       </c>
     </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A60">
         <f t="shared" si="0"/>
         <v>5.8000000000000045E-2</v>
@@ -10028,7 +10039,7 @@
         <v>-21526.203048779262</v>
       </c>
     </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A61">
         <f t="shared" si="0"/>
         <v>5.9000000000000045E-2</v>
@@ -10066,7 +10077,7 @@
         <v>-21375.235489016613</v>
       </c>
     </row>
-    <row r="62" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A62">
         <f t="shared" si="0"/>
         <v>6.0000000000000046E-2</v>
@@ -10104,7 +10115,7 @@
         <v>-21226.647963892883</v>
       </c>
     </row>
-    <row r="63" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A63">
         <f t="shared" si="0"/>
         <v>6.1000000000000047E-2</v>
@@ -10142,7 +10153,7 @@
         <v>-21080.361436819639</v>
       </c>
     </row>
-    <row r="64" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A64">
         <f t="shared" si="0"/>
         <v>6.2000000000000048E-2</v>
@@ -10180,7 +10191,7 @@
         <v>-20936.300727204125</v>
       </c>
     </row>
-    <row r="65" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A65">
         <f t="shared" si="0"/>
         <v>6.3000000000000042E-2</v>
@@ -10218,7 +10229,7 @@
         <v>-20794.394263794002</v>
       </c>
     </row>
-    <row r="66" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A66">
         <f t="shared" si="0"/>
         <v>6.4000000000000043E-2</v>
@@ -10256,7 +10267,7 @@
         <v>-20654.573857056657</v>
       </c>
     </row>
-    <row r="67" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A67">
         <f t="shared" si="0"/>
         <v>6.5000000000000044E-2</v>
@@ -10294,7 +10305,7 @@
         <v>-20516.774489311483</v>
       </c>
     </row>
-    <row r="68" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A68">
         <f t="shared" ref="A68:A101" si="3">A67+0.001</f>
         <v>6.6000000000000045E-2</v>
@@ -10332,7 +10343,7 @@
         <v>-20380.934121014416</v>
       </c>
     </row>
-    <row r="69" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A69">
         <f t="shared" si="3"/>
         <v>6.7000000000000046E-2</v>
@@ -10370,7 +10381,7 @@
         <v>-20246.993511507735</v>
       </c>
     </row>
-    <row r="70" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A70">
         <f t="shared" si="3"/>
         <v>6.8000000000000047E-2</v>
@@ -10408,7 +10419,7 @@
         <v>-20114.896053040848</v>
       </c>
     </row>
-    <row r="71" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A71">
         <f t="shared" si="3"/>
         <v>6.9000000000000047E-2</v>
@@ -10446,7 +10457,7 @@
         <v>-19984.587617029301</v>
       </c>
     </row>
-    <row r="72" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A72">
         <f t="shared" si="3"/>
         <v>7.0000000000000048E-2</v>
@@ -10484,7 +10495,7 @@
         <v>-19856.01641116953</v>
       </c>
     </row>
-    <row r="73" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A73">
         <f t="shared" si="3"/>
         <v>7.1000000000000049E-2</v>
@@ -10522,7 +10533,7 @@
         <v>-19729.132846885459</v>
       </c>
     </row>
-    <row r="74" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A74">
         <f t="shared" si="3"/>
         <v>7.200000000000005E-2</v>
@@ -10560,7 +10571,7 @@
         <v>-19603.88941614654</v>
       </c>
     </row>
-    <row r="75" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A75">
         <f t="shared" si="3"/>
         <v>7.3000000000000051E-2</v>
@@ -10598,7 +10609,7 @@
         <v>-19480.240576318447</v>
       </c>
     </row>
-    <row r="76" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A76">
         <f t="shared" si="3"/>
         <v>7.4000000000000052E-2</v>
@@ -10636,7 +10647,7 @@
         <v>-19358.142643410229</v>
       </c>
     </row>
-    <row r="77" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A77">
         <f t="shared" si="3"/>
         <v>7.5000000000000053E-2</v>
@@ -10674,7 +10685,7 @@
         <v>-19237.553692131751</v>
       </c>
     </row>
-    <row r="78" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A78">
         <f t="shared" si="3"/>
         <v>7.6000000000000054E-2</v>
@@ -10712,7 +10723,7 @@
         <v>-19118.433462688681</v>
       </c>
     </row>
-    <row r="79" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A79">
         <f t="shared" si="3"/>
         <v>7.7000000000000055E-2</v>
@@ -10750,7 +10761,7 @@
         <v>-19000.743273718381</v>
       </c>
     </row>
-    <row r="80" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A80">
         <f t="shared" si="3"/>
         <v>7.8000000000000055E-2</v>
@@ -10788,7 +10799,7 @@
         <v>-18884.445940610003</v>
       </c>
     </row>
-    <row r="81" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A81">
         <f t="shared" si="3"/>
         <v>7.9000000000000056E-2</v>
@@ -10826,7 +10837,7 @@
         <v>-18769.505699485289</v>
       </c>
     </row>
-    <row r="82" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A82">
         <f t="shared" si="3"/>
         <v>8.0000000000000057E-2</v>
@@ -10864,7 +10875,7 @@
         <v>-18655.888135501282</v>
       </c>
     </row>
-    <row r="83" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A83">
         <f t="shared" si="3"/>
         <v>8.1000000000000058E-2</v>
@@ -10902,7 +10913,7 @@
         <v>-18543.560115751443</v>
       </c>
     </row>
-    <row r="84" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A84">
         <f t="shared" si="3"/>
         <v>8.2000000000000059E-2</v>
@@ -10940,7 +10951,7 @@
         <v>-18432.489726517801</v>
       </c>
     </row>
-    <row r="85" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A85">
         <f t="shared" si="3"/>
         <v>8.300000000000006E-2</v>
@@ -10978,7 +10989,7 @@
         <v>-18322.646213957327</v>
       </c>
     </row>
-    <row r="86" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A86">
         <f t="shared" si="3"/>
         <v>8.4000000000000061E-2</v>
@@ -11016,7 +11027,7 @@
         <v>-18213.999928542748</v>
       </c>
     </row>
-    <row r="87" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A87">
         <f t="shared" si="3"/>
         <v>8.5000000000000062E-2</v>
@@ -11054,7 +11065,7 @@
         <v>-18106.522272893912</v>
       </c>
     </row>
-    <row r="88" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A88">
         <f t="shared" si="3"/>
         <v>8.6000000000000063E-2</v>
@@ -11092,7 +11103,7 @@
         <v>-18000.185652446802</v>
       </c>
     </row>
-    <row r="89" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A89">
         <f t="shared" si="3"/>
         <v>8.7000000000000063E-2</v>
@@ -11130,7 +11141,7 @@
         <v>-17894.963429003823</v>
       </c>
     </row>
-    <row r="90" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A90">
         <f t="shared" si="3"/>
         <v>8.8000000000000064E-2</v>
@@ -11168,7 +11179,7 @@
         <v>-17790.829877078053</v>
       </c>
     </row>
-    <row r="91" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A91">
         <f t="shared" si="3"/>
         <v>8.9000000000000065E-2</v>
@@ -11206,7 +11217,7 @@
         <v>-17687.760142682222</v>
       </c>
     </row>
-    <row r="92" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A92">
         <f t="shared" si="3"/>
         <v>9.0000000000000066E-2</v>
@@ -11244,7 +11255,7 @@
         <v>-17585.730204213163</v>
       </c>
     </row>
-    <row r="93" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A93">
         <f t="shared" si="3"/>
         <v>9.1000000000000067E-2</v>
@@ -11282,7 +11293,7 @@
         <v>-17484.716835722778</v>
       </c>
     </row>
-    <row r="94" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A94">
         <f t="shared" si="3"/>
         <v>9.2000000000000068E-2</v>
@@ -11320,7 +11331,7 @@
         <v>-17384.697572182617</v>
       </c>
     </row>
-    <row r="95" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A95">
         <f t="shared" si="3"/>
         <v>9.3000000000000069E-2</v>
@@ -11358,7 +11369,7 @@
         <v>-17285.650676538338</v>
       </c>
     </row>
-    <row r="96" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A96">
         <f t="shared" si="3"/>
         <v>9.400000000000007E-2</v>
@@ -11396,7 +11407,7 @@
         <v>-17187.555108452201</v>
       </c>
     </row>
-    <row r="97" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A97">
         <f t="shared" si="3"/>
         <v>9.500000000000007E-2</v>
@@ -11434,7 +11445,7 @@
         <v>-17090.390494879088</v>
       </c>
     </row>
-    <row r="98" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A98">
         <f t="shared" si="3"/>
         <v>9.6000000000000071E-2</v>
@@ -11472,7 +11483,7 @@
         <v>-16994.137102185035</v>
       </c>
     </row>
-    <row r="99" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A99">
         <f t="shared" si="3"/>
         <v>9.7000000000000072E-2</v>
@@ -11510,7 +11521,7 @@
         <v>-16898.775809531784</v>
       </c>
     </row>
-    <row r="100" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A100">
         <f t="shared" si="3"/>
         <v>9.8000000000000073E-2</v>
@@ -11548,7 +11559,7 @@
         <v>-16804.288083672858</v>
       </c>
     </row>
-    <row r="101" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A101">
         <f t="shared" si="3"/>
         <v>9.9000000000000074E-2</v>
@@ -11586,7 +11597,7 @@
         <v>-16710.65595526305</v>
       </c>
     </row>
-    <row r="102" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A102">
         <f>A101+0.001</f>
         <v>0.10000000000000007</v>
@@ -11624,7 +11635,7 @@
         <v>-16617.861996099222</v>
       </c>
     </row>
-    <row r="103" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A103">
         <f t="shared" ref="A103:A166" si="4">A102+0.001</f>
         <v>0.10100000000000008</v>
@@ -11662,7 +11673,7 @@
         <v>-16525.889297437956</v>
       </c>
     </row>
-    <row r="104" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A104">
         <f t="shared" si="4"/>
         <v>0.10200000000000008</v>
@@ -11700,7 +11711,7 @@
         <v>-16434.721449681078</v>
       </c>
     </row>
-    <row r="105" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A105">
         <f t="shared" si="4"/>
         <v>0.10300000000000008</v>
@@ -11738,7 +11749,7 @@
         <v>-16344.342522919746</v>
       </c>
     </row>
-    <row r="106" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A106">
         <f t="shared" si="4"/>
         <v>0.10400000000000008</v>
@@ -11776,7 +11787,7 @@
         <v>-16254.737048235242</v>
       </c>
     </row>
-    <row r="107" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A107">
         <f t="shared" si="4"/>
         <v>0.10500000000000008</v>
@@ -11814,7 +11825,7 @@
         <v>-16165.890000134808</v>
       </c>
     </row>
-    <row r="108" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A108">
         <f t="shared" si="4"/>
         <v>0.10600000000000008</v>
@@ -11852,7 +11863,7 @@
         <v>-16077.786779729635</v>
       </c>
     </row>
-    <row r="109" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A109">
         <f t="shared" si="4"/>
         <v>0.10700000000000008</v>
@@ -11890,7 +11901,7 @@
         <v>-15990.413198713199</v>
       </c>
     </row>
-    <row r="110" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A110">
         <f t="shared" si="4"/>
         <v>0.10800000000000008</v>
@@ -11928,7 +11939,7 @@
         <v>-15903.755464096306</v>
       </c>
     </row>
-    <row r="111" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A111">
         <f t="shared" si="4"/>
         <v>0.10900000000000008</v>
@@ -11966,7 +11977,7 @@
         <v>-15817.800163451451</v>
       </c>
     </row>
-    <row r="112" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A112">
         <f t="shared" si="4"/>
         <v>0.11000000000000008</v>
@@ -12004,7 +12015,7 @@
         <v>-15732.53425127767</v>
       </c>
     </row>
-    <row r="113" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A113">
         <f t="shared" si="4"/>
         <v>0.11100000000000008</v>
@@ -12042,7 +12053,7 @@
         <v>-15647.945035612778</v>
       </c>
     </row>
-    <row r="114" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A114">
         <f t="shared" si="4"/>
         <v>0.11200000000000009</v>
@@ -12080,7 +12091,7 @@
         <v>-15564.020165184033</v>
       </c>
     </row>
-    <row r="115" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A115">
         <f t="shared" si="4"/>
         <v>0.11300000000000009</v>
@@ -12118,7 +12129,7 @@
         <v>-15480.747617504661</v>
       </c>
     </row>
-    <row r="116" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A116">
         <f t="shared" si="4"/>
         <v>0.11400000000000009</v>
@@ -12156,7 +12167,7 @@
         <v>-15398.11568720323</v>
       </c>
     </row>
-    <row r="117" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A117">
         <f t="shared" si="4"/>
         <v>0.11500000000000009</v>
@@ -12194,7 +12205,7 @@
         <v>-15316.112974891426</v>
       </c>
     </row>
-    <row r="118" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A118">
         <f t="shared" si="4"/>
         <v>0.11600000000000009</v>
@@ -12232,7 +12243,7 @@
         <v>-15234.728376613917</v>
       </c>
     </row>
-    <row r="119" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A119">
         <f t="shared" si="4"/>
         <v>0.11700000000000009</v>
@@ -12270,7 +12281,7 @@
         <v>-15153.951073749327</v>
       </c>
     </row>
-    <row r="120" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A120">
         <f t="shared" si="4"/>
         <v>0.11800000000000009</v>
@@ -12308,7 +12319,7 @@
         <v>-15073.77052317314</v>
       </c>
     </row>
-    <row r="121" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A121">
         <f t="shared" si="4"/>
         <v>0.11900000000000009</v>
@@ -12346,7 +12357,7 @@
         <v>-14994.176448002678</v>
       </c>
     </row>
-    <row r="122" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A122">
         <f t="shared" si="4"/>
         <v>0.12000000000000009</v>
@@ -12384,7 +12395,7 @@
         <v>-14915.158828764093</v>
       </c>
     </row>
-    <row r="123" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A123">
         <f t="shared" si="4"/>
         <v>0.12100000000000009</v>
@@ -12422,7 +12433,7 @@
         <v>-14836.707894690322</v>
       </c>
     </row>
-    <row r="124" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A124">
         <f t="shared" si="4"/>
         <v>0.12200000000000009</v>
@@ -12460,7 +12471,7 @@
         <v>-14758.814115673873</v>
       </c>
     </row>
-    <row r="125" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A125">
         <f t="shared" si="4"/>
         <v>0.1230000000000001</v>
@@ -12498,7 +12509,7 @@
         <v>-14681.468194321484</v>
       </c>
     </row>
-    <row r="126" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A126">
         <f t="shared" si="4"/>
         <v>0.1240000000000001</v>
@@ -12536,7 +12547,7 @@
         <v>-14604.66105841633</v>
       </c>
     </row>
-    <row r="127" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A127">
         <f t="shared" si="4"/>
         <v>0.12500000000000008</v>
@@ -12574,7 +12585,7 @@
         <v>-14528.383853772626</v>
       </c>
     </row>
-    <row r="128" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A128">
         <f t="shared" si="4"/>
         <v>0.12600000000000008</v>
@@ -12612,7 +12623,7 @@
         <v>-14452.627937076601</v>
       </c>
     </row>
-    <row r="129" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A129">
         <f t="shared" si="4"/>
         <v>0.12700000000000009</v>
@@ -12650,7 +12661,7 @@
         <v>-14377.384869367221</v>
       </c>
     </row>
-    <row r="130" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A130">
         <f t="shared" si="4"/>
         <v>0.12800000000000009</v>
@@ -12688,7 +12699,7 @@
         <v>-14302.646409749274</v>
       </c>
     </row>
-    <row r="131" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A131">
         <f t="shared" si="4"/>
         <v>0.12900000000000009</v>
@@ -12726,7 +12737,7 @@
         <v>-14228.404508918162</v>
       </c>
     </row>
-    <row r="132" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A132">
         <f t="shared" si="4"/>
         <v>0.13000000000000009</v>
@@ -12764,7 +12775,7 @@
         <v>-14154.651303397246</v>
       </c>
     </row>
-    <row r="133" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A133">
         <f t="shared" si="4"/>
         <v>0.13100000000000009</v>
@@ -12802,7 +12813,7 @@
         <v>-14081.379109935357</v>
       </c>
     </row>
-    <row r="134" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A134">
         <f t="shared" si="4"/>
         <v>0.13200000000000009</v>
@@ -12840,7 +12851,7 @@
         <v>-14008.580419860651</v>
       </c>
     </row>
-    <row r="135" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A135">
         <f t="shared" si="4"/>
         <v>0.13300000000000009</v>
@@ -12878,7 +12889,7 @@
         <v>-13936.247893783717</v>
       </c>
     </row>
-    <row r="136" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A136">
         <f t="shared" si="4"/>
         <v>0.13400000000000009</v>
@@ -12916,7 +12927,7 @@
         <v>-13864.374356722679</v>
       </c>
     </row>
-    <row r="137" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A137">
         <f t="shared" si="4"/>
         <v>0.13500000000000009</v>
@@ -12954,7 +12965,7 @@
         <v>-13792.952793097344</v>
       </c>
     </row>
-    <row r="138" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A138">
         <f t="shared" si="4"/>
         <v>0.13600000000000009</v>
@@ -12992,7 +13003,7 @@
         <v>-13721.97634191251</v>
       </c>
     </row>
-    <row r="139" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A139">
         <f t="shared" si="4"/>
         <v>0.13700000000000009</v>
@@ -13030,7 +13041,7 @@
         <v>-13651.4382923924</v>
       </c>
     </row>
-    <row r="140" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A140">
         <f t="shared" si="4"/>
         <v>0.13800000000000009</v>
@@ -13068,7 +13079,7 @@
         <v>-13581.33207952777</v>
       </c>
     </row>
-    <row r="141" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A141">
         <f t="shared" si="4"/>
         <v>0.1390000000000001</v>
@@ -13106,7 +13117,7 @@
         <v>-13511.651279855856</v>
       </c>
     </row>
-    <row r="142" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A142">
         <f t="shared" si="4"/>
         <v>0.1400000000000001</v>
@@ -13144,7 +13155,7 @@
         <v>-13442.389607458595</v>
       </c>
     </row>
-    <row r="143" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A143">
         <f t="shared" si="4"/>
         <v>0.1410000000000001</v>
@@ -13182,7 +13193,7 @@
         <v>-13373.540909960853</v>
       </c>
     </row>
-    <row r="144" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A144">
         <f t="shared" si="4"/>
         <v>0.1420000000000001</v>
@@ -13220,7 +13231,7 @@
         <v>-13305.099164805131</v>
       </c>
     </row>
-    <row r="145" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A145">
         <f t="shared" si="4"/>
         <v>0.1430000000000001</v>
@@ -13258,7 +13269,7 @@
         <v>-13237.058475628135</v>
       </c>
     </row>
-    <row r="146" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A146">
         <f t="shared" si="4"/>
         <v>0.1440000000000001</v>
@@ -13296,7 +13307,7 @@
         <v>-13169.413068666461</v>
       </c>
     </row>
-    <row r="147" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A147">
         <f t="shared" si="4"/>
         <v>0.1450000000000001</v>
@@ -13334,7 +13345,7 @@
         <v>-13102.157289365994</v>
       </c>
     </row>
-    <row r="148" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A148">
         <f t="shared" si="4"/>
         <v>0.1460000000000001</v>
@@ -13372,7 +13383,7 @@
         <v>-13035.285599180486</v>
       </c>
     </row>
-    <row r="149" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A149">
         <f t="shared" si="4"/>
         <v>0.1470000000000001</v>
@@ -13410,7 +13421,7 @@
         <v>-12968.792572355585</v>
       </c>
     </row>
-    <row r="150" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A150">
         <f t="shared" si="4"/>
         <v>0.1480000000000001</v>
@@ -13448,7 +13459,7 @@
         <v>-12902.672892843828</v>
       </c>
     </row>
-    <row r="151" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A151">
         <f t="shared" si="4"/>
         <v>0.1490000000000001</v>
@@ -13486,7 +13497,7 @@
         <v>-12836.921351394256</v>
       </c>
     </row>
-    <row r="152" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A152">
         <f t="shared" si="4"/>
         <v>0.15000000000000011</v>
@@ -13524,7 +13535,7 @@
         <v>-12771.532842627483</v>
       </c>
     </row>
-    <row r="153" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A153">
         <f t="shared" si="4"/>
         <v>0.15100000000000011</v>
@@ -13562,7 +13573,7 @@
         <v>-12706.502362314484</v>
       </c>
     </row>
-    <row r="154" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A154">
         <f t="shared" si="4"/>
         <v>0.15200000000000011</v>
@@ -13600,7 +13611,7 @@
         <v>-12641.825004684495</v>
       </c>
     </row>
-    <row r="155" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A155">
         <f t="shared" si="4"/>
         <v>0.15300000000000011</v>
@@ -13638,7 +13649,7 @@
         <v>-12577.495959922078</v>
       </c>
     </row>
-    <row r="156" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A156">
         <f t="shared" si="4"/>
         <v>0.15400000000000011</v>
@@ -13676,7 +13687,7 @@
         <v>-12513.510511489574</v>
       </c>
     </row>
-    <row r="157" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A157">
         <f t="shared" si="4"/>
         <v>0.15500000000000011</v>
@@ -13714,7 +13725,7 @@
         <v>-12449.864033857</v>
       </c>
     </row>
-    <row r="158" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A158">
         <f t="shared" si="4"/>
         <v>0.15600000000000011</v>
@@ -13752,7 +13763,7 @@
         <v>-12386.551990217402</v>
       </c>
     </row>
-    <row r="159" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A159">
         <f t="shared" si="4"/>
         <v>0.15700000000000011</v>
@@ -13790,7 +13801,7 @@
         <v>-12323.569929954818</v>
       </c>
     </row>
-    <row r="160" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A160">
         <f t="shared" si="4"/>
         <v>0.15800000000000011</v>
@@ -13828,7 +13839,7 @@
         <v>-12260.913486592461</v>
       </c>
     </row>
-    <row r="161" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A161">
         <f t="shared" si="4"/>
         <v>0.15900000000000011</v>
@@ -13866,7 +13877,7 @@
         <v>-12198.578375842761</v>
       </c>
     </row>
-    <row r="162" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A162">
         <f t="shared" si="4"/>
         <v>0.16000000000000011</v>
@@ -13904,7 +13915,7 @@
         <v>-12136.56039329361</v>
       </c>
     </row>
-    <row r="163" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A163">
         <f t="shared" si="4"/>
         <v>0.16100000000000012</v>
@@ -13942,7 +13953,7 @@
         <v>-12074.855412502064</v>
       </c>
     </row>
-    <row r="164" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A164">
         <f t="shared" si="4"/>
         <v>0.16200000000000012</v>
@@ -13980,7 +13991,7 @@
         <v>-12013.459383088037</v>
       </c>
     </row>
-    <row r="165" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A165">
         <f t="shared" si="4"/>
         <v>0.16300000000000012</v>
@@ -14018,7 +14029,7 @@
         <v>-11952.368328726141</v>
       </c>
     </row>
-    <row r="166" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A166">
         <f t="shared" si="4"/>
         <v>0.16400000000000012</v>
@@ -14056,7 +14067,7 @@
         <v>-11891.578345603182</v>
       </c>
     </row>
-    <row r="167" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A167">
         <f t="shared" ref="A167:A230" si="6">A166+0.001</f>
         <v>0.16500000000000012</v>
@@ -14094,7 +14105,7 @@
         <v>-11831.085600409995</v>
       </c>
     </row>
-    <row r="168" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A168">
         <f t="shared" si="6"/>
         <v>0.16600000000000012</v>
@@ -14132,7 +14143,7 @@
         <v>-11770.886328653422</v>
       </c>
     </row>
-    <row r="169" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A169">
         <f t="shared" si="6"/>
         <v>0.16700000000000012</v>
@@ -14170,7 +14181,7 @@
         <v>-11710.976833157463</v>
       </c>
     </row>
-    <row r="170" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A170">
         <f t="shared" si="6"/>
         <v>0.16800000000000012</v>
@@ -14208,7 +14219,7 @@
         <v>-11651.353482331604</v>
       </c>
     </row>
-    <row r="171" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A171">
         <f t="shared" si="6"/>
         <v>0.16900000000000012</v>
@@ -14246,7 +14257,7 @@
         <v>-11592.012708540995</v>
       </c>
     </row>
-    <row r="172" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A172">
         <f t="shared" si="6"/>
         <v>0.17000000000000012</v>
@@ -14284,7 +14295,7 @@
         <v>-11532.951006767678</v>
       </c>
     </row>
-    <row r="173" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A173">
         <f t="shared" si="6"/>
         <v>0.17100000000000012</v>
@@ -14322,7 +14333,7 @@
         <v>-11474.164933053533</v>
       </c>
     </row>
-    <row r="174" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A174">
         <f t="shared" si="6"/>
         <v>0.17200000000000013</v>
@@ -14360,7 +14371,7 @@
         <v>-11415.65110303053</v>
       </c>
     </row>
-    <row r="175" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A175">
         <f t="shared" si="6"/>
         <v>0.17300000000000013</v>
@@ -14398,7 +14409,7 @@
         <v>-11357.406190654718</v>
       </c>
     </row>
-    <row r="176" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A176">
         <f t="shared" si="6"/>
         <v>0.17400000000000013</v>
@@ -14436,7 +14447,7 @@
         <v>-11299.426926721924</v>
       </c>
     </row>
-    <row r="177" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A177">
         <f t="shared" si="6"/>
         <v>0.17500000000000013</v>
@@ -14474,7 +14485,7 @@
         <v>-11241.710097616296</v>
       </c>
     </row>
-    <row r="178" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A178">
         <f t="shared" si="6"/>
         <v>0.17600000000000013</v>
@@ -14512,7 +14523,7 @@
         <v>-11184.252544087931</v>
       </c>
     </row>
-    <row r="179" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A179">
         <f t="shared" si="6"/>
         <v>0.17700000000000013</v>
@@ -14550,7 +14561,7 @@
         <v>-11127.051159957764</v>
       </c>
     </row>
-    <row r="180" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A180">
         <f t="shared" si="6"/>
         <v>0.17800000000000013</v>
@@ -14588,7 +14599,7 @@
         <v>-11070.102890953412</v>
       </c>
     </row>
-    <row r="181" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A181">
         <f t="shared" si="6"/>
         <v>0.17900000000000013</v>
@@ -14626,7 +14637,7 @@
         <v>-11013.404733559573</v>
       </c>
     </row>
-    <row r="182" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A182">
         <f t="shared" si="6"/>
         <v>0.18000000000000013</v>
@@ -14664,7 +14675,7 @@
         <v>-10956.953733722903</v>
       </c>
     </row>
-    <row r="183" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A183">
         <f t="shared" si="6"/>
         <v>0.18100000000000013</v>
@@ -14702,7 +14713,7 @@
         <v>-10900.746985993455</v>
       </c>
     </row>
-    <row r="184" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A184">
         <f t="shared" si="6"/>
         <v>0.18200000000000013</v>
@@ -14740,7 +14751,7 @@
         <v>-10844.781632404183</v>
       </c>
     </row>
-    <row r="185" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A185">
         <f t="shared" si="6"/>
         <v>0.18300000000000013</v>
@@ -14778,7 +14789,7 @@
         <v>-10789.054861161267</v>
       </c>
     </row>
-    <row r="186" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A186">
         <f t="shared" si="6"/>
         <v>0.18400000000000014</v>
@@ -14816,7 +14827,7 @@
         <v>-10733.563905960173</v>
       </c>
     </row>
-    <row r="187" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A187">
         <f t="shared" si="6"/>
         <v>0.18500000000000014</v>
@@ -14854,7 +14865,7 @@
         <v>-10678.306044952469</v>
       </c>
     </row>
-    <row r="188" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A188">
         <f t="shared" si="6"/>
         <v>0.18600000000000014</v>
@@ -14892,7 +14903,7 @@
         <v>-10623.278599581672</v>
       </c>
     </row>
-    <row r="189" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A189">
         <f t="shared" si="6"/>
         <v>0.18700000000000014</v>
@@ -14930,7 +14941,7 @@
         <v>-10568.478933768338</v>
       </c>
     </row>
-    <row r="190" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A190">
         <f t="shared" si="6"/>
         <v>0.18800000000000014</v>
@@ -14968,7 +14979,7 @@
         <v>-10513.904453036948</v>
       </c>
     </row>
-    <row r="191" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A191">
         <f t="shared" si="6"/>
         <v>0.18900000000000014</v>
@@ -15006,7 +15017,7 @@
         <v>-10459.552603628244</v>
       </c>
     </row>
-    <row r="192" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A192">
         <f t="shared" si="6"/>
         <v>0.19000000000000014</v>
@@ -15044,7 +15055,7 @@
         <v>-10405.420871611559</v>
       </c>
     </row>
-    <row r="193" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A193">
         <f t="shared" si="6"/>
         <v>0.19100000000000014</v>
@@ -15082,7 +15093,7 @@
         <v>-10351.50678199715</v>
       </c>
     </row>
-    <row r="194" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A194">
         <f t="shared" si="6"/>
         <v>0.19200000000000014</v>
@@ -15120,7 +15131,7 @@
         <v>-10297.807897979501</v>
       </c>
     </row>
-    <row r="195" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A195">
         <f t="shared" si="6"/>
         <v>0.19300000000000014</v>
@@ -15158,7 +15169,7 @@
         <v>-10244.321820136965</v>
       </c>
     </row>
-    <row r="196" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A196">
         <f t="shared" si="6"/>
         <v>0.19400000000000014</v>
@@ -15196,7 +15207,7 @@
         <v>-10191.046185645964</v>
       </c>
     </row>
-    <row r="197" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A197">
         <f t="shared" si="6"/>
         <v>0.19500000000000015</v>
@@ -15234,7 +15245,7 @@
         <v>-10137.978667480629</v>
       </c>
     </row>
-    <row r="198" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A198">
         <f t="shared" si="6"/>
         <v>0.19600000000000015</v>
@@ -15272,7 +15283,7 @@
         <v>-10085.116973816175</v>
       </c>
     </row>
-    <row r="199" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A199">
         <f t="shared" si="6"/>
         <v>0.19700000000000015</v>
@@ -15310,7 +15321,7 @@
         <v>-10032.458847126682</v>
       </c>
     </row>
-    <row r="200" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A200">
         <f t="shared" si="6"/>
         <v>0.19800000000000015</v>
@@ -15348,7 +15359,7 @@
         <v>-9980.0020635739111</v>
       </c>
     </row>
-    <row r="201" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A201">
         <f t="shared" si="6"/>
         <v>0.19900000000000015</v>
@@ -15386,7 +15397,7 @@
         <v>-9927.7444324397857</v>
       </c>
     </row>
-    <row r="202" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A202">
         <f t="shared" si="6"/>
         <v>0.20000000000000015</v>
@@ -15424,7 +15435,7 @@
         <v>-9875.6837951950638</v>
       </c>
     </row>
-    <row r="203" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A203">
         <f t="shared" si="6"/>
         <v>0.20100000000000015</v>
@@ -15462,7 +15473,7 @@
         <v>-9823.818025048231</v>
       </c>
     </row>
-    <row r="204" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A204">
         <f t="shared" si="6"/>
         <v>0.20200000000000015</v>
@@ -15500,7 +15511,7 @@
         <v>-9772.1450263634233</v>
       </c>
     </row>
-    <row r="205" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A205">
         <f t="shared" si="6"/>
         <v>0.20300000000000015</v>
@@ -15538,7 +15549,7 @@
         <v>-9720.662733860072</v>
       </c>
     </row>
-    <row r="206" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A206">
         <f t="shared" si="6"/>
         <v>0.20400000000000015</v>
@@ -15576,7 +15587,7 @@
         <v>-9669.3691121035863</v>
       </c>
     </row>
-    <row r="207" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A207">
         <f t="shared" si="6"/>
         <v>0.20500000000000015</v>
@@ -15614,7 +15625,7 @@
         <v>-9618.2621549232772</v>
       </c>
     </row>
-    <row r="208" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A208">
         <f t="shared" si="6"/>
         <v>0.20600000000000016</v>
@@ -15652,7 +15663,7 @@
         <v>-9567.3398848593843</v>
       </c>
     </row>
-    <row r="209" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A209">
         <f t="shared" si="6"/>
         <v>0.20700000000000016</v>
@@ -15690,7 +15701,7 @@
         <v>-9516.6003525809992</v>
       </c>
     </row>
-    <row r="210" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A210">
         <f t="shared" si="6"/>
         <v>0.20800000000000016</v>
@@ -15728,7 +15739,7 @@
         <v>-9466.0416362312299</v>
       </c>
     </row>
-    <row r="211" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A211">
         <f t="shared" si="6"/>
         <v>0.20900000000000016</v>
@@ -15766,7 +15777,7 @@
         <v>-9415.6618411361615</v>
       </c>
     </row>
-    <row r="212" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A212">
         <f t="shared" si="6"/>
         <v>0.21000000000000016</v>
@@ -15804,7 +15815,7 @@
         <v>-9365.4590991500208</v>
       </c>
     </row>
-    <row r="213" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A213">
         <f t="shared" si="6"/>
         <v>0.21100000000000016</v>
@@ -15842,7 +15853,7 @@
         <v>-9315.431568014892</v>
       </c>
     </row>
-    <row r="214" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A214">
         <f t="shared" si="6"/>
         <v>0.21200000000000016</v>
@@ -15880,7 +15891,7 @@
         <v>-9265.577431055126</v>
       </c>
     </row>
-    <row r="215" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A215">
         <f t="shared" si="6"/>
         <v>0.21300000000000016</v>
@@ -15918,7 +15929,7 @@
         <v>-9215.894896755337</v>
       </c>
     </row>
-    <row r="216" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A216">
         <f t="shared" si="6"/>
         <v>0.21400000000000016</v>
@@ -15956,7 +15967,7 @@
         <v>-9166.3821980182474</v>
       </c>
     </row>
-    <row r="217" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A217">
         <f t="shared" si="6"/>
         <v>0.21500000000000016</v>
@@ -15994,7 +16005,7 @@
         <v>-9117.0375918882128</v>
       </c>
     </row>
-    <row r="218" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A218">
         <f t="shared" si="6"/>
         <v>0.21600000000000016</v>
@@ -16032,7 +16043,7 @@
         <v>-9067.8593591583121</v>
       </c>
     </row>
-    <row r="219" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A219">
         <f t="shared" si="6"/>
         <v>0.21700000000000016</v>
@@ -16070,7 +16081,7 @@
         <v>-9018.8458037300661</v>
       </c>
     </row>
-    <row r="220" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A220">
         <f t="shared" si="6"/>
         <v>0.21800000000000017</v>
@@ -16108,7 +16119,7 @@
         <v>-8969.9952523515021</v>
       </c>
     </row>
-    <row r="221" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A221">
         <f t="shared" si="6"/>
         <v>0.21900000000000017</v>
@@ -16146,7 +16157,7 @@
         <v>-8921.3060540641818</v>
       </c>
     </row>
-    <row r="222" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A222">
         <f t="shared" si="6"/>
         <v>0.22000000000000017</v>
@@ -16184,7 +16195,7 @@
         <v>-8872.7765799412664</v>
       </c>
     </row>
-    <row r="223" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A223">
         <f t="shared" si="6"/>
         <v>0.22100000000000017</v>
@@ -16222,7 +16233,7 @@
         <v>-8824.4052226946151</v>
       </c>
     </row>
-    <row r="224" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A224">
         <f t="shared" si="6"/>
         <v>0.22200000000000017</v>
@@ -16260,7 +16271,7 @@
         <v>-8776.1903959762931</v>
       </c>
     </row>
-    <row r="225" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A225">
         <f t="shared" si="6"/>
         <v>0.22300000000000017</v>
@@ -16298,7 +16309,7 @@
         <v>-8728.1305343494678</v>
       </c>
     </row>
-    <row r="226" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A226">
         <f t="shared" si="6"/>
         <v>0.22400000000000017</v>
@@ -16336,7 +16347,7 @@
         <v>-8680.2240928955071</v>
       </c>
     </row>
-    <row r="227" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A227">
         <f t="shared" si="6"/>
         <v>0.22500000000000017</v>
@@ -16374,7 +16385,7 @@
         <v>-8632.4695464572796</v>
       </c>
     </row>
-    <row r="228" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A228">
         <f t="shared" si="6"/>
         <v>0.22600000000000017</v>
@@ -16412,7 +16423,7 @@
         <v>-8584.8653897119148</v>
       </c>
     </row>
-    <row r="229" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A229">
         <f t="shared" si="6"/>
         <v>0.22700000000000017</v>
@@ -16450,7 +16461,7 @@
         <v>-8537.4101367779003</v>
       </c>
     </row>
-    <row r="230" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A230">
         <f t="shared" si="6"/>
         <v>0.22800000000000017</v>
@@ -16488,7 +16499,7 @@
         <v>-8490.1023205602469</v>
       </c>
     </row>
-    <row r="231" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A231">
         <f t="shared" ref="A231:A294" si="8">A230+0.001</f>
         <v>0.22900000000000018</v>
@@ -16526,7 +16537,7 @@
         <v>-8442.9404926922798</v>
       </c>
     </row>
-    <row r="232" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A232">
         <f t="shared" si="8"/>
         <v>0.23000000000000018</v>
@@ -16564,7 +16575,7 @@
         <v>-8395.9232231863934</v>
       </c>
     </row>
-    <row r="233" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A233">
         <f t="shared" si="8"/>
         <v>0.23100000000000018</v>
@@ -16602,7 +16613,7 @@
         <v>-8349.0490999538379</v>
       </c>
     </row>
-    <row r="234" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A234">
         <f t="shared" si="8"/>
         <v>0.23200000000000018</v>
@@ -16640,7 +16651,7 @@
         <v>-8302.3167286009921</v>
       </c>
     </row>
-    <row r="235" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A235">
         <f t="shared" si="8"/>
         <v>0.23300000000000018</v>
@@ -16678,7 +16689,7 @@
         <v>-8255.7247322256371</v>
       </c>
     </row>
-    <row r="236" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A236">
         <f t="shared" si="8"/>
         <v>0.23400000000000018</v>
@@ -16716,7 +16727,7 @@
         <v>-8209.2717509076392</v>
       </c>
     </row>
-    <row r="237" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A237">
         <f t="shared" si="8"/>
         <v>0.23500000000000018</v>
@@ -16754,7 +16765,7 @@
         <v>-8162.9564415343266</v>
       </c>
     </row>
-    <row r="238" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A238">
         <f t="shared" si="8"/>
         <v>0.23600000000000018</v>
@@ -16792,7 +16803,7 @@
         <v>-8116.7774774512436</v>
       </c>
     </row>
-    <row r="239" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A239">
         <f t="shared" si="8"/>
         <v>0.23700000000000018</v>
@@ -16830,7 +16841,7 @@
         <v>-8070.7335482293201</v>
       </c>
     </row>
-    <row r="240" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A240">
         <f t="shared" si="8"/>
         <v>0.23800000000000018</v>
@@ -16868,7 +16879,7 @@
         <v>-8024.8233595048005</v>
       </c>
     </row>
-    <row r="241" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A241">
         <f t="shared" si="8"/>
         <v>0.23900000000000018</v>
@@ -16906,7 +16917,7 @@
         <v>-7979.0456323826147</v>
       </c>
     </row>
-    <row r="242" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A242">
         <f t="shared" si="8"/>
         <v>0.24000000000000019</v>
@@ -16944,7 +16955,7 @@
         <v>-7933.3991034363789</v>
       </c>
     </row>
-    <row r="243" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A243">
         <f t="shared" si="8"/>
         <v>0.24100000000000019</v>
@@ -16982,7 +16993,7 @@
         <v>-7887.8825244901163</v>
       </c>
     </row>
-    <row r="244" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A244">
         <f t="shared" si="8"/>
         <v>0.24200000000000019</v>
@@ -17020,7 +17031,7 @@
         <v>-7842.4946621380441</v>
       </c>
     </row>
-    <row r="245" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A245">
         <f t="shared" si="8"/>
         <v>0.24300000000000019</v>
@@ -17058,7 +17069,7 @@
         <v>-7797.2342975990541</v>
       </c>
     </row>
-    <row r="246" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A246">
         <f t="shared" si="8"/>
         <v>0.24400000000000019</v>
@@ -17096,7 +17107,7 @@
         <v>-7752.1002265566422</v>
       </c>
     </row>
-    <row r="247" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A247">
         <f t="shared" si="8"/>
         <v>0.24500000000000019</v>
@@ -17134,7 +17145,7 @@
         <v>-7707.0912588242136</v>
       </c>
     </row>
-    <row r="248" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A248">
         <f t="shared" si="8"/>
         <v>0.24600000000000019</v>
@@ -17172,7 +17183,7 @@
         <v>-7662.2062181704614</v>
       </c>
     </row>
-    <row r="249" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A249">
         <f t="shared" si="8"/>
         <v>0.24700000000000019</v>
@@ -17210,7 +17221,7 @@
         <v>-7617.4439419992204</v>
       </c>
     </row>
-    <row r="250" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A250">
         <f t="shared" si="8"/>
         <v>0.24800000000000019</v>
@@ -17248,7 +17259,7 @@
         <v>-7572.8032811894018</v>
       </c>
     </row>
-    <row r="251" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A251">
         <f t="shared" si="8"/>
         <v>0.24900000000000019</v>
@@ -17286,7 +17297,7 @@
         <v>-7528.2830999204707</v>
       </c>
     </row>
-    <row r="252" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A252">
         <f t="shared" si="8"/>
         <v>0.25000000000000017</v>
@@ -17324,7 +17335,7 @@
         <v>-7483.8822753664381</v>
       </c>
     </row>
-    <row r="253" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A253">
         <f t="shared" si="8"/>
         <v>0.25100000000000017</v>
@@ -17362,7 +17373,7 @@
         <v>-7439.5996974926611</v>
       </c>
     </row>
-    <row r="254" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A254">
         <f t="shared" si="8"/>
         <v>0.25200000000000017</v>
@@ -17400,7 +17411,7 @@
         <v>-7395.4342689394189</v>
       </c>
     </row>
-    <row r="255" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A255">
         <f t="shared" si="8"/>
         <v>0.25300000000000017</v>
@@ -17438,7 +17449,7 @@
         <v>-7351.3849047885678</v>
       </c>
     </row>
-    <row r="256" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A256">
         <f t="shared" si="8"/>
         <v>0.25400000000000017</v>
@@ -17476,7 +17487,7 @@
         <v>-7307.4505321856059</v>
       </c>
     </row>
-    <row r="257" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A257">
         <f t="shared" si="8"/>
         <v>0.25500000000000017</v>
@@ -17514,7 +17525,7 @@
         <v>-7263.6300904123282</v>
       </c>
     </row>
-    <row r="258" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A258">
         <f t="shared" si="8"/>
         <v>0.25600000000000017</v>
@@ -17552,7 +17563,7 @@
         <v>-7219.9225305957889</v>
       </c>
     </row>
-    <row r="259" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A259">
         <f t="shared" si="8"/>
         <v>0.25700000000000017</v>
@@ -17590,7 +17601,7 @@
         <v>-7176.326815388159</v>
       </c>
     </row>
-    <row r="260" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A260">
         <f t="shared" si="8"/>
         <v>0.25800000000000017</v>
@@ -17628,7 +17639,7 @@
         <v>-7132.8419189958304</v>
       </c>
     </row>
-    <row r="261" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A261">
         <f t="shared" si="8"/>
         <v>0.25900000000000017</v>
@@ -17666,7 +17677,7 @@
         <v>-7089.4668268447213</v>
       </c>
     </row>
-    <row r="262" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A262">
         <f t="shared" si="8"/>
         <v>0.26000000000000018</v>
@@ -17704,7 +17715,7 @@
         <v>-7046.2005354784133</v>
       </c>
     </row>
-    <row r="263" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A263">
         <f t="shared" si="8"/>
         <v>0.26100000000000018</v>
@@ -17742,7 +17753,7 @@
         <v>-7003.0420523544244</v>
       </c>
     </row>
-    <row r="264" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A264">
         <f t="shared" si="8"/>
         <v>0.26200000000000018</v>
@@ -17780,7 +17791,7 @@
         <v>-6959.9903956550343</v>
       </c>
     </row>
-    <row r="265" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A265">
         <f t="shared" si="8"/>
         <v>0.26300000000000018</v>
@@ -17818,7 +17829,7 @@
         <v>-6917.0445941708685</v>
       </c>
     </row>
-    <row r="266" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A266">
         <f t="shared" si="8"/>
         <v>0.26400000000000018</v>
@@ -17856,7 +17867,7 @@
         <v>-6874.2036871990358</v>
       </c>
     </row>
-    <row r="267" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A267">
         <f t="shared" si="8"/>
         <v>0.26500000000000018</v>
@@ -17894,7 +17905,7 @@
         <v>-6831.4667241356738</v>
       </c>
     </row>
-    <row r="268" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A268">
         <f t="shared" si="8"/>
         <v>0.26600000000000018</v>
@@ -17932,7 +17943,7 @@
         <v>-6788.8327645050531</v>
       </c>
     </row>
-    <row r="269" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A269">
         <f t="shared" si="8"/>
         <v>0.26700000000000018</v>
@@ -17970,7 +17981,7 @@
         <v>-6746.3008779450256</v>
       </c>
     </row>
-    <row r="270" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A270">
         <f t="shared" si="8"/>
         <v>0.26800000000000018</v>
@@ -18008,7 +18019,7 @@
         <v>-6703.8701436977071</v>
       </c>
     </row>
-    <row r="271" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A271">
         <f t="shared" si="8"/>
         <v>0.26900000000000018</v>
@@ -18046,7 +18057,7 @@
         <v>-6661.5396506676852</v>
       </c>
     </row>
-    <row r="272" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A272">
         <f t="shared" si="8"/>
         <v>0.27000000000000018</v>
@@ -18084,7 +18095,7 @@
         <v>-6619.3084973638124</v>
       </c>
     </row>
-    <row r="273" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A273">
         <f t="shared" si="8"/>
         <v>0.27100000000000019</v>
@@ -18122,7 +18133,7 @@
         <v>-6577.1757915645085</v>
       </c>
     </row>
-    <row r="274" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A274">
         <f t="shared" si="8"/>
         <v>0.27200000000000019</v>
@@ -18160,7 +18171,7 @@
         <v>-6535.140650303214</v>
       </c>
     </row>
-    <row r="275" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A275">
         <f t="shared" si="8"/>
         <v>0.27300000000000019</v>
@@ -18198,7 +18209,7 @@
         <v>-6493.2021996937638</v>
       </c>
     </row>
-    <row r="276" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A276">
         <f t="shared" si="8"/>
         <v>0.27400000000000019</v>
@@ -18236,7 +18247,7 @@
         <v>-6451.359574712109</v>
       </c>
     </row>
-    <row r="277" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A277">
         <f t="shared" si="8"/>
         <v>0.27500000000000019</v>
@@ -18274,7 +18285,7 @@
         <v>-6409.6119191817652</v>
       </c>
     </row>
-    <row r="278" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A278">
         <f t="shared" si="8"/>
         <v>0.27600000000000019</v>
@@ -18312,7 +18323,7 @@
         <v>-6367.9583856137415</v>
       </c>
     </row>
-    <row r="279" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A279">
         <f t="shared" si="8"/>
         <v>0.27700000000000019</v>
@@ -18350,7 +18361,7 @@
         <v>-6326.3981350464692</v>
       </c>
     </row>
-    <row r="280" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A280">
         <f t="shared" si="8"/>
         <v>0.27800000000000019</v>
@@ -18388,7 +18399,7 @@
         <v>-6284.9303369584904</v>
       </c>
     </row>
-    <row r="281" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A281">
         <f t="shared" si="8"/>
         <v>0.27900000000000019</v>
@@ -18426,7 +18437,7 @@
         <v>-6243.5541690647315</v>
       </c>
     </row>
-    <row r="282" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A282">
         <f t="shared" si="8"/>
         <v>0.28000000000000019</v>
@@ -18464,7 +18475,7 @@
         <v>-6202.2688173165025</v>
       </c>
     </row>
-    <row r="283" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A283">
         <f t="shared" si="8"/>
         <v>0.28100000000000019</v>
@@ -18502,7 +18513,7 @@
         <v>-6161.0734756832189</v>
       </c>
     </row>
-    <row r="284" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A284">
         <f t="shared" si="8"/>
         <v>0.28200000000000019</v>
@@ -18540,7 +18551,7 @@
         <v>-6119.9673459923306</v>
       </c>
     </row>
-    <row r="285" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A285">
         <f t="shared" si="8"/>
         <v>0.2830000000000002</v>
@@ -18578,7 +18589,7 @@
         <v>-6078.9496379875291</v>
       </c>
     </row>
-    <row r="286" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A286">
         <f t="shared" si="8"/>
         <v>0.2840000000000002</v>
@@ -18616,7 +18627,7 @@
         <v>-6038.019569125021</v>
       </c>
     </row>
-    <row r="287" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A287">
         <f t="shared" si="8"/>
         <v>0.2850000000000002</v>
@@ -18654,7 +18665,7 @@
         <v>-5997.1763643989052</v>
       </c>
     </row>
-    <row r="288" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A288">
         <f t="shared" si="8"/>
         <v>0.2860000000000002</v>
@@ -18692,7 +18703,7 @@
         <v>-5956.4192562393091</v>
       </c>
     </row>
-    <row r="289" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A289">
         <f t="shared" si="8"/>
         <v>0.2870000000000002</v>
@@ -18730,7 +18741,7 @@
         <v>-5915.7474845123888</v>
       </c>
     </row>
-    <row r="290" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A290">
         <f t="shared" si="8"/>
         <v>0.2880000000000002</v>
@@ -18768,7 +18779,7 @@
         <v>-5875.1602963748101</v>
       </c>
     </row>
-    <row r="291" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A291">
         <f t="shared" si="8"/>
         <v>0.2890000000000002</v>
@@ -18806,7 +18817,7 @@
         <v>-5834.6569460554692</v>
       </c>
     </row>
-    <row r="292" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A292">
         <f t="shared" si="8"/>
         <v>0.2900000000000002</v>
@@ -18844,7 +18855,7 @@
         <v>-5794.2366948845975</v>
       </c>
     </row>
-    <row r="293" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A293">
         <f t="shared" si="8"/>
         <v>0.2910000000000002</v>
@@ -18882,7 +18893,7 @@
         <v>-5753.8988111773451</v>
       </c>
     </row>
-    <row r="294" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A294">
         <f t="shared" si="8"/>
         <v>0.2920000000000002</v>
@@ -18920,7 +18931,7 @@
         <v>-5713.6425701173666</v>
       </c>
     </row>
-    <row r="295" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A295">
         <f t="shared" ref="A295:A358" si="10">A294+0.001</f>
         <v>0.2930000000000002</v>
@@ -18958,7 +18969,7 @@
         <v>-5673.4672535385416</v>
       </c>
     </row>
-    <row r="296" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A296">
         <f t="shared" si="10"/>
         <v>0.29400000000000021</v>
@@ -18996,7 +19007,7 @@
         <v>-5633.3721499977346</v>
       </c>
     </row>
-    <row r="297" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A297">
         <f t="shared" si="10"/>
         <v>0.29500000000000021</v>
@@ -19034,7 +19045,7 @@
         <v>-5593.3565547456919</v>
       </c>
     </row>
-    <row r="298" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A298">
         <f t="shared" si="10"/>
         <v>0.29600000000000021</v>
@@ -19072,7 +19083,7 @@
         <v>-5553.4197692904809</v>
       </c>
     </row>
-    <row r="299" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A299">
         <f t="shared" si="10"/>
         <v>0.29700000000000021</v>
@@ -19110,7 +19121,7 @@
         <v>-5513.5611016303255</v>
       </c>
     </row>
-    <row r="300" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A300">
         <f t="shared" si="10"/>
         <v>0.29800000000000021</v>
@@ -19148,7 +19159,7 @@
         <v>-5473.7798661662919</v>
       </c>
     </row>
-    <row r="301" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A301">
         <f t="shared" si="10"/>
         <v>0.29900000000000021</v>
@@ -19186,7 +19197,7 @@
         <v>-5434.0753833239387</v>
       </c>
     </row>
-    <row r="302" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A302">
         <f t="shared" si="10"/>
         <v>0.30000000000000021</v>
@@ -19224,7 +19235,7 @@
         <v>-5394.4469797133888</v>
       </c>
     </row>
-    <row r="303" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A303">
         <f t="shared" si="10"/>
         <v>0.30100000000000021</v>
@@ -19262,7 +19273,7 @@
         <v>-5354.8939880274656</v>
       </c>
     </row>
-    <row r="304" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A304">
         <f t="shared" si="10"/>
         <v>0.30200000000000021</v>
@@ -19300,7 +19311,7 @@
         <v>-5315.4157468670701</v>
       </c>
     </row>
-    <row r="305" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A305">
         <f t="shared" si="10"/>
         <v>0.30300000000000021</v>
@@ -19338,7 +19349,7 @@
         <v>-5276.0116007557326</v>
       </c>
     </row>
-    <row r="306" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A306">
         <f t="shared" si="10"/>
         <v>0.30400000000000021</v>
@@ -19376,7 +19387,7 @@
         <v>-5236.6808999067825</v>
       </c>
     </row>
-    <row r="307" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A307">
         <f t="shared" si="10"/>
         <v>0.30500000000000022</v>
@@ -19414,7 +19425,7 @@
         <v>-5197.4230002670038</v>
       </c>
     </row>
-    <row r="308" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A308">
         <f t="shared" si="10"/>
         <v>0.30600000000000022</v>
@@ -19452,7 +19463,7 @@
         <v>-5158.2372635020829</v>
       </c>
     </row>
-    <row r="309" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A309">
         <f t="shared" si="10"/>
         <v>0.30700000000000022</v>
@@ -19490,7 +19501,7 @@
         <v>-5119.1230567492266</v>
       </c>
     </row>
-    <row r="310" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A310">
         <f t="shared" si="10"/>
         <v>0.30800000000000022</v>
@@ -19528,7 +19539,7 @@
         <v>-5080.0797526171618</v>
       </c>
     </row>
-    <row r="311" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A311">
         <f t="shared" si="10"/>
         <v>0.30900000000000022</v>
@@ -19566,7 +19577,7 @@
         <v>-5041.1067291861355</v>
       </c>
     </row>
-    <row r="312" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A312">
         <f t="shared" si="10"/>
         <v>0.31000000000000022</v>
@@ -19604,7 +19615,7 @@
         <v>-5002.2033697459801</v>
       </c>
     </row>
-    <row r="313" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A313">
         <f t="shared" si="10"/>
         <v>0.31100000000000022</v>
@@ -19642,7 +19653,7 @@
         <v>-4963.3690628979775</v>
       </c>
     </row>
-    <row r="314" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A314">
         <f t="shared" si="10"/>
         <v>0.31200000000000022</v>
@@ -19680,7 +19691,7 @@
         <v>-4924.6032025112027</v>
       </c>
     </row>
-    <row r="315" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A315">
         <f t="shared" si="10"/>
         <v>0.31300000000000022</v>
@@ -19718,7 +19729,7 @@
         <v>-4885.9051874314855</v>
       </c>
     </row>
-    <row r="316" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A316">
         <f t="shared" si="10"/>
         <v>0.31400000000000022</v>
@@ -19756,7 +19767,7 @@
         <v>-4847.2744215978264</v>
       </c>
     </row>
-    <row r="317" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A317">
         <f t="shared" si="10"/>
         <v>0.31500000000000022</v>
@@ -19794,7 +19805,7 @@
         <v>-4808.7103139550845</v>
       </c>
     </row>
-    <row r="318" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A318">
         <f t="shared" si="10"/>
         <v>0.31600000000000023</v>
@@ -19832,7 +19843,7 @@
         <v>-4770.2122783084587</v>
       </c>
     </row>
-    <row r="319" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A319">
         <f t="shared" si="10"/>
         <v>0.31700000000000023</v>
@@ -19870,7 +19881,7 @@
         <v>-4731.7797333380395</v>
       </c>
     </row>
-    <row r="320" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A320">
         <f t="shared" si="10"/>
         <v>0.31800000000000023</v>
@@ -19908,7 +19919,7 @@
         <v>-4693.4121024387377</v>
       </c>
     </row>
-    <row r="321" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A321">
         <f t="shared" si="10"/>
         <v>0.31900000000000023</v>
@@ -19946,7 +19957,7 @@
         <v>-4655.1088137639408</v>
       </c>
     </row>
-    <row r="322" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A322">
         <f t="shared" si="10"/>
         <v>0.32000000000000023</v>
@@ -19984,7 +19995,7 @@
         <v>-4616.8693001964084</v>
       </c>
     </row>
-    <row r="323" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A323">
         <f t="shared" si="10"/>
         <v>0.32100000000000023</v>
@@ -20022,7 +20033,7 @@
         <v>-4578.6929990717872</v>
       </c>
     </row>
-    <row r="324" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A324">
         <f t="shared" si="10"/>
         <v>0.32200000000000023</v>
@@ -20060,7 +20071,7 @@
         <v>-4540.5793522513668</v>
       </c>
     </row>
-    <row r="325" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A325">
         <f t="shared" si="10"/>
         <v>0.32300000000000023</v>
@@ -20098,7 +20109,7 @@
         <v>-4502.5278061802928</v>
       </c>
     </row>
-    <row r="326" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A326">
         <f t="shared" si="10"/>
         <v>0.32400000000000023</v>
@@ -20136,7 +20147,7 @@
         <v>-4464.5378115674212</v>
       </c>
     </row>
-    <row r="327" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A327">
         <f t="shared" si="10"/>
         <v>0.32500000000000023</v>
@@ -20174,7 +20185,7 @@
         <v>-4426.608823530838</v>
       </c>
     </row>
-    <row r="328" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A328">
         <f t="shared" si="10"/>
         <v>0.32600000000000023</v>
@@ -20212,7 +20223,7 @@
         <v>-4388.7403015542041</v>
       </c>
     </row>
-    <row r="329" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A329">
         <f t="shared" si="10"/>
         <v>0.32700000000000023</v>
@@ -20250,7 +20261,7 @@
         <v>-4350.931709268476</v>
       </c>
     </row>
-    <row r="330" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A330">
         <f t="shared" si="10"/>
         <v>0.32800000000000024</v>
@@ -20288,7 +20299,7 @@
         <v>-4313.1825144664581</v>
       </c>
     </row>
-    <row r="331" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A331">
         <f t="shared" si="10"/>
         <v>0.32900000000000024</v>
@@ -20326,7 +20337,7 @@
         <v>-4275.492189015491</v>
       </c>
     </row>
-    <row r="332" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A332">
         <f t="shared" si="10"/>
         <v>0.33000000000000024</v>
@@ -20364,7 +20375,7 @@
         <v>-4237.8602090175227</v>
       </c>
     </row>
-    <row r="333" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A333">
         <f t="shared" si="10"/>
         <v>0.33100000000000024</v>
@@ -20402,7 +20413,7 @@
         <v>-4200.2860544744144</v>
       </c>
     </row>
-    <row r="334" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A334">
         <f t="shared" si="10"/>
         <v>0.33200000000000024</v>
@@ -20440,7 +20451,7 @@
         <v>-4162.7692092879406</v>
       </c>
     </row>
-    <row r="335" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A335">
         <f t="shared" si="10"/>
         <v>0.33300000000000024</v>
@@ -20478,7 +20489,7 @@
         <v>-4125.3091614053083</v>
       </c>
     </row>
-    <row r="336" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A336">
         <f t="shared" si="10"/>
         <v>0.33400000000000024</v>
@@ -20516,7 +20527,7 @@
         <v>-4087.9054025572223</v>
       </c>
     </row>
-    <row r="337" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A337">
         <f t="shared" si="10"/>
         <v>0.33500000000000024</v>
@@ -20554,7 +20565,7 @@
         <v>-4050.5574282869893</v>
       </c>
     </row>
-    <row r="338" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A338">
         <f t="shared" si="10"/>
         <v>0.33600000000000024</v>
@@ -20592,7 +20603,7 @@
         <v>-4013.2647378486545</v>
       </c>
     </row>
-    <row r="339" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A339">
         <f t="shared" si="10"/>
         <v>0.33700000000000024</v>
@@ -20630,7 +20641,7 @@
         <v>-3976.026834250657</v>
       </c>
     </row>
-    <row r="340" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A340">
         <f t="shared" si="10"/>
         <v>0.33800000000000024</v>
@@ -20668,7 +20679,7 @@
         <v>-3938.8432241830706</v>
       </c>
     </row>
-    <row r="341" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A341">
         <f t="shared" si="10"/>
         <v>0.33900000000000025</v>
@@ -20706,7 +20717,7 @@
         <v>-3901.7134179157401</v>
       </c>
     </row>
-    <row r="342" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A342">
         <f t="shared" si="10"/>
         <v>0.34000000000000025</v>
@@ -20744,7 +20755,7 @@
         <v>-3864.6369292691779</v>
       </c>
     </row>
-    <row r="343" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="343" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A343">
         <f t="shared" si="10"/>
         <v>0.34100000000000025</v>
@@ -20782,7 +20793,7 @@
         <v>-3827.6132755563563</v>
       </c>
     </row>
-    <row r="344" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="344" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A344">
         <f t="shared" si="10"/>
         <v>0.34200000000000025</v>
@@ -20820,7 +20831,7 @@
         <v>-3790.6419776554653</v>
       </c>
     </row>
-    <row r="345" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="345" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A345">
         <f t="shared" si="10"/>
         <v>0.34300000000000025</v>
@@ -20858,7 +20869,7 @@
         <v>-3753.7225597916372</v>
       </c>
     </row>
-    <row r="346" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A346">
         <f t="shared" si="10"/>
         <v>0.34400000000000025</v>
@@ -20896,7 +20907,7 @@
         <v>-3716.854549536944</v>
       </c>
     </row>
-    <row r="347" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="347" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A347">
         <f t="shared" si="10"/>
         <v>0.34500000000000025</v>
@@ -20934,7 +20945,7 @@
         <v>-3680.0374779122617</v>
       </c>
     </row>
-    <row r="348" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="348" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A348">
         <f t="shared" si="10"/>
         <v>0.34600000000000025</v>
@@ -20972,7 +20983,7 @@
         <v>-3643.2708791398877</v>
       </c>
     </row>
-    <row r="349" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="349" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A349">
         <f t="shared" si="10"/>
         <v>0.34700000000000025</v>
@@ -21010,7 +21021,7 @@
         <v>-3606.5542907163003</v>
       </c>
     </row>
-    <row r="350" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="350" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A350">
         <f t="shared" si="10"/>
         <v>0.34800000000000025</v>
@@ -21048,7 +21059,7 @@
         <v>-3569.8872534121588</v>
       </c>
     </row>
-    <row r="351" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="351" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A351">
         <f t="shared" si="10"/>
         <v>0.34900000000000025</v>
@@ -21086,7 +21097,7 @@
         <v>-3533.2693110394725</v>
       </c>
     </row>
-    <row r="352" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="352" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A352">
         <f t="shared" si="10"/>
         <v>0.35000000000000026</v>
@@ -21124,7 +21135,7 @@
         <v>-3496.7000105825687</v>
       </c>
     </row>
-    <row r="353" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="353" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A353">
         <f t="shared" si="10"/>
         <v>0.35100000000000026</v>
@@ -21162,7 +21173,7 @@
         <v>-3460.1789022126436</v>
       </c>
     </row>
-    <row r="354" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="354" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A354">
         <f t="shared" si="10"/>
         <v>0.35200000000000026</v>
@@ -21200,7 +21211,7 @@
         <v>-3423.7055390112769</v>
       </c>
     </row>
-    <row r="355" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="355" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A355">
         <f t="shared" si="10"/>
         <v>0.35300000000000026</v>
@@ -21238,7 +21249,7 @@
         <v>-3387.2794771013982</v>
       </c>
     </row>
-    <row r="356" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="356" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A356">
         <f t="shared" si="10"/>
         <v>0.35400000000000026</v>
@@ -21276,7 +21287,7 @@
         <v>-3350.900275618184</v>
       </c>
     </row>
-    <row r="357" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="357" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A357">
         <f t="shared" si="10"/>
         <v>0.35500000000000026</v>
@@ -21314,7 +21325,7 @@
         <v>-3314.5674965926419</v>
       </c>
     </row>
-    <row r="358" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="358" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A358">
         <f t="shared" si="10"/>
         <v>0.35600000000000026</v>
@@ -21352,7 +21363,7 @@
         <v>-3278.2807049661615</v>
       </c>
     </row>
-    <row r="359" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="359" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A359">
         <f t="shared" ref="A359:A422" si="12">A358+0.001</f>
         <v>0.35700000000000026</v>
@@ -21390,7 +21401,7 @@
         <v>-3242.0394684741013</v>
       </c>
     </row>
-    <row r="360" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="360" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A360">
         <f t="shared" si="12"/>
         <v>0.35800000000000026</v>
@@ -21428,7 +21439,7 @@
         <v>-3205.8433577185469</v>
       </c>
     </row>
-    <row r="361" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="361" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A361">
         <f t="shared" si="12"/>
         <v>0.35900000000000026</v>
@@ -21466,7 +21477,7 @@
         <v>-3169.6919460664476</v>
       </c>
     </row>
-    <row r="362" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="362" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A362">
         <f t="shared" si="12"/>
         <v>0.36000000000000026</v>
@@ -21504,7 +21515,7 @@
         <v>-3133.5848096350646</v>
       </c>
     </row>
-    <row r="363" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="363" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A363">
         <f t="shared" si="12"/>
         <v>0.36100000000000027</v>
@@ -21542,7 +21553,7 @@
         <v>-3097.5215272774194</v>
       </c>
     </row>
-    <row r="364" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="364" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A364">
         <f t="shared" si="12"/>
         <v>0.36200000000000027</v>
@@ -21580,7 +21591,7 @@
         <v>-3061.5016804658781</v>
       </c>
     </row>
-    <row r="365" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="365" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A365">
         <f t="shared" si="12"/>
         <v>0.36300000000000027</v>
@@ -21618,7 +21629,7 @@
         <v>-3025.5248533358072</v>
       </c>
     </row>
-    <row r="366" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="366" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A366">
         <f t="shared" si="12"/>
         <v>0.36400000000000027</v>
@@ -21656,7 +21667,7 @@
         <v>-2989.5906326128143</v>
       </c>
     </row>
-    <row r="367" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="367" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A367">
         <f t="shared" si="12"/>
         <v>0.36500000000000027</v>
@@ -21694,7 +21705,7 @@
         <v>-2953.6986076127478</v>
       </c>
     </row>
-    <row r="368" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="368" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A368">
         <f t="shared" si="12"/>
         <v>0.36600000000000027</v>
@@ -21732,7 +21743,7 @@
         <v>-2917.8483701980413</v>
       </c>
     </row>
-    <row r="369" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="369" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A369">
         <f t="shared" si="12"/>
         <v>0.36700000000000027</v>
@@ -21770,7 +21781,7 @@
         <v>-2882.039514690402</v>
       </c>
     </row>
-    <row r="370" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="370" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A370">
         <f t="shared" si="12"/>
         <v>0.36800000000000027</v>
@@ -21808,7 +21819,7 @@
         <v>-2846.2716379144667</v>
       </c>
     </row>
-    <row r="371" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="371" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A371">
         <f t="shared" si="12"/>
         <v>0.36900000000000027</v>
@@ -21846,7 +21857,7 @@
         <v>-2810.5443391541462</v>
       </c>
     </row>
-    <row r="372" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="372" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A372">
         <f t="shared" si="12"/>
         <v>0.37000000000000027</v>
@@ -21884,7 +21895,7 @@
         <v>-2774.8572200362082</v>
       </c>
     </row>
-    <row r="373" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="373" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A373">
         <f t="shared" si="12"/>
         <v>0.37100000000000027</v>
@@ -21922,7 +21933,7 @@
         <v>-2739.2098846175918</v>
       </c>
     </row>
-    <row r="374" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="374" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A374">
         <f t="shared" si="12"/>
         <v>0.37200000000000027</v>
@@ -21960,7 +21971,7 @@
         <v>-2703.6019393271977</v>
       </c>
     </row>
-    <row r="375" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="375" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A375">
         <f t="shared" si="12"/>
         <v>0.37300000000000028</v>
@@ -21998,7 +22009,7 @@
         <v>-2668.0329928058177</v>
       </c>
     </row>
-    <row r="376" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="376" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A376">
         <f t="shared" si="12"/>
         <v>0.37400000000000028</v>
@@ -22036,7 +22047,7 @@
         <v>-2632.502656051654</v>
       </c>
     </row>
-    <row r="377" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="377" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A377">
         <f t="shared" si="12"/>
         <v>0.37500000000000028</v>
@@ -22074,7 +22085,7 @@
         <v>-2597.0105423184555</v>
       </c>
     </row>
-    <row r="378" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="378" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A378">
         <f t="shared" si="12"/>
         <v>0.37600000000000028</v>
@@ -22112,7 +22123,7 @@
         <v>-2561.5562670864142</v>
       </c>
     </row>
-    <row r="379" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="379" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A379">
         <f t="shared" si="12"/>
         <v>0.37700000000000028</v>
@@ -22150,7 +22161,7 @@
         <v>-2526.1394480330614</v>
       </c>
     </row>
-    <row r="380" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="380" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A380">
         <f t="shared" si="12"/>
         <v>0.37800000000000028</v>
@@ -22188,7 +22199,7 @@
         <v>-2490.7597049168521</v>
       </c>
     </row>
-    <row r="381" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="381" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A381">
         <f t="shared" si="12"/>
         <v>0.37900000000000028</v>
@@ -22226,7 +22237,7 @@
         <v>-2455.4166597226845</v>
       </c>
     </row>
-    <row r="382" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="382" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A382">
         <f t="shared" si="12"/>
         <v>0.38000000000000028</v>
@@ -22264,7 +22275,7 @@
         <v>-2420.1099365745881</v>
       </c>
     </row>
-    <row r="383" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="383" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A383">
         <f t="shared" si="12"/>
         <v>0.38100000000000028</v>
@@ -22302,7 +22313,7 @@
         <v>-2384.8391616193089</v>
       </c>
     </row>
-    <row r="384" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="384" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A384">
         <f t="shared" si="12"/>
         <v>0.38200000000000028</v>
@@ -22340,7 +22351,7 @@
         <v>-2349.6039630699647</v>
       </c>
     </row>
-    <row r="385" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="385" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A385">
         <f t="shared" si="12"/>
         <v>0.38300000000000028</v>
@@ -22378,7 +22389,7 @@
         <v>-2314.4039711187338</v>
       </c>
     </row>
-    <row r="386" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="386" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A386">
         <f t="shared" si="12"/>
         <v>0.38400000000000029</v>
@@ -22416,7 +22427,7 @@
         <v>-2279.2388180387188</v>
       </c>
     </row>
-    <row r="387" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="387" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A387">
         <f t="shared" si="12"/>
         <v>0.38500000000000029</v>
@@ -22454,7 +22465,7 @@
         <v>-2244.1081380820815</v>
       </c>
     </row>
-    <row r="388" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="388" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A388">
         <f t="shared" si="12"/>
         <v>0.38600000000000029</v>
@@ -22492,7 +22503,7 @@
         <v>-2209.0115673927339</v>
       </c>
     </row>
-    <row r="389" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="389" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A389">
         <f t="shared" si="12"/>
         <v>0.38700000000000029</v>
@@ -22530,7 +22541,7 @@
         <v>-2173.9487440354405</v>
       </c>
     </row>
-    <row r="390" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="390" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A390">
         <f t="shared" si="12"/>
         <v>0.38800000000000029</v>
@@ -22568,7 +22579,7 @@
         <v>-2138.9193079812667</v>
       </c>
     </row>
-    <row r="391" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="391" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A391">
         <f t="shared" si="12"/>
         <v>0.38900000000000029</v>
@@ -22606,7 +22617,7 @@
         <v>-2103.9229011221305</v>
       </c>
     </row>
-    <row r="392" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="392" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A392">
         <f t="shared" si="12"/>
         <v>0.39000000000000029</v>
@@ -22644,7 +22655,7 @@
         <v>-2068.9591671689395</v>
       </c>
     </row>
-    <row r="393" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="393" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A393">
         <f t="shared" si="12"/>
         <v>0.39100000000000029</v>
@@ -22682,7 +22693,7 @@
         <v>-2034.0277515933831</v>
       </c>
     </row>
-    <row r="394" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="394" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A394">
         <f t="shared" si="12"/>
         <v>0.39200000000000029</v>
@@ -22720,7 +22731,7 @@
         <v>-1999.1283017152437</v>
       </c>
     </row>
-    <row r="395" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="395" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A395">
         <f t="shared" si="12"/>
         <v>0.39300000000000029</v>
@@ -22758,7 +22769,7 @@
         <v>-1964.2604666587413</v>
       </c>
     </row>
-    <row r="396" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="396" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A396">
         <f t="shared" si="12"/>
         <v>0.39400000000000029</v>
@@ -22796,7 +22807,7 @@
         <v>-1929.4238972361181</v>
       </c>
     </row>
-    <row r="397" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="397" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A397">
         <f t="shared" si="12"/>
         <v>0.3950000000000003</v>
@@ -22834,7 +22845,7 @@
         <v>-1894.6182460203984</v>
       </c>
     </row>
-    <row r="398" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="398" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A398">
         <f t="shared" si="12"/>
         <v>0.3960000000000003</v>
@@ -22872,7 +22883,7 @@
         <v>-1859.8431672871795</v>
       </c>
     </row>
-    <row r="399" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="399" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A399">
         <f t="shared" si="12"/>
         <v>0.3970000000000003</v>
@@ -22910,7 +22921,7 @@
         <v>-1825.0983169127705</v>
       </c>
     </row>
-    <row r="400" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="400" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A400">
         <f t="shared" si="12"/>
         <v>0.3980000000000003</v>
@@ -22948,7 +22959,7 @@
         <v>-1790.383352505158</v>
       </c>
     </row>
-    <row r="401" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="401" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A401">
         <f t="shared" si="12"/>
         <v>0.3990000000000003</v>
@@ -22986,7 +22997,7 @@
         <v>-1755.6979333166948</v>
       </c>
     </row>
-    <row r="402" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="402" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A402">
         <f t="shared" si="12"/>
         <v>0.4000000000000003</v>
@@ -23024,7 +23035,7 @@
         <v>-1721.0417201567891</v>
       </c>
     </row>
-    <row r="403" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="403" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A403">
         <f t="shared" si="12"/>
         <v>0.4010000000000003</v>
@@ -23062,7 +23073,7 @@
         <v>-1686.4143754792151</v>
       </c>
     </row>
-    <row r="404" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="404" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A404">
         <f t="shared" si="12"/>
         <v>0.4020000000000003</v>
@@ -23100,7 +23111,7 @@
         <v>-1651.815563192939</v>
       </c>
     </row>
-    <row r="405" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="405" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A405">
         <f t="shared" si="12"/>
         <v>0.4030000000000003</v>
@@ -23138,7 +23149,7 @@
         <v>-1617.2449488221887</v>
       </c>
     </row>
-    <row r="406" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="406" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A406">
         <f t="shared" si="12"/>
         <v>0.4040000000000003</v>
@@ -23176,7 +23187,7 @@
         <v>-1582.7021994627999</v>
       </c>
     </row>
-    <row r="407" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="407" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A407">
         <f t="shared" si="12"/>
         <v>0.4050000000000003</v>
@@ -23214,7 +23225,7 @@
         <v>-1548.1869836657993</v>
       </c>
     </row>
-    <row r="408" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="408" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A408">
         <f t="shared" si="12"/>
         <v>0.40600000000000031</v>
@@ -23252,7 +23263,7 @@
         <v>-1513.6989713791977</v>
       </c>
     </row>
-    <row r="409" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="409" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A409">
         <f t="shared" si="12"/>
         <v>0.40700000000000031</v>
@@ -23290,7 +23301,7 @@
         <v>-1479.2378340935088</v>
       </c>
     </row>
-    <row r="410" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="410" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A410">
         <f t="shared" si="12"/>
         <v>0.40800000000000031</v>
@@ -23328,7 +23339,7 @@
         <v>-1444.8032447689898</v>
       </c>
     </row>
-    <row r="411" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="411" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A411">
         <f t="shared" si="12"/>
         <v>0.40900000000000031</v>
@@ -23366,7 +23377,7 @@
         <v>-1410.3948776610182</v>
       </c>
     </row>
-    <row r="412" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="412" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A412">
         <f t="shared" si="12"/>
         <v>0.41000000000000031</v>
@@ -23404,7 +23415,7 @@
         <v>-1376.0124085092673</v>
       </c>
     </row>
-    <row r="413" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="413" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A413">
         <f t="shared" si="12"/>
         <v>0.41100000000000031</v>
@@ -23442,7 +23453,7 @@
         <v>-1341.6555144358415</v>
       </c>
     </row>
-    <row r="414" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="414" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A414">
         <f t="shared" si="12"/>
         <v>0.41200000000000031</v>
@@ -23480,7 +23491,7 @@
         <v>-1307.3238738434145</v>
       </c>
     </row>
-    <row r="415" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="415" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A415">
         <f t="shared" si="12"/>
         <v>0.41300000000000031</v>
@@ -23518,7 +23529,7 @@
         <v>-1273.0171665170917</v>
       </c>
     </row>
-    <row r="416" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="416" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A416">
         <f t="shared" si="12"/>
         <v>0.41400000000000031</v>
@@ -23556,7 +23567,7 @@
         <v>-1238.7350735662028</v>
       </c>
     </row>
-    <row r="417" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="417" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A417">
         <f t="shared" si="12"/>
         <v>0.41500000000000031</v>
@@ -23594,7 +23605,7 @@
         <v>-1204.4772773660941</v>
       </c>
     </row>
-    <row r="418" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="418" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A418">
         <f t="shared" si="12"/>
         <v>0.41600000000000031</v>
@@ -23632,7 +23643,7 @@
         <v>-1170.2434616163362</v>
       </c>
     </row>
-    <row r="419" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="419" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A419">
         <f t="shared" si="12"/>
         <v>0.41700000000000031</v>
@@ -23670,7 +23681,7 @@
         <v>-1136.0333111661012</v>
       </c>
     </row>
-    <row r="420" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="420" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A420">
         <f t="shared" si="12"/>
         <v>0.41800000000000032</v>
@@ -23708,7 +23719,7 @@
         <v>-1101.8465121887848</v>
       </c>
     </row>
-    <row r="421" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="421" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A421">
         <f t="shared" si="12"/>
         <v>0.41900000000000032</v>
@@ -23746,7 +23757,7 @@
         <v>-1067.6827521092482</v>
       </c>
     </row>
-    <row r="422" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="422" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A422">
         <f t="shared" si="12"/>
         <v>0.42000000000000032</v>
@@ -23784,7 +23795,7 @@
         <v>-1033.5417194437459</v>
       </c>
     </row>
-    <row r="423" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="423" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A423">
         <f t="shared" ref="A423:A486" si="14">A422+0.001</f>
         <v>0.42100000000000032</v>
@@ -23822,7 +23833,7 @@
         <v>-999.42310394544529</v>
       </c>
     </row>
-    <row r="424" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="424" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A424">
         <f t="shared" si="14"/>
         <v>0.42200000000000032</v>
@@ -23860,7 +23871,7 @@
         <v>-965.32659654621875</v>
       </c>
     </row>
-    <row r="425" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="425" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A425">
         <f t="shared" si="14"/>
         <v>0.42300000000000032</v>
@@ -23898,7 +23909,7 @@
         <v>-931.25188934209211</v>
       </c>
     </row>
-    <row r="426" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="426" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A426">
         <f t="shared" si="14"/>
         <v>0.42400000000000032</v>
@@ -23936,7 +23947,7 @@
         <v>-897.19867547682873</v>
       </c>
     </row>
-    <row r="427" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="427" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A427">
         <f t="shared" si="14"/>
         <v>0.42500000000000032</v>
@@ -23974,7 +23985,7 @@
         <v>-863.16664921468976</v>
       </c>
     </row>
-    <row r="428" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="428" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A428">
         <f t="shared" si="14"/>
         <v>0.42600000000000032</v>
@@ -24012,7 +24023,7 @@
         <v>-829.1555059986415</v>
       </c>
     </row>
-    <row r="429" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="429" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A429">
         <f t="shared" si="14"/>
         <v>0.42700000000000032</v>
@@ -24050,7 +24061,7 @@
         <v>-795.16494224662824</v>
       </c>
     </row>
-    <row r="430" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="430" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A430">
         <f t="shared" si="14"/>
         <v>0.42800000000000032</v>
@@ -24088,7 +24099,7 @@
         <v>-761.19465546798824</v>
       </c>
     </row>
-    <row r="431" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="431" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A431">
         <f t="shared" si="14"/>
         <v>0.42900000000000033</v>
@@ -24126,7 +24137,7 @@
         <v>-727.2443442780052</v>
       </c>
     </row>
-    <row r="432" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="432" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A432">
         <f t="shared" si="14"/>
         <v>0.43000000000000033</v>
@@ -24164,7 +24175,7 @@
         <v>-693.31370816507786</v>
       </c>
     </row>
-    <row r="433" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="433" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A433">
         <f t="shared" si="14"/>
         <v>0.43100000000000033</v>
@@ -24202,7 +24213,7 @@
         <v>-659.40244769444632</v>
       </c>
     </row>
-    <row r="434" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="434" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A434">
         <f t="shared" si="14"/>
         <v>0.43200000000000033</v>
@@ -24240,7 +24251,7 @@
         <v>-625.51026452274471</v>
       </c>
     </row>
-    <row r="435" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="435" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A435">
         <f t="shared" si="14"/>
         <v>0.43300000000000033</v>
@@ -24278,7 +24289,7 @@
         <v>-591.63686109241041</v>
       </c>
     </row>
-    <row r="436" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="436" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A436">
         <f t="shared" si="14"/>
         <v>0.43400000000000033</v>
@@ -24316,7 +24327,7 @@
         <v>-557.78194090817078</v>
       </c>
     </row>
-    <row r="437" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="437" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A437">
         <f t="shared" si="14"/>
         <v>0.43500000000000033</v>
@@ -24354,7 +24365,7 @@
         <v>-523.94520843517921</v>
       </c>
     </row>
-    <row r="438" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="438" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A438">
         <f t="shared" si="14"/>
         <v>0.43600000000000033</v>
@@ -24392,7 +24403,7 @@
         <v>-490.12636893894478</v>
       </c>
     </row>
-    <row r="439" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="439" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A439">
         <f t="shared" si="14"/>
         <v>0.43700000000000033</v>
@@ -24430,7 +24441,7 @@
         <v>-456.32512868905866</v>
       </c>
     </row>
-    <row r="440" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="440" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A440">
         <f t="shared" si="14"/>
         <v>0.43800000000000033</v>
@@ -24468,7 +24479,7 @@
         <v>-422.54119482822676</v>
       </c>
     </row>
-    <row r="441" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="441" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A441">
         <f t="shared" si="14"/>
         <v>0.43900000000000033</v>
@@ -24506,7 +24517,7 @@
         <v>-388.77427537227015</v>
       </c>
     </row>
-    <row r="442" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="442" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A442">
         <f t="shared" si="14"/>
         <v>0.44000000000000034</v>
@@ -24544,7 +24555,7 @@
         <v>-355.02407919557265</v>
       </c>
     </row>
-    <row r="443" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="443" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A443">
         <f t="shared" si="14"/>
         <v>0.44100000000000034</v>
@@ -24582,7 +24593,7 @@
         <v>-321.29031590011408</v>
       </c>
     </row>
-    <row r="444" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="444" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A444">
         <f t="shared" si="14"/>
         <v>0.44200000000000034</v>
@@ -24620,7 +24631,7 @@
         <v>-287.5726960628524</v>
       </c>
     </row>
-    <row r="445" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="445" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A445">
         <f t="shared" si="14"/>
         <v>0.44300000000000034</v>
@@ -24658,7 +24669,7 @@
         <v>-253.87093106110092</v>
       </c>
     </row>
-    <row r="446" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="446" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A446">
         <f t="shared" si="14"/>
         <v>0.44400000000000034</v>
@@ -24696,7 +24707,7 @@
         <v>-220.18473297066501</v>
       </c>
     </row>
-    <row r="447" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="447" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A447">
         <f t="shared" si="14"/>
         <v>0.44500000000000034</v>
@@ -24734,7 +24745,7 @@
         <v>-186.51381463860145</v>
       </c>
     </row>
-    <row r="448" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="448" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A448">
         <f t="shared" si="14"/>
         <v>0.44600000000000034</v>
@@ -24772,7 +24783,7 @@
         <v>-152.85788979963385</v>
       </c>
     </row>
-    <row r="449" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="449" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A449">
         <f t="shared" si="14"/>
         <v>0.44700000000000034</v>
@@ -24810,7 +24821,7 @@
         <v>-119.21667285787397</v>
       </c>
     </row>
-    <row r="450" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="450" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A450">
         <f t="shared" si="14"/>
         <v>0.44800000000000034</v>
@@ -24848,7 +24859,7 @@
         <v>-85.589878901373524</v>
       </c>
     </row>
-    <row r="451" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="451" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A451">
         <f t="shared" si="14"/>
         <v>0.44900000000000034</v>
@@ -24886,7 +24897,7 @@
         <v>-51.977223833091514</v>
       </c>
     </row>
-    <row r="452" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="452" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A452">
         <f t="shared" si="14"/>
         <v>0.45000000000000034</v>
@@ -24924,7 +24935,7 @@
         <v>-18.378424167167378</v>
       </c>
     </row>
-    <row r="453" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="453" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A453">
         <f t="shared" si="14"/>
         <v>0.45100000000000035</v>
@@ -24962,7 +24973,7 @@
         <v>15.206802840111763</v>
       </c>
     </row>
-    <row r="454" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="454" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A454">
         <f t="shared" si="14"/>
         <v>0.45200000000000035</v>
@@ -25000,7 +25011,7 @@
         <v>48.77873927762262</v>
       </c>
     </row>
-    <row r="455" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="455" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A455">
         <f t="shared" si="14"/>
         <v>0.45300000000000035</v>
@@ -25038,7 +25049,7 @@
         <v>82.337666579405706</v>
       </c>
     </row>
-    <row r="456" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="456" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A456">
         <f t="shared" si="14"/>
         <v>0.45400000000000035</v>
@@ -25076,7 +25087,7 @@
         <v>115.88386549556152</v>
       </c>
     </row>
-    <row r="457" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="457" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A457">
         <f t="shared" si="14"/>
         <v>0.45500000000000035</v>
@@ -25114,7 +25125,7 @@
         <v>149.41761622321778</v>
       </c>
     </row>
-    <row r="458" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="458" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A458">
         <f t="shared" si="14"/>
         <v>0.45600000000000035</v>
@@ -25152,7 +25163,7 @@
         <v>182.93919834832178</v>
       </c>
     </row>
-    <row r="459" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="459" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A459">
         <f t="shared" si="14"/>
         <v>0.45700000000000035</v>
@@ -25190,7 +25201,7 @@
         <v>216.44889075832887</v>
       </c>
     </row>
-    <row r="460" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="460" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A460">
         <f t="shared" si="14"/>
         <v>0.45800000000000035</v>
@@ -25228,7 +25239,7 @@
         <v>249.94697184592928</v>
       </c>
     </row>
-    <row r="461" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="461" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A461">
         <f t="shared" si="14"/>
         <v>0.45900000000000035</v>
@@ -25266,7 +25277,7 @@
         <v>283.43371942173667</v>
       </c>
     </row>
-    <row r="462" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="462" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A462">
         <f t="shared" si="14"/>
         <v>0.46000000000000035</v>
@@ -25304,7 +25315,7 @@
         <v>316.90941069973604</v>
       </c>
     </row>
-    <row r="463" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="463" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A463">
         <f t="shared" si="14"/>
         <v>0.46100000000000035</v>
@@ -25342,7 +25353,7 @@
         <v>350.37432237004367</v>
       </c>
     </row>
-    <row r="464" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="464" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A464">
         <f t="shared" si="14"/>
         <v>0.46200000000000035</v>
@@ -25380,7 +25391,7 @@
         <v>383.82873065711431</v>
       </c>
     </row>
-    <row r="465" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="465" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A465">
         <f t="shared" si="14"/>
         <v>0.46300000000000036</v>
@@ -25418,7 +25429,7 @@
         <v>417.27291118877434</v>
       </c>
     </row>
-    <row r="466" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="466" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A466">
         <f t="shared" si="14"/>
         <v>0.46400000000000036</v>
@@ -25456,7 +25467,7 @@
         <v>450.70713909808507</v>
       </c>
     </row>
-    <row r="467" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="467" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A467">
         <f t="shared" si="14"/>
         <v>0.46500000000000036</v>
@@ -25494,7 +25505,7 @@
         <v>484.13168908155012</v>
       </c>
     </row>
-    <row r="468" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="468" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A468">
         <f t="shared" si="14"/>
         <v>0.46600000000000036</v>
@@ -25532,7 +25543,7 @@
         <v>517.54683535546019</v>
       </c>
     </row>
-    <row r="469" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="469" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A469">
         <f t="shared" si="14"/>
         <v>0.46700000000000036</v>
@@ -25570,7 +25581,7 @@
         <v>550.95285165589257</v>
       </c>
     </row>
-    <row r="470" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="470" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A470">
         <f t="shared" si="14"/>
         <v>0.46800000000000036</v>
@@ -25608,7 +25619,7 @@
         <v>584.35001123871132</v>
       </c>
     </row>
-    <row r="471" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="471" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A471">
         <f t="shared" si="14"/>
         <v>0.46900000000000036</v>
@@ -25646,7 +25657,7 @@
         <v>617.73858703963867</v>
       </c>
     </row>
-    <row r="472" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="472" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A472">
         <f t="shared" si="14"/>
         <v>0.47000000000000036</v>
@@ -25684,7 +25695,7 @@
         <v>651.11885148507952</v>
       </c>
     </row>
-    <row r="473" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="473" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A473">
         <f t="shared" si="14"/>
         <v>0.47100000000000036</v>
@@ -25722,7 +25733,7 @@
         <v>684.49107659398521</v>
       </c>
     </row>
-    <row r="474" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="474" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A474">
         <f t="shared" si="14"/>
         <v>0.47200000000000036</v>
@@ -25760,7 +25771,7 @@
         <v>717.85553403606104</v>
       </c>
     </row>
-    <row r="475" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="475" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A475">
         <f t="shared" si="14"/>
         <v>0.47300000000000036</v>
@@ -25798,7 +25809,7 @@
         <v>751.21249511721476</v>
       </c>
     </row>
-    <row r="476" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="476" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A476">
         <f t="shared" si="14"/>
         <v>0.47400000000000037</v>
@@ -25836,7 +25847,7 @@
         <v>784.56223073590013</v>
       </c>
     </row>
-    <row r="477" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="477" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A477">
         <f t="shared" si="14"/>
         <v>0.47500000000000037</v>
@@ -25874,7 +25885,7 @@
         <v>817.905011455877</v>
       </c>
     </row>
-    <row r="478" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="478" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A478">
         <f t="shared" si="14"/>
         <v>0.47600000000000037</v>
@@ -25912,7 +25923,7 @@
         <v>851.24110752076297</v>
       </c>
     </row>
-    <row r="479" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="479" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A479">
         <f t="shared" si="14"/>
         <v>0.47700000000000037</v>
@@ -25950,7 +25961,7 @@
         <v>884.57078882492999</v>
       </c>
     </row>
-    <row r="480" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="480" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A480">
         <f t="shared" si="14"/>
         <v>0.47800000000000037</v>
@@ -25988,7 +25999,7 @@
         <v>917.8943249717114</v>
       </c>
     </row>
-    <row r="481" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="481" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A481">
         <f t="shared" si="14"/>
         <v>0.47900000000000037</v>
@@ -26026,7 +26037,7 @@
         <v>951.21198527340232</v>
       </c>
     </row>
-    <row r="482" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="482" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A482">
         <f t="shared" si="14"/>
         <v>0.48000000000000037</v>
@@ -26064,7 +26075,7 @@
         <v>984.52403873670755</v>
       </c>
     </row>
-    <row r="483" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="483" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A483">
         <f t="shared" si="14"/>
         <v>0.48100000000000037</v>
@@ -26102,7 +26113,7 @@
         <v>1017.8307540918458</v>
       </c>
     </row>
-    <row r="484" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="484" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A484">
         <f t="shared" si="14"/>
         <v>0.48200000000000037</v>
@@ -26140,7 +26151,7 @@
         <v>1051.1323998653088</v>
       </c>
     </row>
-    <row r="485" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="485" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A485">
         <f t="shared" si="14"/>
         <v>0.48300000000000037</v>
@@ -26178,7 +26189,7 @@
         <v>1084.4292442488941</v>
       </c>
     </row>
-    <row r="486" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="486" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A486">
         <f t="shared" si="14"/>
         <v>0.48400000000000037</v>
@@ -26216,7 +26227,7 @@
         <v>1117.7215553034321</v>
       </c>
     </row>
-    <row r="487" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="487" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A487">
         <f t="shared" ref="A487:A550" si="16">A486+0.001</f>
         <v>0.48500000000000038</v>
@@ -26254,7 +26265,7 @@
         <v>1151.0096008278188</v>
       </c>
     </row>
-    <row r="488" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="488" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A488">
         <f t="shared" si="16"/>
         <v>0.48600000000000038</v>
@@ -26292,7 +26303,7 @@
         <v>1184.2936483444635</v>
       </c>
     </row>
-    <row r="489" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="489" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A489">
         <f t="shared" si="16"/>
         <v>0.48700000000000038</v>
@@ -26330,7 +26341,7 @@
         <v>1217.5739653321205</v>
       </c>
     </row>
-    <row r="490" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="490" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A490">
         <f t="shared" si="16"/>
         <v>0.48800000000000038</v>
@@ -26368,7 +26379,7 @@
         <v>1250.8508189930569</v>
       </c>
     </row>
-    <row r="491" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="491" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A491">
         <f t="shared" si="16"/>
         <v>0.48900000000000038</v>
@@ -26406,7 +26417,7 @@
         <v>1284.1244763112616</v>
       </c>
     </row>
-    <row r="492" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="492" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A492">
         <f t="shared" si="16"/>
         <v>0.49000000000000038</v>
@@ -26444,7 +26455,7 @@
         <v>1317.3952042416192</v>
       </c>
     </row>
-    <row r="493" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="493" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A493">
         <f t="shared" si="16"/>
         <v>0.49100000000000038</v>
@@ -26482,7 +26493,7 @@
         <v>1350.6632695498399</v>
       </c>
     </row>
-    <row r="494" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="494" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A494">
         <f t="shared" si="16"/>
         <v>0.49200000000000038</v>
@@ -26520,7 +26531,7 @@
         <v>1383.9289388270106</v>
       </c>
     </row>
-    <row r="495" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="495" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A495">
         <f t="shared" si="16"/>
         <v>0.49300000000000038</v>
@@ -26558,7 +26569,7 @@
         <v>1417.1924786351142</v>
       </c>
     </row>
-    <row r="496" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="496" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A496">
         <f t="shared" si="16"/>
         <v>0.49400000000000038</v>
@@ -26596,7 +26607,7 @@
         <v>1450.4541553178556</v>
       </c>
     </row>
-    <row r="497" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="497" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A497">
         <f t="shared" si="16"/>
         <v>0.49500000000000038</v>
@@ -26634,7 +26645,7 @@
         <v>1483.7142352480428</v>
       </c>
     </row>
-    <row r="498" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="498" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A498">
         <f t="shared" si="16"/>
         <v>0.49600000000000039</v>
@@ -26672,7 +26683,7 @@
         <v>1516.9729846675168</v>
       </c>
     </row>
-    <row r="499" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="499" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A499">
         <f t="shared" si="16"/>
         <v>0.49700000000000039</v>
@@ -26710,7 +26721,7 @@
         <v>1550.2306697017034</v>
       </c>
     </row>
-    <row r="500" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="500" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A500">
         <f t="shared" si="16"/>
         <v>0.49800000000000039</v>
@@ -26748,7 +26759,7 @@
         <v>1583.4875565778916</v>
       </c>
     </row>
-    <row r="501" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="501" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A501">
         <f t="shared" si="16"/>
         <v>0.49900000000000039</v>
@@ -26786,7 +26797,7 @@
         <v>1616.7439113196886</v>
       </c>
     </row>
-    <row r="502" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="502" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A502">
         <f t="shared" si="16"/>
         <v>0.50000000000000033</v>
@@ -26824,7 +26835,7 @@
         <v>1650.0000000233274</v>
       </c>
     </row>
-    <row r="503" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="503" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A503">
         <f t="shared" si="16"/>
         <v>0.50100000000000033</v>
@@ -26862,7 +26873,7 @@
         <v>1683.2560886832637</v>
       </c>
     </row>
-    <row r="504" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="504" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A504">
         <f t="shared" si="16"/>
         <v>0.50200000000000033</v>
@@ -26900,7 +26911,7 @@
         <v>1716.512443395912</v>
       </c>
     </row>
-    <row r="505" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="505" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A505">
         <f t="shared" si="16"/>
         <v>0.50300000000000034</v>
@@ -26938,7 +26949,7 @@
         <v>1749.7693302866521</v>
       </c>
     </row>
-    <row r="506" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="506" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A506">
         <f t="shared" si="16"/>
         <v>0.50400000000000034</v>
@@ -26976,7 +26987,7 @@
         <v>1783.0270153499425</v>
       </c>
     </row>
-    <row r="507" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="507" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A507">
         <f t="shared" si="16"/>
         <v>0.50500000000000034</v>
@@ -27014,7 +27025,7 @@
         <v>1816.2857647403127</v>
       </c>
     </row>
-    <row r="508" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="508" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A508">
         <f t="shared" si="16"/>
         <v>0.50600000000000034</v>
@@ -27052,7 +27063,7 @@
         <v>1849.5458446850519</v>
       </c>
     </row>
-    <row r="509" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="509" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A509">
         <f t="shared" si="16"/>
         <v>0.50700000000000034</v>
@@ -27090,7 +27101,7 @@
         <v>1882.8075213823452</v>
       </c>
     </row>
-    <row r="510" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="510" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A510">
         <f t="shared" si="16"/>
         <v>0.50800000000000034</v>
@@ -27128,7 +27139,7 @@
         <v>1916.0710611613451</v>
       </c>
     </row>
-    <row r="511" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="511" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A511">
         <f t="shared" si="16"/>
         <v>0.50900000000000034</v>
@@ -27166,7 +27177,7 @@
         <v>1949.3367304530675</v>
       </c>
     </row>
-    <row r="512" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="512" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A512">
         <f t="shared" si="16"/>
         <v>0.51000000000000034</v>
@@ -27204,7 +27215,7 @@
         <v>1982.6047957467363</v>
       </c>
     </row>
-    <row r="513" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="513" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A513">
         <f t="shared" si="16"/>
         <v>0.51100000000000034</v>
@@ -27242,7 +27253,7 @@
         <v>2015.875523677094</v>
       </c>
     </row>
-    <row r="514" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="514" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A514">
         <f t="shared" si="16"/>
         <v>0.51200000000000034</v>
@@ -27280,7 +27291,7 @@
         <v>2049.1491810244024</v>
       </c>
     </row>
-    <row r="515" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="515" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A515">
         <f t="shared" si="16"/>
         <v>0.51300000000000034</v>
@@ -27318,7 +27329,7 @@
         <v>2082.426034670787</v>
       </c>
     </row>
-    <row r="516" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="516" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A516">
         <f t="shared" si="16"/>
         <v>0.51400000000000035</v>
@@ -27356,7 +27367,7 @@
         <v>2115.706351643892</v>
       </c>
     </row>
-    <row r="517" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="517" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A517">
         <f t="shared" si="16"/>
         <v>0.51500000000000035</v>
@@ -27394,7 +27405,7 @@
         <v>2148.9903991750889</v>
       </c>
     </row>
-    <row r="518" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="518" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A518">
         <f t="shared" si="16"/>
         <v>0.51600000000000035</v>
@@ -27432,7 +27443,7 @@
         <v>2182.2784446849237</v>
       </c>
     </row>
-    <row r="519" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="519" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A519">
         <f t="shared" si="16"/>
         <v>0.51700000000000035</v>
@@ -27470,7 +27481,7 @@
         <v>2215.5707557540136</v>
       </c>
     </row>
-    <row r="520" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="520" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A520">
         <f t="shared" si="16"/>
         <v>0.51800000000000035</v>
@@ -27508,7 +27519,7 @@
         <v>2248.8676001375989</v>
       </c>
     </row>
-    <row r="521" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="521" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A521">
         <f t="shared" si="16"/>
         <v>0.51900000000000035</v>
@@ -27546,7 +27557,7 @@
         <v>2282.169245881958</v>
       </c>
     </row>
-    <row r="522" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="522" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A522">
         <f t="shared" si="16"/>
         <v>0.52000000000000035</v>
@@ -27584,7 +27595,7 @@
         <v>2315.4759612953035</v>
       </c>
     </row>
-    <row r="523" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="523" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A523">
         <f t="shared" si="16"/>
         <v>0.52100000000000035</v>
@@ -27622,7 +27633,7 @@
         <v>2348.7880147586088</v>
       </c>
     </row>
-    <row r="524" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="524" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A524">
         <f t="shared" si="16"/>
         <v>0.52200000000000035</v>
@@ -27660,7 +27671,7 @@
         <v>2382.105675016644</v>
       </c>
     </row>
-    <row r="525" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="525" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A525">
         <f t="shared" si="16"/>
         <v>0.52300000000000035</v>
@@ -27698,7 +27709,7 @@
         <v>2415.4292111634254</v>
       </c>
     </row>
-    <row r="526" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="526" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A526">
         <f t="shared" si="16"/>
         <v>0.52400000000000035</v>
@@ -27736,7 +27747,7 @@
         <v>2448.7588924821443</v>
       </c>
     </row>
-    <row r="527" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="527" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A527">
         <f t="shared" si="16"/>
         <v>0.52500000000000036</v>
@@ -27774,7 +27785,7 @@
         <v>2482.0949885470304</v>
       </c>
     </row>
-    <row r="528" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="528" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A528">
         <f t="shared" si="16"/>
         <v>0.52600000000000036</v>
@@ -27812,7 +27823,7 @@
         <v>2515.4377692524554</v>
       </c>
     </row>
-    <row r="529" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="529" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A529">
         <f t="shared" si="16"/>
         <v>0.52700000000000036</v>
@@ -27850,7 +27861,7 @@
         <v>2548.7875048856927</v>
       </c>
     </row>
-    <row r="530" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="530" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A530">
         <f t="shared" si="16"/>
         <v>0.52800000000000036</v>
@@ -27888,7 +27899,7 @@
         <v>2582.1444659668464</v>
       </c>
     </row>
-    <row r="531" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="531" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A531">
         <f t="shared" si="16"/>
         <v>0.52900000000000036</v>
@@ -27926,7 +27937,7 @@
         <v>2615.5089234089223</v>
       </c>
     </row>
-    <row r="532" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="532" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A532">
         <f t="shared" si="16"/>
         <v>0.53000000000000036</v>
@@ -27964,7 +27975,7 @@
         <v>2648.881148517828</v>
       </c>
     </row>
-    <row r="533" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="533" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A533">
         <f t="shared" si="16"/>
         <v>0.53100000000000036</v>
@@ -28002,7 +28013,7 @@
         <v>2682.2614129632689</v>
       </c>
     </row>
-    <row r="534" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="534" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A534">
         <f t="shared" si="16"/>
         <v>0.53200000000000036</v>
@@ -28040,7 +28051,7 @@
         <v>2715.6499887641962</v>
       </c>
     </row>
-    <row r="535" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="535" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A535">
         <f t="shared" si="16"/>
         <v>0.53300000000000036</v>
@@ -28078,7 +28089,7 @@
         <v>2749.0471483324632</v>
       </c>
     </row>
-    <row r="536" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="536" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A536">
         <f t="shared" si="16"/>
         <v>0.53400000000000036</v>
@@ -28116,7 +28127,7 @@
         <v>2782.4531646328956</v>
       </c>
     </row>
-    <row r="537" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="537" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A537">
         <f t="shared" si="16"/>
         <v>0.53500000000000036</v>
@@ -28154,7 +28165,7 @@
         <v>2815.8683109213575</v>
       </c>
     </row>
-    <row r="538" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="538" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A538">
         <f t="shared" si="16"/>
         <v>0.53600000000000037</v>
@@ -28192,7 +28203,7 @@
         <v>2849.2928609048222</v>
       </c>
     </row>
-    <row r="539" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="539" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A539">
         <f t="shared" si="16"/>
         <v>0.53700000000000037</v>
@@ -28230,7 +28241,7 @@
         <v>2882.7270888286848</v>
       </c>
     </row>
-    <row r="540" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="540" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A540">
         <f t="shared" si="16"/>
         <v>0.53800000000000037</v>
@@ -28268,7 +28279,7 @@
         <v>2916.171269345793</v>
       </c>
     </row>
-    <row r="541" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="541" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A541">
         <f t="shared" si="16"/>
         <v>0.53900000000000037</v>
@@ -28306,7 +28317,7 @@
         <v>2949.6256776183118</v>
       </c>
     </row>
-    <row r="542" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="542" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A542">
         <f t="shared" si="16"/>
         <v>0.54000000000000037</v>
@@ -28344,7 +28355,7 @@
         <v>2983.0905893031713</v>
       </c>
     </row>
-    <row r="543" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="543" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A543">
         <f t="shared" si="16"/>
         <v>0.54100000000000037</v>
@@ -28382,7 +28393,7 @@
         <v>3016.5662805957227</v>
       </c>
     </row>
-    <row r="544" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="544" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A544">
         <f t="shared" si="16"/>
         <v>0.54200000000000037</v>
@@ -28420,7 +28431,7 @@
         <v>3050.0530281569781</v>
       </c>
     </row>
-    <row r="545" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="545" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A545">
         <f t="shared" si="16"/>
         <v>0.54300000000000037</v>
@@ -28458,7 +28469,7 @@
         <v>3083.5511092154748</v>
       </c>
     </row>
-    <row r="546" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="546" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A546">
         <f t="shared" si="16"/>
         <v>0.54400000000000037</v>
@@ -28496,7 +28507,7 @@
         <v>3117.0608016400338</v>
       </c>
     </row>
-    <row r="547" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="547" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A547">
         <f t="shared" si="16"/>
         <v>0.54500000000000037</v>
@@ -28534,7 +28545,7 @@
         <v>3150.5823837651378</v>
       </c>
     </row>
-    <row r="548" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="548" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A548">
         <f t="shared" si="16"/>
         <v>0.54600000000000037</v>
@@ -28572,7 +28583,7 @@
         <v>3184.116134507346</v>
       </c>
     </row>
-    <row r="549" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="549" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A549">
         <f t="shared" si="16"/>
         <v>0.54700000000000037</v>
@@ -28610,7 +28621,7 @@
         <v>3217.6623334380538</v>
       </c>
     </row>
-    <row r="550" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="550" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A550">
         <f t="shared" si="16"/>
         <v>0.54800000000000038</v>
@@ -28648,7 +28659,7 @@
         <v>3251.2212607398369</v>
       </c>
     </row>
-    <row r="551" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="551" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A551">
         <f t="shared" ref="A551:A614" si="18">A550+0.001</f>
         <v>0.54900000000000038</v>
@@ -28686,7 +28697,7 @@
         <v>3284.7931971627959</v>
       </c>
     </row>
-    <row r="552" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="552" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A552">
         <f t="shared" si="18"/>
         <v>0.55000000000000038</v>
@@ -28724,7 +28735,7 @@
         <v>3318.378424170075</v>
       </c>
     </row>
-    <row r="553" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="553" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A553">
         <f t="shared" si="18"/>
         <v>0.55100000000000038</v>
@@ -28762,7 +28773,7 @@
         <v>3351.9772238214468</v>
       </c>
     </row>
-    <row r="554" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="554" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A554">
         <f t="shared" si="18"/>
         <v>0.55200000000000038</v>
@@ -28800,7 +28811,7 @@
         <v>3385.5898788897289</v>
       </c>
     </row>
-    <row r="555" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="555" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A555">
         <f t="shared" si="18"/>
         <v>0.55300000000000038</v>
@@ -28838,7 +28849,7 @@
         <v>3419.2166728462294</v>
       </c>
     </row>
-    <row r="556" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="556" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A556">
         <f t="shared" si="18"/>
         <v>0.55400000000000038</v>
@@ -28876,7 +28887,7 @@
         <v>3452.8578898025412</v>
       </c>
     </row>
-    <row r="557" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="557" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A557">
         <f t="shared" si="18"/>
         <v>0.55500000000000038</v>
@@ -28914,7 +28925,7 @@
         <v>3486.5138146415088</v>
       </c>
     </row>
-    <row r="558" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="558" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A558">
         <f t="shared" si="18"/>
         <v>0.55600000000000038</v>
@@ -28952,7 +28963,7 @@
         <v>3520.1847329444686</v>
       </c>
     </row>
-    <row r="559" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="559" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A559">
         <f t="shared" si="18"/>
         <v>0.55700000000000038</v>
@@ -28990,7 +29001,7 @@
         <v>3553.8709310785603</v>
       </c>
     </row>
-    <row r="560" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="560" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A560">
         <f t="shared" si="18"/>
         <v>0.55800000000000038</v>
@@ -29028,7 +29039,7 @@
         <v>3587.5726960948637</v>
       </c>
     </row>
-    <row r="561" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="561" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A561">
         <f t="shared" si="18"/>
         <v>0.55900000000000039</v>
@@ -29066,7 +29077,7 @@
         <v>3621.2903158884696</v>
       </c>
     </row>
-    <row r="562" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="562" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A562">
         <f t="shared" si="18"/>
         <v>0.56000000000000039</v>
@@ -29104,7 +29115,7 @@
         <v>3655.0240791693764</v>
       </c>
     </row>
-    <row r="563" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="563" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A563">
         <f t="shared" si="18"/>
         <v>0.56100000000000039</v>
@@ -29142,7 +29153,7 @@
         <v>3688.7742753751777</v>
       </c>
     </row>
-    <row r="564" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="564" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A564">
         <f t="shared" si="18"/>
         <v>0.56200000000000039</v>
@@ -29180,7 +29191,7 @@
         <v>3722.5411948456863</v>
       </c>
     </row>
-    <row r="565" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="565" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A565">
         <f t="shared" si="18"/>
         <v>0.56300000000000039</v>
@@ -29218,7 +29229,7 @@
         <v>3756.3251287065182</v>
       </c>
     </row>
-    <row r="566" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="566" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A566">
         <f t="shared" si="18"/>
         <v>0.56400000000000039</v>
@@ -29256,7 +29267,7 @@
         <v>3790.1263689273005</v>
       </c>
     </row>
-    <row r="567" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="567" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A567">
         <f t="shared" si="18"/>
         <v>0.56500000000000039</v>
@@ -29294,7 +29305,7 @@
         <v>3823.945208408983</v>
       </c>
     </row>
-    <row r="568" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="568" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A568">
         <f t="shared" si="18"/>
         <v>0.56600000000000039</v>
@@ -29332,7 +29343,7 @@
         <v>3857.7819409256299</v>
       </c>
     </row>
-    <row r="569" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="569" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A569">
         <f t="shared" si="18"/>
         <v>0.56700000000000039</v>
@@ -29370,7 +29381,7 @@
         <v>3891.6368611098696</v>
       </c>
     </row>
-    <row r="570" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="570" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A570">
         <f t="shared" si="18"/>
         <v>0.56800000000000039</v>
@@ -29408,7 +29419,7 @@
         <v>3925.5102644965482</v>
       </c>
     </row>
-    <row r="571" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="571" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A571">
         <f t="shared" si="18"/>
         <v>0.56900000000000039</v>
@@ -29446,7 +29457,7 @@
         <v>3959.4024476973536</v>
       </c>
     </row>
-    <row r="572" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="572" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A572">
         <f t="shared" si="18"/>
         <v>0.5700000000000004</v>
@@ -29484,7 +29495,7 @@
         <v>3993.3137081679852</v>
       </c>
     </row>
-    <row r="573" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="573" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A573">
         <f t="shared" si="18"/>
         <v>0.5710000000000004</v>
@@ -29522,7 +29533,7 @@
         <v>4027.2443442663607</v>
       </c>
     </row>
-    <row r="574" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="574" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A574">
         <f t="shared" si="18"/>
         <v>0.5720000000000004</v>
@@ -29560,7 +29571,7 @@
         <v>4061.1946554708957</v>
       </c>
     </row>
-    <row r="575" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="575" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A575">
         <f t="shared" si="18"/>
         <v>0.5730000000000004</v>
@@ -29598,7 +29609,7 @@
         <v>4095.1649422495357</v>
       </c>
     </row>
-    <row r="576" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="576" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A576">
         <f t="shared" si="18"/>
         <v>0.5740000000000004</v>
@@ -29636,7 +29647,7 @@
         <v>4129.1555060015489</v>
       </c>
     </row>
-    <row r="577" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="577" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A577">
         <f t="shared" si="18"/>
         <v>0.5750000000000004</v>
@@ -29674,7 +29685,7 @@
         <v>4163.1666492321492</v>
       </c>
     </row>
-    <row r="578" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="578" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A578">
         <f t="shared" si="18"/>
         <v>0.5760000000000004</v>
@@ -29712,7 +29723,7 @@
         <v>4197.1986754651844</v>
       </c>
     </row>
-    <row r="579" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="579" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A579">
         <f t="shared" si="18"/>
         <v>0.5770000000000004</v>
@@ -29750,7 +29761,7 @@
         <v>4231.2518893304477</v>
       </c>
     </row>
-    <row r="580" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="580" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A580">
         <f t="shared" si="18"/>
         <v>0.5780000000000004</v>
@@ -29788,7 +29799,7 @@
         <v>4265.3265965927822</v>
       </c>
     </row>
-    <row r="581" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="581" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A581">
         <f t="shared" si="18"/>
         <v>0.5790000000000004</v>
@@ -29826,7 +29837,7 @@
         <v>4299.4231039483529</v>
       </c>
     </row>
-    <row r="582" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="582" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A582">
         <f t="shared" si="18"/>
         <v>0.5800000000000004</v>
@@ -29864,7 +29875,7 @@
         <v>4333.5417194029978</v>
       </c>
     </row>
-    <row r="583" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="583" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A583">
         <f t="shared" si="18"/>
         <v>0.58100000000000041</v>
@@ -29902,7 +29913,7 @@
         <v>4367.682752097604</v>
       </c>
     </row>
-    <row r="584" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="584" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A584">
         <f t="shared" si="18"/>
         <v>0.58200000000000041</v>
@@ -29940,7 +29951,7 @@
         <v>4401.8465122207963</v>
       </c>
     </row>
-    <row r="585" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="585" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A585">
         <f t="shared" si="18"/>
         <v>0.58300000000000041</v>
@@ -29978,7 +29989,7 @@
         <v>4436.0333111690088</v>
       </c>
     </row>
-    <row r="586" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="586" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A586">
         <f t="shared" si="18"/>
         <v>0.58400000000000041</v>
@@ -30016,7 +30027,7 @@
         <v>4470.2434615901402</v>
       </c>
     </row>
-    <row r="587" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="587" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A587">
         <f t="shared" si="18"/>
         <v>0.58500000000000041</v>
@@ -30054,7 +30065,7 @@
         <v>4504.4772773835539</v>
       </c>
     </row>
-    <row r="588" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="588" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A588">
         <f t="shared" si="18"/>
         <v>0.58600000000000041</v>
@@ -30092,7 +30103,7 @@
         <v>4538.7350735691107</v>
       </c>
     </row>
-    <row r="589" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="589" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A589">
         <f t="shared" si="18"/>
         <v>0.58700000000000041</v>
@@ -30130,7 +30141,7 @@
         <v>4573.0171665199996</v>
       </c>
     </row>
-    <row r="590" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="590" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A590">
         <f t="shared" si="18"/>
         <v>0.58800000000000041</v>
@@ -30168,7 +30179,7 @@
         <v>4607.3238738463224</v>
       </c>
     </row>
-    <row r="591" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="591" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A591">
         <f t="shared" si="18"/>
         <v>0.58900000000000041</v>
@@ -30206,7 +30217,7 @@
         <v>4641.6555144241966</v>
       </c>
     </row>
-    <row r="592" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="592" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A592">
         <f t="shared" si="18"/>
         <v>0.59000000000000041</v>
@@ -30244,7 +30255,7 @@
         <v>4676.0124085121743</v>
       </c>
     </row>
-    <row r="593" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="593" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A593">
         <f t="shared" si="18"/>
         <v>0.59100000000000041</v>
@@ -30282,7 +30293,7 @@
         <v>4710.3948776493735</v>
       </c>
     </row>
-    <row r="594" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="594" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A594">
         <f t="shared" si="18"/>
         <v>0.59200000000000041</v>
@@ -30320,7 +30331,7 @@
         <v>4744.803244771897</v>
       </c>
     </row>
-    <row r="595" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="595" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A595">
         <f t="shared" si="18"/>
         <v>0.59300000000000042</v>
@@ -30358,7 +30369,7 @@
         <v>4779.237834096416</v>
       </c>
     </row>
-    <row r="596" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="596" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A596">
         <f t="shared" si="18"/>
         <v>0.59400000000000042</v>
@@ -30396,7 +30407,7 @@
         <v>4813.698971367553</v>
       </c>
     </row>
-    <row r="597" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="597" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A597">
         <f t="shared" si="18"/>
         <v>0.59500000000000042</v>
@@ -30434,7 +30445,7 @@
         <v>4848.1869836832584</v>
       </c>
     </row>
-    <row r="598" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="598" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A598">
         <f t="shared" si="18"/>
         <v>0.59600000000000042</v>
@@ -30472,7 +30483,7 @@
         <v>4882.702199480259</v>
       </c>
     </row>
-    <row r="599" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="599" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A599">
         <f t="shared" si="18"/>
         <v>0.59700000000000042</v>
@@ -30510,7 +30521,7 @@
         <v>4917.2449488250959</v>
       </c>
     </row>
-    <row r="600" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="600" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A600">
         <f t="shared" si="18"/>
         <v>0.59800000000000042</v>
@@ -30548,7 +30559,7 @@
         <v>4951.8155631812942</v>
       </c>
     </row>
-    <row r="601" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="601" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A601">
         <f t="shared" si="18"/>
         <v>0.59900000000000042</v>
@@ -30586,7 +30597,7 @@
         <v>4986.4143754530187</v>
       </c>
     </row>
-    <row r="602" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="602" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A602">
         <f t="shared" si="18"/>
         <v>0.60000000000000042</v>
@@ -30624,7 +30635,7 @@
         <v>5021.0417201596965</v>
       </c>
     </row>
-    <row r="603" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="603" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A603">
         <f t="shared" si="18"/>
         <v>0.60100000000000042</v>
@@ -30662,7 +30673,7 @@
         <v>5055.6979333196023</v>
       </c>
     </row>
-    <row r="604" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="604" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A604">
         <f t="shared" si="18"/>
         <v>0.60200000000000042</v>
@@ -30700,7 +30711,7 @@
         <v>5090.3833525080654</v>
       </c>
     </row>
-    <row r="605" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="605" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A605">
         <f t="shared" si="18"/>
         <v>0.60300000000000042</v>
@@ -30738,7 +30749,7 @@
         <v>5125.0983169302299</v>
       </c>
     </row>
-    <row r="606" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="606" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A606">
         <f t="shared" si="18"/>
         <v>0.60400000000000043</v>
@@ -30776,7 +30787,7 @@
         <v>5159.8431672755351</v>
       </c>
     </row>
-    <row r="607" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="607" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A607">
         <f t="shared" si="18"/>
         <v>0.60500000000000043</v>
@@ -30814,7 +30825,7 @@
         <v>5194.6182460087539</v>
       </c>
     </row>
-    <row r="608" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="608" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A608">
         <f t="shared" si="18"/>
         <v>0.60600000000000043</v>
@@ -30852,7 +30863,7 @@
         <v>5229.4238972390258</v>
       </c>
     </row>
-    <row r="609" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="609" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A609">
         <f t="shared" si="18"/>
         <v>0.60700000000000043</v>
@@ -30890,7 +30901,7 @@
         <v>5264.2604666616489</v>
       </c>
     </row>
-    <row r="610" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="610" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A610">
         <f t="shared" si="18"/>
         <v>0.60800000000000043</v>
@@ -30928,7 +30939,7 @@
         <v>5299.1283017327032</v>
       </c>
     </row>
-    <row r="611" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="611" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A611">
         <f t="shared" si="18"/>
         <v>0.60900000000000043</v>
@@ -30966,7 +30977,7 @@
         <v>5334.0277515962907</v>
       </c>
     </row>
-    <row r="612" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="612" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A612">
         <f t="shared" si="18"/>
         <v>0.61000000000000043</v>
@@ -31004,7 +31015,7 @@
         <v>5368.9591671718472</v>
       </c>
     </row>
-    <row r="613" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="613" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A613">
         <f t="shared" si="18"/>
         <v>0.61100000000000043</v>
@@ -31042,7 +31053,7 @@
         <v>5403.9229011250382</v>
       </c>
     </row>
-    <row r="614" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="614" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A614">
         <f t="shared" si="18"/>
         <v>0.61200000000000043</v>
@@ -31080,7 +31091,7 @@
         <v>5438.9193079696224</v>
       </c>
     </row>
-    <row r="615" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="615" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A615">
         <f t="shared" ref="A615:A678" si="20">A614+0.001</f>
         <v>0.61300000000000043</v>
@@ -31118,7 +31129,7 @@
         <v>5473.9487440237963</v>
       </c>
     </row>
-    <row r="616" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="616" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A616">
         <f t="shared" si="20"/>
         <v>0.61400000000000043</v>
@@ -31156,7 +31167,7 @@
         <v>5509.0115673665377</v>
       </c>
     </row>
-    <row r="617" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="617" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A617">
         <f t="shared" si="20"/>
         <v>0.61500000000000044</v>
@@ -31194,7 +31205,7 @@
         <v>5544.1081380704372</v>
       </c>
     </row>
-    <row r="618" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="618" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A618">
         <f t="shared" si="20"/>
         <v>0.61600000000000044</v>
@@ -31232,7 +31243,7 @@
         <v>5579.2388180707303</v>
       </c>
     </row>
-    <row r="619" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="619" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A619">
         <f t="shared" si="20"/>
         <v>0.61700000000000044</v>
@@ -31270,7 +31281,7 @@
         <v>5614.4039711361938</v>
       </c>
     </row>
-    <row r="620" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="620" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A620">
         <f t="shared" si="20"/>
         <v>0.61800000000000044</v>
@@ -31308,7 +31319,7 @@
         <v>5649.6039630292162</v>
       </c>
     </row>
-    <row r="621" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="621" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A621">
         <f t="shared" si="20"/>
         <v>0.61900000000000044</v>
@@ -31346,7 +31357,7 @@
         <v>5684.8391616222161</v>
       </c>
     </row>
-    <row r="622" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="622" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A622">
         <f t="shared" si="20"/>
         <v>0.62000000000000044</v>
@@ -31384,7 +31395,7 @@
         <v>5720.1099366211511</v>
       </c>
     </row>
-    <row r="623" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="623" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A623">
         <f t="shared" si="20"/>
         <v>0.62100000000000044</v>
@@ -31422,7 +31433,7 @@
         <v>5755.4166597255917</v>
       </c>
     </row>
-    <row r="624" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="624" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A624">
         <f t="shared" si="20"/>
         <v>0.62200000000000044</v>
@@ -31460,7 +31471,7 @@
         <v>5790.7597048906555</v>
       </c>
     </row>
-    <row r="625" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="625" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A625">
         <f t="shared" si="20"/>
         <v>0.62300000000000044</v>
@@ -31498,7 +31509,7 @@
         <v>5826.1394480214167</v>
       </c>
     </row>
-    <row r="626" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="626" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A626">
         <f t="shared" si="20"/>
         <v>0.62400000000000044</v>
@@ -31536,7 +31547,7 @@
         <v>5861.5562671038733</v>
       </c>
     </row>
-    <row r="627" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="627" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A627">
         <f t="shared" si="20"/>
         <v>0.62500000000000044</v>
@@ -31574,7 +31585,7 @@
         <v>5897.0105423359146</v>
       </c>
     </row>
-    <row r="628" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="628" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A628">
         <f t="shared" si="20"/>
         <v>0.62600000000000044</v>
@@ -31612,7 +31623,7 @@
         <v>5932.5026560545612</v>
       </c>
     </row>
-    <row r="629" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="629" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A629">
         <f t="shared" si="20"/>
         <v>0.62700000000000045</v>
@@ -31650,7 +31661,7 @@
         <v>5968.032992794173</v>
       </c>
     </row>
-    <row r="630" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="630" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A630">
         <f t="shared" si="20"/>
         <v>0.62800000000000045</v>
@@ -31688,7 +31699,7 @@
         <v>6003.601939301001</v>
       </c>
     </row>
-    <row r="631" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="631" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A631">
         <f t="shared" si="20"/>
         <v>0.62900000000000045</v>
@@ -31726,7 +31737,7 @@
         <v>6039.209884620499</v>
       </c>
     </row>
-    <row r="632" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="632" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A632">
         <f t="shared" si="20"/>
         <v>0.63000000000000045</v>
@@ -31764,7 +31775,7 @@
         <v>6074.8572200391154</v>
       </c>
     </row>
-    <row r="633" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="633" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A633">
         <f t="shared" si="20"/>
         <v>0.63100000000000045</v>
@@ -31802,7 +31813,7 @@
         <v>6110.5443391425015</v>
       </c>
     </row>
-    <row r="634" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="634" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A634">
         <f t="shared" si="20"/>
         <v>0.63200000000000045</v>
@@ -31840,7 +31851,7 @@
         <v>6146.2716379173744</v>
       </c>
     </row>
-    <row r="635" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="635" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A635">
         <f t="shared" si="20"/>
         <v>0.63300000000000045</v>
@@ -31878,7 +31889,7 @@
         <v>6182.0395146933097</v>
       </c>
     </row>
-    <row r="636" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="636" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A636">
         <f t="shared" si="20"/>
         <v>0.63400000000000045</v>
@@ -31916,7 +31927,7 @@
         <v>6217.8483702009489</v>
       </c>
     </row>
-    <row r="637" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="637" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A637">
         <f t="shared" si="20"/>
         <v>0.63500000000000045</v>
@@ -31954,7 +31965,7 @@
         <v>6253.6986076302073</v>
       </c>
     </row>
-    <row r="638" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="638" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A638">
         <f t="shared" si="20"/>
         <v>0.63600000000000045</v>
@@ -31992,7 +32003,7 @@
         <v>6289.5906326302738</v>
       </c>
     </row>
-    <row r="639" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="639" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A639">
         <f t="shared" si="20"/>
         <v>0.63700000000000045</v>
@@ -32030,7 +32041,7 @@
         <v>6325.5248533241629</v>
       </c>
     </row>
-    <row r="640" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="640" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A640">
         <f t="shared" si="20"/>
         <v>0.63800000000000046</v>
@@ -32068,7 +32079,7 @@
         <v>6361.5016804396819</v>
       </c>
     </row>
-    <row r="641" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="641" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A641">
         <f t="shared" si="20"/>
         <v>0.63900000000000046</v>
@@ -32106,7 +32117,7 @@
         <v>6397.5215272657751</v>
       </c>
     </row>
-    <row r="642" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="642" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A642">
         <f t="shared" si="20"/>
         <v>0.64000000000000046</v>
@@ -32144,7 +32155,7 @@
         <v>6433.5848096670761</v>
       </c>
     </row>
-    <row r="643" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="643" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A643">
         <f t="shared" si="20"/>
         <v>0.64100000000000046</v>
@@ -32182,7 +32193,7 @@
         <v>6469.6919460839072</v>
       </c>
     </row>
-    <row r="644" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="644" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A644">
         <f t="shared" si="20"/>
         <v>0.64200000000000046</v>
@@ -32220,7 +32231,7 @@
         <v>6505.8433577069027</v>
       </c>
     </row>
-    <row r="645" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="645" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A645">
         <f t="shared" si="20"/>
         <v>0.64300000000000046</v>
@@ -32258,7 +32269,7 @@
         <v>6542.0394684624571</v>
       </c>
     </row>
-    <row r="646" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="646" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A646">
         <f t="shared" si="20"/>
         <v>0.64400000000000046</v>
@@ -32296,7 +32307,7 @@
         <v>6578.2807049545172</v>
       </c>
     </row>
-    <row r="647" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="647" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A647">
         <f t="shared" si="20"/>
         <v>0.64500000000000046</v>
@@ -32334,7 +32345,7 @@
         <v>6614.5674966101014</v>
       </c>
     </row>
-    <row r="648" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="648" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A648">
         <f t="shared" si="20"/>
         <v>0.64600000000000046</v>
@@ -32372,7 +32383,7 @@
         <v>6650.9002756210921</v>
       </c>
     </row>
-    <row r="649" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="649" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A649">
         <f t="shared" si="20"/>
         <v>0.64700000000000046</v>
@@ -32410,7 +32421,7 @@
         <v>6687.2794771043054</v>
       </c>
     </row>
-    <row r="650" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="650" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A650">
         <f t="shared" si="20"/>
         <v>0.64800000000000046</v>
@@ -32448,7 +32459,7 @@
         <v>6723.7055390141841</v>
       </c>
     </row>
-    <row r="651" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="651" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A651">
         <f t="shared" si="20"/>
         <v>0.64900000000000047</v>
@@ -32486,7 +32497,7 @@
         <v>6760.1789022155508</v>
       </c>
     </row>
-    <row r="652" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="652" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A652">
         <f t="shared" si="20"/>
         <v>0.65000000000000047</v>
@@ -32524,7 +32535,7 @@
         <v>6796.7000105854759</v>
       </c>
     </row>
-    <row r="653" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="653" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A653">
         <f t="shared" si="20"/>
         <v>0.65100000000000047</v>
@@ -32562,7 +32573,7 @@
         <v>6833.2693110132759</v>
       </c>
     </row>
-    <row r="654" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="654" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A654">
         <f t="shared" si="20"/>
         <v>0.65200000000000047</v>
@@ -32600,7 +32611,7 @@
         <v>6869.887253415066</v>
       </c>
     </row>
-    <row r="655" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="655" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A655">
         <f t="shared" si="20"/>
         <v>0.65300000000000047</v>
@@ -32638,7 +32649,7 @@
         <v>6906.5542907337594</v>
       </c>
     </row>
-    <row r="656" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="656" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A656">
         <f t="shared" si="20"/>
         <v>0.65400000000000047</v>
@@ -32676,7 +32687,7 @@
         <v>6943.270879128243</v>
       </c>
     </row>
-    <row r="657" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="657" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A657">
         <f t="shared" si="20"/>
         <v>0.65500000000000047</v>
@@ -32714,7 +32725,7 @@
         <v>6980.037477900617</v>
       </c>
     </row>
-    <row r="658" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="658" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A658">
         <f t="shared" si="20"/>
         <v>0.65600000000000047</v>
@@ -32752,7 +32763,7 @@
         <v>7016.8545495398512</v>
       </c>
     </row>
-    <row r="659" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="659" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A659">
         <f t="shared" si="20"/>
         <v>0.65700000000000047</v>
@@ -32790,7 +32801,7 @@
         <v>7053.7225597945444</v>
       </c>
     </row>
-    <row r="660" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="660" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A660">
         <f t="shared" si="20"/>
         <v>0.65800000000000047</v>
@@ -32828,7 +32839,7 @@
         <v>7090.6419776583725</v>
       </c>
     </row>
-    <row r="661" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="661" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A661">
         <f t="shared" si="20"/>
         <v>0.65900000000000047</v>
@@ -32866,7 +32877,7 @@
         <v>7127.6132755592635</v>
       </c>
     </row>
-    <row r="662" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="662" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A662">
         <f t="shared" si="20"/>
         <v>0.66000000000000048</v>
@@ -32904,7 +32915,7 @@
         <v>7164.6369292575337</v>
       </c>
     </row>
-    <row r="663" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="663" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A663">
         <f t="shared" si="20"/>
         <v>0.66100000000000048</v>
@@ -32942,7 +32953,7 @@
         <v>7201.7134179186478</v>
       </c>
     </row>
-    <row r="664" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="664" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A664">
         <f t="shared" si="20"/>
         <v>0.66200000000000048</v>
@@ -32980,7 +32991,7 @@
         <v>7238.8432242005301</v>
       </c>
     </row>
-    <row r="665" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="665" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A665">
         <f t="shared" si="20"/>
         <v>0.66300000000000048</v>
@@ -33018,7 +33029,7 @@
         <v>7276.0268342390127</v>
       </c>
     </row>
-    <row r="666" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="666" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A666">
         <f t="shared" si="20"/>
         <v>0.66400000000000048</v>
@@ -33056,7 +33067,7 @@
         <v>7313.2647378370102</v>
       </c>
     </row>
-    <row r="667" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="667" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A667">
         <f t="shared" si="20"/>
         <v>0.66500000000000048</v>
@@ -33094,7 +33105,7 @@
         <v>7350.557428289897</v>
       </c>
     </row>
-    <row r="668" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="668" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A668">
         <f t="shared" si="20"/>
         <v>0.66600000000000048</v>
@@ -33132,7 +33143,7 @@
         <v>7387.9054025746818</v>
       </c>
     </row>
-    <row r="669" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="669" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A669">
         <f t="shared" si="20"/>
         <v>0.66700000000000048</v>
@@ -33170,7 +33181,7 @@
         <v>7425.3091614082159</v>
       </c>
     </row>
-    <row r="670" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="670" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A670">
         <f t="shared" si="20"/>
         <v>0.66800000000000048</v>
@@ -33208,7 +33219,7 @@
         <v>7462.7692092908483</v>
       </c>
     </row>
-    <row r="671" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="671" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A671">
         <f t="shared" si="20"/>
         <v>0.66900000000000048</v>
@@ -33246,7 +33257,7 @@
         <v>7500.2860544627702</v>
       </c>
     </row>
-    <row r="672" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="672" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A672">
         <f t="shared" si="20"/>
         <v>0.67000000000000048</v>
@@ -33284,7 +33295,7 @@
         <v>7537.8602090349823</v>
       </c>
     </row>
-    <row r="673" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="673" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A673">
         <f t="shared" si="20"/>
         <v>0.67100000000000048</v>
@@ -33322,7 +33333,7 @@
         <v>7575.4921890183987</v>
       </c>
     </row>
-    <row r="674" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="674" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A674">
         <f t="shared" si="20"/>
         <v>0.67200000000000049</v>
@@ -33360,7 +33371,7 @@
         <v>7613.1825144111581</v>
       </c>
     </row>
-    <row r="675" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="675" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A675">
         <f t="shared" si="20"/>
         <v>0.67300000000000049</v>
@@ -33398,7 +33409,7 @@
         <v>7650.9317092713836</v>
       </c>
     </row>
-    <row r="676" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="676" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A676">
         <f t="shared" si="20"/>
         <v>0.67400000000000049</v>
@@ -33436,7 +33447,7 @@
         <v>7688.7403015862146</v>
       </c>
     </row>
-    <row r="677" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="677" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A677">
         <f t="shared" si="20"/>
         <v>0.67500000000000049</v>
@@ -33474,7 +33485,7 @@
         <v>7726.6088235482966</v>
       </c>
     </row>
-    <row r="678" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="678" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A678">
         <f t="shared" si="20"/>
         <v>0.67600000000000049</v>
@@ -33512,7 +33523,7 @@
         <v>7764.5378115412241</v>
       </c>
     </row>
-    <row r="679" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="679" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A679">
         <f t="shared" ref="A679:A742" si="22">A678+0.001</f>
         <v>0.67700000000000049</v>
@@ -33550,7 +33561,7 @@
         <v>7802.5278061686477</v>
       </c>
     </row>
-    <row r="680" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="680" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A680">
         <f t="shared" si="22"/>
         <v>0.67800000000000049</v>
@@ -33588,7 +33599,7 @@
         <v>7840.5793522688255</v>
       </c>
     </row>
-    <row r="681" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="681" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A681">
         <f t="shared" si="22"/>
         <v>0.67900000000000049</v>
@@ -33626,7 +33637,7 @@
         <v>7878.692999060142</v>
       </c>
     </row>
-    <row r="682" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="682" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A682">
         <f t="shared" si="22"/>
         <v>0.68000000000000049</v>
@@ -33664,7 +33675,7 @@
         <v>7916.869300213868</v>
       </c>
     </row>
-    <row r="683" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="683" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A683">
         <f t="shared" si="22"/>
         <v>0.68100000000000049</v>
@@ -33702,7 +33713,7 @@
         <v>7955.1088137959523</v>
       </c>
     </row>
-    <row r="684" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="684" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A684">
         <f t="shared" si="22"/>
         <v>0.68200000000000049</v>
@@ -33740,7 +33751,7 @@
         <v>7993.4121024270935</v>
       </c>
     </row>
-    <row r="685" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="685" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A685">
         <f t="shared" si="22"/>
         <v>0.6830000000000005</v>
@@ -33778,7 +33789,7 @@
         <v>8031.7797333118433</v>
       </c>
     </row>
-    <row r="686" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="686" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A686">
         <f t="shared" si="22"/>
         <v>0.6840000000000005</v>
@@ -33816,7 +33827,7 @@
         <v>8070.2122782968145</v>
       </c>
     </row>
-    <row r="687" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="687" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A687">
         <f t="shared" si="22"/>
         <v>0.6850000000000005</v>
@@ -33854,7 +33865,7 @@
         <v>8108.7103139725441</v>
       </c>
     </row>
-    <row r="688" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="688" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A688">
         <f t="shared" si="22"/>
         <v>0.6860000000000005</v>
@@ -33892,7 +33903,7 @@
         <v>8147.2744216007341</v>
       </c>
     </row>
-    <row r="689" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="689" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A689">
         <f t="shared" si="22"/>
         <v>0.6870000000000005</v>
@@ -33930,7 +33941,7 @@
         <v>8185.9051874198412</v>
       </c>
     </row>
-    <row r="690" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="690" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A690">
         <f t="shared" si="22"/>
         <v>0.6880000000000005</v>
@@ -33968,7 +33979,7 @@
         <v>8224.6032025141103</v>
       </c>
     </row>
-    <row r="691" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="691" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A691">
         <f t="shared" si="22"/>
         <v>0.6890000000000005</v>
@@ -34006,7 +34017,7 @@
         <v>8263.3690629008852</v>
       </c>
     </row>
-    <row r="692" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="692" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A692">
         <f t="shared" si="22"/>
         <v>0.6900000000000005</v>
@@ -34044,7 +34055,7 @@
         <v>8302.2033697343359</v>
       </c>
     </row>
-    <row r="693" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="693" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A693">
         <f t="shared" si="22"/>
         <v>0.6910000000000005</v>
@@ -34082,7 +34093,7 @@
         <v>8341.1067291744912</v>
       </c>
     </row>
-    <row r="694" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="694" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A694">
         <f t="shared" si="22"/>
         <v>0.6920000000000005</v>
@@ -34120,7 +34131,7 @@
         <v>8380.0797526346214</v>
       </c>
     </row>
-    <row r="695" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="695" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A695">
         <f t="shared" si="22"/>
         <v>0.6930000000000005</v>
@@ -34158,7 +34169,7 @@
         <v>8419.1230567375824</v>
       </c>
     </row>
-    <row r="696" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="696" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A696">
         <f t="shared" si="22"/>
         <v>0.69400000000000051</v>
@@ -34196,7 +34207,7 @@
         <v>8458.2372635049906</v>
       </c>
     </row>
-    <row r="697" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="697" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A697">
         <f t="shared" si="22"/>
         <v>0.69500000000000051</v>
@@ -34234,7 +34245,7 @@
         <v>8497.4230002990153</v>
       </c>
     </row>
-    <row r="698" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="698" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A698">
         <f t="shared" si="22"/>
         <v>0.69600000000000051</v>
@@ -34272,7 +34283,7 @@
         <v>8536.6808998805864</v>
       </c>
     </row>
-    <row r="699" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="699" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A699">
         <f t="shared" si="22"/>
         <v>0.69700000000000051</v>
@@ -34310,7 +34321,7 @@
         <v>8576.0116007440884</v>
       </c>
     </row>
-    <row r="700" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="700" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A700">
         <f t="shared" si="22"/>
         <v>0.69800000000000051</v>
@@ -34348,7 +34359,7 @@
         <v>8615.4157468699777</v>
       </c>
     </row>
-    <row r="701" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="701" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A701">
         <f t="shared" si="22"/>
         <v>0.69900000000000051</v>
@@ -34386,7 +34397,7 @@
         <v>8654.8939880303733</v>
       </c>
     </row>
-    <row r="702" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="702" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A702">
         <f t="shared" si="22"/>
         <v>0.70000000000000051</v>
@@ -34424,7 +34435,7 @@
         <v>8694.4469797308484</v>
       </c>
     </row>
-    <row r="703" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="703" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A703">
         <f t="shared" si="22"/>
         <v>0.70100000000000051</v>
@@ -34462,7 +34473,7 @@
         <v>8734.0753832977425</v>
       </c>
     </row>
-    <row r="704" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="704" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A704">
         <f t="shared" si="22"/>
         <v>0.70200000000000051</v>
@@ -34500,7 +34511,7 @@
         <v>8773.7798661691995</v>
       </c>
     </row>
-    <row r="705" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="705" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A705">
         <f t="shared" si="22"/>
         <v>0.70300000000000051</v>
@@ -34538,7 +34549,7 @@
         <v>8813.5611016477851</v>
       </c>
     </row>
-    <row r="706" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="706" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A706">
         <f t="shared" si="22"/>
         <v>0.70400000000000051</v>
@@ -34576,7 +34587,7 @@
         <v>8853.4197692788366</v>
       </c>
     </row>
-    <row r="707" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="707" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A707">
         <f t="shared" si="22"/>
         <v>0.70500000000000052</v>
@@ -34614,7 +34625,7 @@
         <v>8893.3565547631515</v>
       </c>
     </row>
-    <row r="708" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="708" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A708">
         <f t="shared" si="22"/>
         <v>0.70600000000000052</v>
@@ -34652,7 +34663,7 @@
         <v>8933.3721500151951</v>
       </c>
     </row>
-    <row r="709" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="709" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A709">
         <f t="shared" si="22"/>
         <v>0.70700000000000052</v>
@@ -34690,7 +34701,7 @@
         <v>8973.4672535123464</v>
       </c>
     </row>
-    <row r="710" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="710" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A710">
         <f t="shared" si="22"/>
         <v>0.70800000000000052</v>
@@ -34728,7 +34739,7 @@
         <v>9013.6425701057233</v>
       </c>
     </row>
-    <row r="711" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="711" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A711">
         <f t="shared" si="22"/>
         <v>0.70900000000000052</v>
@@ -34766,7 +34777,7 @@
         <v>9053.8988111948056</v>
       </c>
     </row>
-    <row r="712" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="712" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A712">
         <f t="shared" si="22"/>
         <v>0.71000000000000052</v>
@@ -34804,7 +34815,7 @@
         <v>9094.236694887506</v>
       </c>
     </row>
-    <row r="713" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="713" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A713">
         <f t="shared" si="22"/>
         <v>0.71100000000000052</v>
@@ -34842,7 +34853,7 @@
         <v>9134.6569460583778</v>
       </c>
     </row>
-    <row r="714" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="714" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A714">
         <f t="shared" si="22"/>
         <v>0.71200000000000052</v>
@@ -34880,7 +34891,7 @@
         <v>9175.1602963777186</v>
       </c>
     </row>
-    <row r="715" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="715" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A715">
         <f t="shared" si="22"/>
         <v>0.71300000000000052</v>
@@ -34918,7 +34929,7 @@
         <v>9215.7474845152974</v>
       </c>
     </row>
-    <row r="716" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="716" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A716">
         <f t="shared" si="22"/>
         <v>0.71400000000000052</v>
@@ -34956,7 +34967,7 @@
         <v>9256.4192562276639</v>
       </c>
     </row>
-    <row r="717" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="717" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A717">
         <f t="shared" si="22"/>
         <v>0.71500000000000052</v>
@@ -34994,7 +35005,7 @@
         <v>9297.17636438726</v>
       </c>
     </row>
-    <row r="718" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="718" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A718">
         <f t="shared" si="22"/>
         <v>0.71600000000000052</v>
@@ -35032,7 +35043,7 @@
         <v>9338.0195691424797</v>
       </c>
     </row>
-    <row r="719" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="719" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A719">
         <f t="shared" si="22"/>
         <v>0.71700000000000053</v>
@@ -35070,7 +35081,7 @@
         <v>9378.9496380049877</v>
       </c>
     </row>
-    <row r="720" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="720" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A720">
         <f t="shared" si="22"/>
         <v>0.71800000000000053</v>
@@ -35108,7 +35119,7 @@
         <v>9419.9673459806854</v>
       </c>
     </row>
-    <row r="721" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="721" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A721">
         <f t="shared" si="22"/>
         <v>0.71900000000000053</v>
@@ -35146,7 +35157,7 @@
         <v>9461.0734756570218</v>
       </c>
     </row>
-    <row r="722" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="722" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A722">
         <f t="shared" si="22"/>
         <v>0.72000000000000053</v>
@@ -35184,7 +35195,7 @@
         <v>9502.2688173339611</v>
       </c>
     </row>
-    <row r="723" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="723" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A723">
         <f t="shared" si="22"/>
         <v>0.72100000000000053</v>
@@ -35222,7 +35233,7 @@
         <v>9543.5541690676382</v>
       </c>
     </row>
-    <row r="724" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="724" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A724">
         <f t="shared" si="22"/>
         <v>0.72200000000000053</v>
@@ -35260,7 +35271,7 @@
         <v>9584.9303369613972</v>
       </c>
     </row>
-    <row r="725" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="725" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A725">
         <f t="shared" si="22"/>
         <v>0.72300000000000053</v>
@@ -35298,7 +35309,7 @@
         <v>9626.3981350639278</v>
       </c>
     </row>
-    <row r="726" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="726" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A726">
         <f t="shared" si="22"/>
         <v>0.72400000000000053</v>
@@ -35336,7 +35347,7 @@
         <v>9667.9583856020963</v>
       </c>
     </row>
-    <row r="727" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="727" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A727">
         <f t="shared" si="22"/>
         <v>0.72500000000000053</v>
@@ -35374,7 +35385,7 @@
         <v>9709.61191917012</v>
       </c>
     </row>
-    <row r="728" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="728" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A728">
         <f t="shared" si="22"/>
         <v>0.72600000000000053</v>
@@ -35412,7 +35423,7 @@
         <v>9751.3595746859119</v>
       </c>
     </row>
-    <row r="729" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="729" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A729">
         <f t="shared" si="22"/>
         <v>0.72700000000000053</v>
@@ -35450,7 +35461,7 @@
         <v>9793.2021996966705</v>
       </c>
     </row>
-    <row r="730" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="730" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A730">
         <f t="shared" si="22"/>
         <v>0.72800000000000054</v>
@@ -35488,7 +35499,7 @@
         <v>9835.1406503352246</v>
       </c>
     </row>
-    <row r="731" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="731" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A731">
         <f t="shared" si="22"/>
         <v>0.72900000000000054</v>
@@ -35526,7 +35537,7 @@
         <v>9877.1757915674152</v>
       </c>
     </row>
-    <row r="732" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="732" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A732">
         <f t="shared" si="22"/>
         <v>0.73000000000000054</v>
@@ -35564,7 +35575,7 @@
         <v>9919.3084973521673</v>
       </c>
     </row>
-    <row r="733" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="733" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A733">
         <f t="shared" si="22"/>
         <v>0.73100000000000054</v>
@@ -35602,7 +35613,7 @@
         <v>9961.539650656041</v>
       </c>
     </row>
-    <row r="734" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="734" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A734">
         <f t="shared" si="22"/>
         <v>0.73200000000000054</v>
@@ -35640,7 +35651,7 @@
         <v>10003.870143686063</v>
       </c>
     </row>
-    <row r="735" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="735" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A735">
         <f t="shared" si="22"/>
         <v>0.73300000000000054</v>
@@ -35678,7 +35689,7 @@
         <v>10046.300877933381</v>
       </c>
     </row>
-    <row r="736" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="736" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A736">
         <f t="shared" si="22"/>
         <v>0.73400000000000054</v>
@@ -35716,7 +35727,7 @@
         <v>10088.832764522513</v>
       </c>
     </row>
-    <row r="737" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="737" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A737">
         <f t="shared" si="22"/>
         <v>0.73500000000000054</v>
@@ -35754,7 +35765,7 @@
         <v>10131.466724138581</v>
       </c>
     </row>
-    <row r="738" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="738" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A738">
         <f t="shared" si="22"/>
         <v>0.73600000000000054</v>
@@ -35792,7 +35803,7 @@
         <v>10174.203687201943</v>
       </c>
     </row>
-    <row r="739" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="739" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A739">
         <f t="shared" si="22"/>
         <v>0.73700000000000054</v>
@@ -35830,7 +35841,7 @@
         <v>10217.04459420288</v>
       </c>
     </row>
-    <row r="740" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="740" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A740">
         <f t="shared" si="22"/>
         <v>0.73800000000000054</v>
@@ -35868,7 +35879,7 @@
         <v>10259.990395672494</v>
       </c>
     </row>
-    <row r="741" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="741" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A741">
         <f t="shared" si="22"/>
         <v>0.73900000000000055</v>
@@ -35906,7 +35917,7 @@
         <v>10303.04205234278</v>
       </c>
     </row>
-    <row r="742" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="742" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A742">
         <f t="shared" si="22"/>
         <v>0.74000000000000055</v>
@@ -35944,7 +35955,7 @@
         <v>10346.200535452217</v>
       </c>
     </row>
-    <row r="743" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="743" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A743">
         <f t="shared" ref="A743:A806" si="24">A742+0.001</f>
         <v>0.74100000000000055</v>
@@ -35982,7 +35993,7 @@
         <v>10389.466826833077</v>
       </c>
     </row>
-    <row r="744" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="744" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A744">
         <f t="shared" si="24"/>
         <v>0.74200000000000055</v>
@@ -36020,7 +36031,7 @@
         <v>10432.841918984186</v>
       </c>
     </row>
-    <row r="745" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="745" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A745">
         <f t="shared" si="24"/>
         <v>0.74300000000000055</v>
@@ -36058,7 +36069,7 @@
         <v>10476.326815391067</v>
       </c>
     </row>
-    <row r="746" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="746" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A746">
         <f t="shared" si="24"/>
         <v>0.74400000000000055</v>
@@ -36096,7 +36107,7 @@
         <v>10519.922530598697</v>
       </c>
     </row>
-    <row r="747" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="747" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A747">
         <f t="shared" si="24"/>
         <v>0.74500000000000055</v>
@@ -36134,7 +36145,7 @@
         <v>10563.63009044434</v>
       </c>
     </row>
-    <row r="748" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="748" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A748">
         <f t="shared" si="24"/>
         <v>0.74600000000000055</v>
@@ -36172,7 +36183,7 @@
         <v>10607.450532173962</v>
       </c>
     </row>
-    <row r="749" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="749" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A749">
         <f t="shared" si="24"/>
         <v>0.74700000000000055</v>
@@ -36210,7 +36221,7 @@
         <v>10651.384904762372</v>
       </c>
     </row>
-    <row r="750" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="750" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A750">
         <f t="shared" si="24"/>
         <v>0.74800000000000055</v>
@@ -36248,7 +36259,7 @@
         <v>10695.434268985982</v>
       </c>
     </row>
-    <row r="751" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="751" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A751">
         <f t="shared" si="24"/>
         <v>0.74900000000000055</v>
@@ -36286,7 +36297,7 @@
         <v>10739.599697495569</v>
       </c>
     </row>
-    <row r="752" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="752" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A752">
         <f t="shared" si="24"/>
         <v>0.75000000000000056</v>
@@ -36324,7 +36335,7 @@
         <v>10783.882275340138</v>
       </c>
     </row>
-    <row r="753" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="753" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A753">
         <f t="shared" si="24"/>
         <v>0.75100000000000056</v>
@@ -36362,7 +36373,7 @@
         <v>10828.283099908722</v>
       </c>
     </row>
-    <row r="754" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="754" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A754">
         <f t="shared" si="24"/>
         <v>0.75200000000000056</v>
@@ -36400,7 +36411,7 @@
         <v>10872.803281192309</v>
       </c>
     </row>
-    <row r="755" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="755" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A755">
         <f t="shared" si="24"/>
         <v>0.75300000000000056</v>
@@ -36438,7 +36449,7 @@
         <v>10917.443942002128</v>
       </c>
     </row>
-    <row r="756" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="756" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A756">
         <f t="shared" si="24"/>
         <v>0.75400000000000056</v>
@@ -36476,7 +36487,7 @@
         <v>10962.206218158817</v>
       </c>
     </row>
-    <row r="757" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="757" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A757">
         <f t="shared" si="24"/>
         <v>0.75500000000000056</v>
@@ -36514,7 +36525,7 @@
         <v>11007.091258841674</v>
       </c>
     </row>
-    <row r="758" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="758" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A758">
         <f t="shared" si="24"/>
         <v>0.75600000000000056</v>
@@ -36552,7 +36563,7 @@
         <v>11052.100226559551</v>
       </c>
     </row>
-    <row r="759" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="759" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A759">
         <f t="shared" si="24"/>
         <v>0.75700000000000056</v>
@@ -36590,7 +36601,7 @@
         <v>11097.234297587411</v>
       </c>
     </row>
-    <row r="760" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="760" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A760">
         <f t="shared" si="24"/>
         <v>0.75800000000000056</v>
@@ -36628,7 +36639,7 @@
         <v>11142.494662111849</v>
       </c>
     </row>
-    <row r="761" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="761" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A761">
         <f t="shared" si="24"/>
         <v>0.75900000000000056</v>
@@ -36666,7 +36677,7 @@
         <v>11187.882524493025</v>
       </c>
     </row>
-    <row r="762" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="762" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A762">
         <f t="shared" si="24"/>
         <v>0.76000000000000056</v>
@@ -36704,7 +36715,7 @@
         <v>11233.399103482943</v>
       </c>
     </row>
-    <row r="763" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="763" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A763">
         <f t="shared" si="24"/>
         <v>0.76100000000000056</v>
@@ -36742,7 +36753,7 @@
         <v>11279.04563237097</v>
       </c>
     </row>
-    <row r="764" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="764" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A764">
         <f t="shared" si="24"/>
         <v>0.76200000000000057</v>
@@ -36780,7 +36791,7 @@
         <v>11324.823359493155</v>
       </c>
     </row>
-    <row r="765" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="765" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A765">
         <f t="shared" si="24"/>
         <v>0.76300000000000057</v>
@@ -36818,7 +36829,7 @@
         <v>11370.733548261331</v>
       </c>
     </row>
-    <row r="766" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="766" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A766">
         <f t="shared" si="24"/>
         <v>0.76400000000000057</v>
@@ -36856,7 +36867,7 @@
         <v>11416.777477425047</v>
       </c>
     </row>
-    <row r="767" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="767" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A767">
         <f t="shared" si="24"/>
         <v>0.76500000000000057</v>
@@ -36894,7 +36905,7 @@
         <v>11462.95644150813</v>
       </c>
     </row>
-    <row r="768" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="768" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A768">
         <f t="shared" si="24"/>
         <v>0.76600000000000057</v>
@@ -36932,7 +36943,7 @@
         <v>11509.271750910546</v>
       </c>
     </row>
-    <row r="769" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="769" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A769">
         <f t="shared" si="24"/>
         <v>0.76700000000000057</v>
@@ -36970,7 +36981,7 @@
         <v>11555.724732243096</v>
       </c>
     </row>
-    <row r="770" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="770" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A770">
         <f t="shared" si="24"/>
         <v>0.76800000000000057</v>
@@ -37008,7 +37019,7 @@
         <v>11602.316728618451</v>
       </c>
     </row>
-    <row r="771" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="771" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A771">
         <f t="shared" si="24"/>
         <v>0.76900000000000057</v>
@@ -37046,7 +37057,7 @@
         <v>11649.049099927641</v>
       </c>
     </row>
-    <row r="772" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="772" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A772">
         <f t="shared" si="24"/>
         <v>0.77000000000000057</v>
@@ -37084,7 +37095,7 @@
         <v>11695.923223174748</v>
       </c>
     </row>
-    <row r="773" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="773" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A773">
         <f t="shared" si="24"/>
         <v>0.77100000000000057</v>
@@ -37122,7 +37133,7 @@
         <v>11742.940492709738</v>
       </c>
     </row>
-    <row r="774" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="774" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A774">
         <f t="shared" si="24"/>
         <v>0.77200000000000057</v>
@@ -37160,7 +37171,7 @@
         <v>11790.102320563154</v>
       </c>
     </row>
-    <row r="775" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="775" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A775">
         <f t="shared" si="24"/>
         <v>0.77300000000000058</v>
@@ -37198,7 +37209,7 @@
         <v>11837.410136766255</v>
       </c>
     </row>
-    <row r="776" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="776" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A776">
         <f t="shared" si="24"/>
         <v>0.77400000000000058</v>
@@ -37236,7 +37247,7 @@
         <v>11884.865389729373</v>
       </c>
     </row>
-    <row r="777" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="777" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A777">
         <f t="shared" si="24"/>
         <v>0.77500000000000058</v>
@@ -37274,7 +37285,7 @@
         <v>11932.469546460186</v>
       </c>
     </row>
-    <row r="778" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="778" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A778">
         <f t="shared" si="24"/>
         <v>0.77600000000000058</v>
@@ -37312,7 +37323,7 @@
         <v>11980.22409286931</v>
       </c>
     </row>
-    <row r="779" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="779" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A779">
         <f t="shared" si="24"/>
         <v>0.77700000000000058</v>
@@ -37350,7 +37361,7 @@
         <v>12028.130534366926</v>
       </c>
     </row>
-    <row r="780" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="780" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A780">
         <f t="shared" si="24"/>
         <v>0.77800000000000058</v>
@@ -37388,7 +37399,7 @@
         <v>12076.1903959792</v>
       </c>
     </row>
-    <row r="781" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="781" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A781">
         <f t="shared" si="24"/>
         <v>0.77900000000000058</v>
@@ -37426,7 +37437,7 @@
         <v>12124.40522268297</v>
       </c>
     </row>
-    <row r="782" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="782" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A782">
         <f t="shared" si="24"/>
         <v>0.78000000000000058</v>
@@ -37464,7 +37475,7 @@
         <v>12172.776579987829</v>
       </c>
     </row>
-    <row r="783" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="783" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A783">
         <f t="shared" si="24"/>
         <v>0.78100000000000058</v>
@@ -37502,7 +37513,7 @@
         <v>12221.306054052537</v>
       </c>
     </row>
-    <row r="784" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="784" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A784">
         <f t="shared" si="24"/>
         <v>0.78200000000000058</v>
@@ -37540,7 +37551,7 @@
         <v>12269.995252310753</v>
       </c>
     </row>
-    <row r="785" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="785" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A785">
         <f t="shared" si="24"/>
         <v>0.78300000000000058</v>
@@ -37578,7 +37589,7 @@
         <v>12318.845803718421</v>
       </c>
     </row>
-    <row r="786" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="786" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A786">
         <f t="shared" si="24"/>
         <v>0.78400000000000059</v>
@@ -37616,7 +37627,7 @@
         <v>12367.859359161219</v>
       </c>
     </row>
-    <row r="787" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="787" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A787">
         <f t="shared" si="24"/>
         <v>0.78500000000000059</v>
@@ -37654,7 +37665,7 @@
         <v>12417.037591920223</v>
       </c>
     </row>
-    <row r="788" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="788" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A788">
         <f t="shared" si="24"/>
         <v>0.78600000000000059</v>
@@ -37692,7 +37703,7 @@
         <v>12466.382198006602</v>
       </c>
     </row>
-    <row r="789" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="789" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A789">
         <f t="shared" si="24"/>
         <v>0.78700000000000059</v>
@@ -37730,7 +37741,7 @@
         <v>12515.894896772796</v>
       </c>
     </row>
-    <row r="790" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="790" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A790">
         <f t="shared" si="24"/>
         <v>0.78800000000000059</v>
@@ -37768,7 +37779,7 @@
         <v>12565.577431072586</v>
       </c>
     </row>
-    <row r="791" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="791" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A791">
         <f t="shared" si="24"/>
         <v>0.78900000000000059</v>
@@ -37806,7 +37817,7 @@
         <v>12615.431567988697</v>
       </c>
     </row>
-    <row r="792" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="792" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A792">
         <f t="shared" si="24"/>
         <v>0.79000000000000059</v>
@@ -37844,7 +37855,7 @@
         <v>12665.459099152929</v>
       </c>
     </row>
-    <row r="793" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="793" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A793">
         <f t="shared" si="24"/>
         <v>0.79100000000000059</v>
@@ -37882,7 +37893,7 @@
         <v>12715.661841153622</v>
       </c>
     </row>
-    <row r="794" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="794" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A794">
         <f t="shared" si="24"/>
         <v>0.79200000000000059</v>
@@ -37920,7 +37931,7 @@
         <v>12766.041636234138</v>
       </c>
     </row>
-    <row r="795" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="795" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A795">
         <f t="shared" si="24"/>
         <v>0.79300000000000059</v>
@@ -37958,7 +37969,7 @@
         <v>12816.600352554804</v>
       </c>
     </row>
-    <row r="796" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="796" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A796">
         <f t="shared" si="24"/>
         <v>0.79400000000000059</v>
@@ -37996,7 +38007,7 @@
         <v>12867.339884862293</v>
       </c>
     </row>
-    <row r="797" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="797" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A797">
         <f t="shared" si="24"/>
         <v>0.7950000000000006</v>
@@ -38034,7 +38045,7 @@
         <v>12918.262154926186</v>
       </c>
     </row>
-    <row r="798" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="798" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A798">
         <f t="shared" si="24"/>
         <v>0.7960000000000006</v>
@@ -38072,7 +38083,7 @@
         <v>12969.369112106495</v>
       </c>
     </row>
-    <row r="799" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="799" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A799">
         <f t="shared" si="24"/>
         <v>0.7970000000000006</v>
@@ -38110,7 +38121,7 @@
         <v>13020.662733862981</v>
       </c>
     </row>
-    <row r="800" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="800" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A800">
         <f t="shared" si="24"/>
         <v>0.7980000000000006</v>
@@ -38148,7 +38159,7 @@
         <v>13072.145026366332</v>
       </c>
     </row>
-    <row r="801" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="801" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A801">
         <f t="shared" si="24"/>
         <v>0.7990000000000006</v>
@@ -38186,7 +38197,7 @@
         <v>13123.81802505114</v>
       </c>
     </row>
-    <row r="802" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="802" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A802">
         <f t="shared" si="24"/>
         <v>0.8000000000000006</v>
@@ -38224,7 +38235,7 @@
         <v>13175.68379518342</v>
       </c>
     </row>
-    <row r="803" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="803" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A803">
         <f t="shared" si="24"/>
         <v>0.8010000000000006</v>
@@ -38262,7 +38273,7 @@
         <v>13227.744432428142</v>
       </c>
     </row>
-    <row r="804" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="804" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A804">
         <f t="shared" si="24"/>
         <v>0.8020000000000006</v>
@@ -38300,7 +38311,7 @@
         <v>13280.00206357682</v>
       </c>
     </row>
-    <row r="805" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="805" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A805">
         <f t="shared" si="24"/>
         <v>0.8030000000000006</v>
@@ -38338,7 +38349,7 @@
         <v>13332.458847129588</v>
       </c>
     </row>
-    <row r="806" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="806" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A806">
         <f t="shared" si="24"/>
         <v>0.8040000000000006</v>
@@ -38376,7 +38387,7 @@
         <v>13385.116973819082</v>
       </c>
     </row>
-    <row r="807" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="807" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A807">
         <f t="shared" ref="A807:A870" si="26">A806+0.001</f>
         <v>0.8050000000000006</v>
@@ -38414,7 +38425,7 @@
         <v>13437.978667498088</v>
       </c>
     </row>
-    <row r="808" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="808" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A808">
         <f t="shared" si="26"/>
         <v>0.8060000000000006</v>
@@ -38452,7 +38463,7 @@
         <v>13491.046185619767</v>
       </c>
     </row>
-    <row r="809" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="809" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A809">
         <f t="shared" si="26"/>
         <v>0.80700000000000061</v>
@@ -38490,7 +38501,7 @@
         <v>13544.321820139872</v>
       </c>
     </row>
-    <row r="810" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="810" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A810">
         <f t="shared" si="26"/>
         <v>0.80800000000000061</v>
@@ -38528,7 +38539,7 @@
         <v>13597.80789799696</v>
       </c>
     </row>
-    <row r="811" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="811" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A811">
         <f t="shared" si="26"/>
         <v>0.80900000000000061</v>
@@ -38566,7 +38577,7 @@
         <v>13651.506781985505</v>
       </c>
     </row>
-    <row r="812" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="812" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A812">
         <f t="shared" si="26"/>
         <v>0.81000000000000061</v>
@@ -38604,7 +38615,7 @@
         <v>13705.420871614466</v>
       </c>
     </row>
-    <row r="813" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="813" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A813">
         <f t="shared" si="26"/>
         <v>0.81100000000000061</v>
@@ -38642,7 +38653,7 @@
         <v>13759.552603631151</v>
       </c>
     </row>
-    <row r="814" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="814" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A814">
         <f t="shared" si="26"/>
         <v>0.81200000000000061</v>
@@ -38680,7 +38691,7 @@
         <v>13813.904453039855</v>
       </c>
     </row>
-    <row r="815" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="815" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A815">
         <f t="shared" si="26"/>
         <v>0.81300000000000061</v>
@@ -38718,7 +38729,7 @@
         <v>13868.478933742141</v>
       </c>
     </row>
-    <row r="816" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="816" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A816">
         <f t="shared" si="26"/>
         <v>0.81400000000000061</v>
@@ -38756,7 +38767,7 @@
         <v>13923.278599555475</v>
       </c>
     </row>
-    <row r="817" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="817" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A817">
         <f t="shared" si="26"/>
         <v>0.81500000000000061</v>
@@ -38794,7 +38805,7 @@
         <v>13978.306044999032</v>
       </c>
     </row>
-    <row r="818" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="818" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A818">
         <f t="shared" si="26"/>
         <v>0.81600000000000061</v>
@@ -38832,7 +38843,7 @@
         <v>14033.563905992183</v>
       </c>
     </row>
-    <row r="819" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="819" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A819">
         <f t="shared" si="26"/>
         <v>0.81700000000000061</v>
@@ -38870,7 +38881,7 @@
         <v>14089.05486113507</v>
       </c>
     </row>
-    <row r="820" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="820" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A820">
         <f t="shared" si="26"/>
         <v>0.81800000000000062</v>
@@ -38908,7 +38919,7 @@
         <v>14144.781632363434</v>
       </c>
     </row>
-    <row r="821" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="821" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A821">
         <f t="shared" si="26"/>
         <v>0.81900000000000062</v>
@@ -38946,7 +38957,7 @@
         <v>14200.746986010914</v>
       </c>
     </row>
-    <row r="822" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="822" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A822">
         <f t="shared" si="26"/>
         <v>0.82000000000000062</v>
@@ -38984,7 +38995,7 @@
         <v>14256.95373372581</v>
       </c>
     </row>
-    <row r="823" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="823" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A823">
         <f t="shared" si="26"/>
         <v>0.82100000000000062</v>
@@ -39022,7 +39033,7 @@
         <v>14313.404733547928</v>
       </c>
     </row>
-    <row r="824" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="824" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A824">
         <f t="shared" si="26"/>
         <v>0.82200000000000062</v>
@@ -39060,7 +39071,7 @@
         <v>14370.102890985423</v>
       </c>
     </row>
-    <row r="825" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="825" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A825">
         <f t="shared" si="26"/>
         <v>0.82300000000000062</v>
@@ -39098,7 +39109,7 @@
         <v>14427.051159946119</v>
       </c>
     </row>
-    <row r="826" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="826" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A826">
         <f t="shared" si="26"/>
         <v>0.82400000000000062</v>
@@ -39136,7 +39147,7 @@
         <v>14484.252544090838</v>
       </c>
     </row>
-    <row r="827" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="827" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A827">
         <f t="shared" si="26"/>
         <v>0.82500000000000062</v>
@@ -39174,7 +39185,7 @@
         <v>14541.710097619203</v>
       </c>
     </row>
-    <row r="828" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="828" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A828">
         <f t="shared" si="26"/>
         <v>0.82600000000000062</v>
@@ -39212,7 +39223,7 @@
         <v>14599.426926710281</v>
       </c>
     </row>
-    <row r="829" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="829" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A829">
         <f t="shared" si="26"/>
         <v>0.82700000000000062</v>
@@ -39250,7 +39261,7 @@
         <v>14657.406190672178</v>
       </c>
     </row>
-    <row r="830" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="830" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A830">
         <f t="shared" si="26"/>
         <v>0.82800000000000062</v>
@@ -39288,7 +39299,7 @@
         <v>14715.651103047991</v>
       </c>
     </row>
-    <row r="831" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="831" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A831">
         <f t="shared" si="26"/>
         <v>0.82900000000000063</v>
@@ -39326,7 +39337,7 @@
         <v>14774.16493304189</v>
       </c>
     </row>
-    <row r="832" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="832" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A832">
         <f t="shared" si="26"/>
         <v>0.83000000000000063</v>
@@ -39364,7 +39375,7 @@
         <v>14832.951006741483</v>
       </c>
     </row>
-    <row r="833" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="833" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A833">
         <f t="shared" si="26"/>
         <v>0.83100000000000063</v>
@@ -39402,7 +39413,7 @@
         <v>14892.0127085148</v>
       </c>
     </row>
-    <row r="834" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="834" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A834">
         <f t="shared" si="26"/>
         <v>0.83200000000000063</v>
@@ -39440,7 +39451,7 @@
         <v>14951.353482334513</v>
       </c>
     </row>
-    <row r="835" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="835" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A835">
         <f t="shared" si="26"/>
         <v>0.83300000000000063</v>
@@ -39478,7 +39489,7 @@
         <v>15010.976833189476</v>
       </c>
     </row>
-    <row r="836" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="836" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A836">
         <f t="shared" si="26"/>
         <v>0.83400000000000063</v>
@@ -39516,7 +39527,7 @@
         <v>15070.88632865633</v>
       </c>
     </row>
-    <row r="837" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="837" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A837">
         <f t="shared" si="26"/>
         <v>0.83500000000000063</v>
@@ -39554,7 +39565,7 @@
         <v>15131.085600412904</v>
       </c>
     </row>
-    <row r="838" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="838" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A838">
         <f t="shared" si="26"/>
         <v>0.83600000000000063</v>
@@ -39592,7 +39603,7 @@
         <v>15191.578345620643</v>
       </c>
     </row>
-    <row r="839" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="839" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A839">
         <f t="shared" si="26"/>
         <v>0.83700000000000063</v>
@@ -39630,7 +39641,7 @@
         <v>15252.36832872905</v>
       </c>
     </row>
-    <row r="840" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="840" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A840">
         <f t="shared" si="26"/>
         <v>0.83800000000000063</v>
@@ -39668,7 +39679,7 @@
         <v>15313.459383061841</v>
       </c>
     </row>
-    <row r="841" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="841" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A841">
         <f t="shared" si="26"/>
         <v>0.83900000000000063</v>
@@ -39706,7 +39717,7 @@
         <v>15374.85541250497</v>
       </c>
     </row>
-    <row r="842" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="842" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A842">
         <f t="shared" si="26"/>
         <v>0.84000000000000064</v>
@@ -39744,7 +39755,7 @@
         <v>15436.560393311069</v>
       </c>
     </row>
-    <row r="843" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="843" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A843">
         <f t="shared" si="26"/>
         <v>0.84100000000000064</v>
@@ -39782,7 +39793,7 @@
         <v>15498.578375845667</v>
       </c>
     </row>
-    <row r="844" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="844" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A844">
         <f t="shared" si="26"/>
         <v>0.84200000000000064</v>
@@ -39820,7 +39831,7 @@
         <v>15560.913486595367</v>
       </c>
     </row>
-    <row r="845" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="845" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A845">
         <f t="shared" si="26"/>
         <v>0.84300000000000064</v>
@@ -39858,7 +39869,7 @@
         <v>15623.569929928621</v>
       </c>
     </row>
-    <row r="846" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="846" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A846">
         <f t="shared" si="26"/>
         <v>0.84400000000000064</v>
@@ -39896,7 +39907,7 @@
         <v>15686.551990205757</v>
       </c>
     </row>
-    <row r="847" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="847" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A847">
         <f t="shared" si="26"/>
         <v>0.84500000000000064</v>
@@ -39934,7 +39945,7 @@
         <v>15749.864033889011</v>
       </c>
     </row>
-    <row r="848" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="848" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A848">
         <f t="shared" si="26"/>
         <v>0.84600000000000064</v>
@@ -39972,7 +39983,7 @@
         <v>15813.510511477929</v>
       </c>
     </row>
-    <row r="849" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="849" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A849">
         <f t="shared" si="26"/>
         <v>0.84700000000000064</v>
@@ -40010,7 +40021,7 @@
         <v>15877.495959910433</v>
       </c>
     </row>
-    <row r="850" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="850" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A850">
         <f t="shared" si="26"/>
         <v>0.84800000000000064</v>
@@ -40048,7 +40059,7 @@
         <v>15941.825004701954</v>
       </c>
     </row>
-    <row r="851" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="851" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A851">
         <f t="shared" si="26"/>
         <v>0.84900000000000064</v>
@@ -40086,7 +40097,7 @@
         <v>16006.502362302839</v>
       </c>
     </row>
-    <row r="852" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="852" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A852">
         <f t="shared" si="26"/>
         <v>0.85000000000000064</v>
@@ -40124,7 +40135,7 @@
         <v>16071.532842615838</v>
       </c>
     </row>
-    <row r="853" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="853" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A853">
         <f t="shared" si="26"/>
         <v>0.85100000000000064</v>
@@ -40162,7 +40173,7 @@
         <v>16136.921351397163</v>
       </c>
     </row>
-    <row r="854" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="854" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A854">
         <f t="shared" si="26"/>
         <v>0.85200000000000065</v>
@@ -40200,7 +40211,7 @@
         <v>16202.672892875838</v>
       </c>
     </row>
-    <row r="855" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="855" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A855">
         <f t="shared" si="26"/>
         <v>0.85300000000000065</v>
@@ -40238,7 +40249,7 @@
         <v>16268.792572358492</v>
       </c>
     </row>
-    <row r="856" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="856" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A856">
         <f t="shared" si="26"/>
         <v>0.85400000000000065</v>
@@ -40276,7 +40287,7 @@
         <v>16335.285599168841</v>
       </c>
     </row>
-    <row r="857" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="857" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A857">
         <f t="shared" si="26"/>
         <v>0.85500000000000065</v>
@@ -40314,7 +40325,7 @@
         <v>16402.157289354349</v>
       </c>
     </row>
-    <row r="858" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="858" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A858">
         <f t="shared" si="26"/>
         <v>0.85600000000000065</v>
@@ -40352,7 +40363,7 @@
         <v>16469.413068640264</v>
       </c>
     </row>
-    <row r="859" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="859" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A859">
         <f t="shared" si="26"/>
         <v>0.85700000000000065</v>
@@ -40390,7 +40401,7 @@
         <v>16537.058475645594</v>
       </c>
     </row>
-    <row r="860" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="860" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A860">
         <f t="shared" si="26"/>
         <v>0.85800000000000065</v>
@@ -40428,7 +40439,7 @@
         <v>16605.099164851694</v>
       </c>
     </row>
-    <row r="861" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="861" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A861">
         <f t="shared" si="26"/>
         <v>0.85900000000000065</v>
@@ -40466,7 +40477,7 @@
         <v>16673.54090994921</v>
       </c>
     </row>
-    <row r="862" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="862" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A862">
         <f t="shared" si="26"/>
         <v>0.86000000000000065</v>
@@ -40504,7 +40515,7 @@
         <v>16742.389607446952</v>
       </c>
     </row>
-    <row r="863" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="863" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A863">
         <f t="shared" si="26"/>
         <v>0.86100000000000065</v>
@@ -40542,7 +40553,7 @@
         <v>16811.651279844213</v>
       </c>
     </row>
-    <row r="864" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="864" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A864">
         <f t="shared" si="26"/>
         <v>0.86200000000000065</v>
@@ -40580,7 +40591,7 @@
         <v>16881.332079501575</v>
       </c>
     </row>
-    <row r="865" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="865" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A865">
         <f t="shared" si="26"/>
         <v>0.86300000000000066</v>
@@ -40618,7 +40629,7 @@
         <v>16951.438292409861</v>
       </c>
     </row>
-    <row r="866" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="866" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A866">
         <f t="shared" si="26"/>
         <v>0.86400000000000066</v>
@@ -40656,7 +40667,7 @@
         <v>17021.976341915419</v>
       </c>
     </row>
-    <row r="867" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="867" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A867">
         <f t="shared" si="26"/>
         <v>0.86500000000000066</v>
@@ -40694,7 +40705,7 @@
         <v>17092.952793100252</v>
       </c>
     </row>
-    <row r="868" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="868" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A868">
         <f t="shared" si="26"/>
         <v>0.86600000000000066</v>
@@ -40732,7 +40743,7 @@
         <v>17164.37435674014</v>
       </c>
     </row>
-    <row r="869" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="869" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A869">
         <f t="shared" si="26"/>
         <v>0.86700000000000066</v>
@@ -40770,7 +40781,7 @@
         <v>17236.247893772073</v>
       </c>
     </row>
-    <row r="870" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="870" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A870">
         <f t="shared" si="26"/>
         <v>0.86800000000000066</v>
@@ -40808,7 +40819,7 @@
         <v>17308.580419819904</v>
       </c>
     </row>
-    <row r="871" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="871" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A871">
         <f t="shared" ref="A871:A934" si="28">A870+0.001</f>
         <v>0.86900000000000066</v>
@@ -40846,7 +40857,7 @@
         <v>17381.379109938265</v>
       </c>
     </row>
-    <row r="872" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="872" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A872">
         <f t="shared" si="28"/>
         <v>0.87000000000000066</v>
@@ -40884,7 +40895,7 @@
         <v>17454.65130344381</v>
       </c>
     </row>
-    <row r="873" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="873" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A873">
         <f t="shared" si="28"/>
         <v>0.87100000000000066</v>
@@ -40922,7 +40933,7 @@
         <v>17528.404508906518</v>
       </c>
     </row>
-    <row r="874" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="874" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A874">
         <f t="shared" si="28"/>
         <v>0.87200000000000066</v>
@@ -40960,7 +40971,7 @@
         <v>17602.646409752182</v>
       </c>
     </row>
-    <row r="875" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="875" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A875">
         <f t="shared" si="28"/>
         <v>0.87300000000000066</v>
@@ -40998,7 +41009,7 @@
         <v>17677.384869399233</v>
       </c>
     </row>
-    <row r="876" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="876" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A876">
         <f t="shared" si="28"/>
         <v>0.87400000000000067</v>
@@ -41036,7 +41047,7 @@
         <v>17752.627937035853</v>
       </c>
     </row>
-    <row r="877" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="877" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A877">
         <f t="shared" si="28"/>
         <v>0.87500000000000067</v>
@@ -41074,7 +41085,7 @@
         <v>17828.383853760883</v>
       </c>
     </row>
-    <row r="878" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="878" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A878">
         <f t="shared" si="28"/>
         <v>0.87600000000000067</v>
@@ -41112,7 +41123,7 @@
         <v>17904.661058433689</v>
       </c>
     </row>
-    <row r="879" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="879" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A879">
         <f t="shared" si="28"/>
         <v>0.87700000000000067</v>
@@ -41150,7 +41161,7 @@
         <v>17981.468194338944</v>
       </c>
     </row>
-    <row r="880" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="880" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A880">
         <f t="shared" si="28"/>
         <v>0.87800000000000067</v>
@@ -41188,7 +41199,7 @@
         <v>18058.814115676782</v>
       </c>
     </row>
-    <row r="881" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="881" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A881">
         <f t="shared" si="28"/>
         <v>0.87900000000000067</v>
@@ -41226,7 +41237,7 @@
         <v>18136.707894664127</v>
       </c>
     </row>
-    <row r="882" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="882" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A882">
         <f t="shared" si="28"/>
         <v>0.88000000000000067</v>
@@ -41264,7 +41275,7 @@
         <v>18215.15882875245</v>
       </c>
     </row>
-    <row r="883" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="883" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A883">
         <f t="shared" si="28"/>
         <v>0.88100000000000067</v>
@@ -41302,7 +41313,7 @@
         <v>18294.176448005586</v>
       </c>
     </row>
-    <row r="884" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="884" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A884">
         <f t="shared" si="28"/>
         <v>0.88200000000000067</v>
@@ -41340,7 +41351,7 @@
         <v>18373.770523176048</v>
       </c>
     </row>
-    <row r="885" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="885" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A885">
         <f t="shared" si="28"/>
         <v>0.88300000000000067</v>
@@ -41378,7 +41389,7 @@
         <v>18453.951073752232</v>
       </c>
     </row>
-    <row r="886" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="886" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A886">
         <f t="shared" si="28"/>
         <v>0.88400000000000067</v>
@@ -41416,7 +41427,7 @@
         <v>18534.728376616822</v>
       </c>
     </row>
-    <row r="887" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="887" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A887">
         <f t="shared" si="28"/>
         <v>0.88500000000000068</v>
@@ -41454,7 +41465,7 @@
         <v>18616.112974879779</v>
       </c>
     </row>
-    <row r="888" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="888" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A888">
         <f t="shared" si="28"/>
         <v>0.88600000000000068</v>
@@ -41492,7 +41503,7 @@
         <v>18698.115687191585</v>
       </c>
     </row>
-    <row r="889" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="889" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A889">
         <f t="shared" si="28"/>
         <v>0.88700000000000068</v>
@@ -41530,7 +41541,7 @@
         <v>18780.74761752212</v>
       </c>
     </row>
-    <row r="890" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="890" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A890">
         <f t="shared" si="28"/>
         <v>0.88800000000000068</v>
@@ -41568,7 +41579,7 @@
         <v>18864.020165201491</v>
       </c>
     </row>
-    <row r="891" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="891" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A891">
         <f t="shared" si="28"/>
         <v>0.88900000000000068</v>
@@ -41606,7 +41617,7 @@
         <v>18947.945035601133</v>
       </c>
     </row>
-    <row r="892" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="892" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A892">
         <f t="shared" si="28"/>
         <v>0.89000000000000068</v>
@@ -41644,7 +41655,7 @@
         <v>19032.534251295128</v>
       </c>
     </row>
-    <row r="893" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="893" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A893">
         <f t="shared" si="28"/>
         <v>0.89100000000000068</v>
@@ -41682,7 +41693,7 @@
         <v>19117.800163439806</v>
       </c>
     </row>
-    <row r="894" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="894" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A894">
         <f t="shared" si="28"/>
         <v>0.89200000000000068</v>
@@ -41720,7 +41731,7 @@
         <v>19203.755464070109</v>
       </c>
     </row>
-    <row r="895" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="895" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A895">
         <f t="shared" si="28"/>
         <v>0.89300000000000068</v>
@@ -41758,7 +41769,7 @@
         <v>19290.413198730657</v>
       </c>
     </row>
-    <row r="896" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="896" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A896">
         <f t="shared" si="28"/>
         <v>0.89400000000000068</v>
@@ -41796,7 +41807,7 @@
         <v>19377.786779732542</v>
       </c>
     </row>
-    <row r="897" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="897" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A897">
         <f t="shared" si="28"/>
         <v>0.89500000000000068</v>
@@ -41834,7 +41845,7 @@
         <v>19465.890000152267</v>
       </c>
     </row>
-    <row r="898" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="898" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A898">
         <f t="shared" si="28"/>
         <v>0.89600000000000068</v>
@@ -41872,7 +41883,7 @@
         <v>19554.737048223597</v>
       </c>
     </row>
-    <row r="899" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="899" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A899">
         <f t="shared" si="28"/>
         <v>0.89700000000000069</v>
@@ -41910,7 +41921,7 @@
         <v>19644.3425229081</v>
       </c>
     </row>
-    <row r="900" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="900" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A900">
         <f t="shared" si="28"/>
         <v>0.89800000000000069</v>
@@ -41948,7 +41959,7 @@
         <v>19734.721449698536</v>
       </c>
     </row>
-    <row r="901" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="901" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A901">
         <f t="shared" si="28"/>
         <v>0.89900000000000069</v>
@@ -41986,7 +41997,7 @@
         <v>19825.889297411759</v>
       </c>
     </row>
-    <row r="902" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="902" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A902">
         <f t="shared" si="28"/>
         <v>0.90000000000000069</v>
@@ -42024,7 +42035,7 @@
         <v>19917.861996102129</v>
       </c>
     </row>
-    <row r="903" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="903" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A903">
         <f t="shared" si="28"/>
         <v>0.90100000000000069</v>
@@ -42062,7 +42073,7 @@
         <v>20010.65595529506</v>
       </c>
     </row>
-    <row r="904" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="904" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A904">
         <f t="shared" si="28"/>
         <v>0.90200000000000069</v>
@@ -42100,7 +42111,7 @@
         <v>20104.288083675765</v>
       </c>
     </row>
-    <row r="905" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="905" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A905">
         <f t="shared" si="28"/>
         <v>0.90300000000000069</v>
@@ -42138,7 +42149,7 @@
         <v>20198.775809505587</v>
       </c>
     </row>
-    <row r="906" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="906" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A906">
         <f t="shared" si="28"/>
         <v>0.90400000000000069</v>
@@ -42176,7 +42187,7 @@
         <v>20294.137102187942</v>
       </c>
     </row>
-    <row r="907" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="907" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A907">
         <f t="shared" si="28"/>
         <v>0.90500000000000069</v>
@@ -42214,7 +42225,7 @@
         <v>20390.390494896546</v>
       </c>
     </row>
-    <row r="908" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="908" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A908">
         <f t="shared" si="28"/>
         <v>0.90600000000000069</v>
@@ -42252,7 +42263,7 @@
         <v>20487.555108426004</v>
       </c>
     </row>
-    <row r="909" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="909" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A909">
         <f t="shared" si="28"/>
         <v>0.90700000000000069</v>
@@ -42290,7 +42301,7 @@
         <v>20585.650676555797</v>
       </c>
     </row>
-    <row r="910" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="910" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A910">
         <f t="shared" si="28"/>
         <v>0.9080000000000007</v>
@@ -42328,7 +42339,7 @@
         <v>20684.697572200075</v>
       </c>
     </row>
-    <row r="911" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="911" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A911">
         <f t="shared" si="28"/>
         <v>0.9090000000000007</v>
@@ -42366,7 +42377,7 @@
         <v>20784.716835711133</v>
       </c>
     </row>
-    <row r="912" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="912" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A912">
         <f t="shared" si="28"/>
         <v>0.9100000000000007</v>
@@ -42404,7 +42415,7 @@
         <v>20885.73020421607</v>
       </c>
     </row>
-    <row r="913" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="913" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A913">
         <f t="shared" si="28"/>
         <v>0.9110000000000007</v>
@@ -42442,7 +42453,7 @@
         <v>20987.760142670577</v>
       </c>
     </row>
-    <row r="914" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="914" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A914">
         <f t="shared" si="28"/>
         <v>0.9120000000000007</v>
@@ -42480,7 +42491,7 @@
         <v>21090.82987708096</v>
       </c>
     </row>
-    <row r="915" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="915" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A915">
         <f t="shared" si="28"/>
         <v>0.9130000000000007</v>
@@ -42518,7 +42529,7 @@
         <v>21194.96342900673</v>
       </c>
     </row>
-    <row r="916" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="916" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A916">
         <f t="shared" si="28"/>
         <v>0.9140000000000007</v>
@@ -42556,7 +42567,7 @@
         <v>21300.185652449709</v>
       </c>
     </row>
-    <row r="917" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="917" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A917">
         <f t="shared" si="28"/>
         <v>0.9150000000000007</v>
@@ -42594,7 +42605,7 @@
         <v>21406.522272896818</v>
       </c>
     </row>
-    <row r="918" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="918" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A918">
         <f t="shared" si="28"/>
         <v>0.9160000000000007</v>
@@ -42632,7 +42643,7 @@
         <v>21513.999928531102</v>
       </c>
     </row>
-    <row r="919" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="919" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A919">
         <f t="shared" si="28"/>
         <v>0.9170000000000007</v>
@@ -42670,7 +42681,7 @@
         <v>21622.646213945682</v>
       </c>
     </row>
-    <row r="920" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="920" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A920">
         <f t="shared" si="28"/>
         <v>0.9180000000000007</v>
@@ -42708,7 +42719,7 @@
         <v>21732.489726520707</v>
       </c>
     </row>
-    <row r="921" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="921" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A921">
         <f t="shared" si="28"/>
         <v>0.91900000000000071</v>
@@ -42746,7 +42757,7 @@
         <v>21843.560115754353</v>
       </c>
     </row>
-    <row r="922" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="922" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A922">
         <f t="shared" si="28"/>
         <v>0.92000000000000071</v>
@@ -42784,7 +42795,7 @@
         <v>21955.88813548964</v>
       </c>
     </row>
-    <row r="923" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="923" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A923">
         <f t="shared" si="28"/>
         <v>0.92100000000000071</v>
@@ -42822,7 +42833,7 @@
         <v>22069.5056994882</v>
       </c>
     </row>
-    <row r="924" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="924" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A924">
         <f t="shared" si="28"/>
         <v>0.92200000000000071</v>
@@ -42860,7 +42871,7 @@
         <v>22184.445940627465</v>
       </c>
     </row>
-    <row r="925" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="925" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A925">
         <f t="shared" si="28"/>
         <v>0.92300000000000071</v>
@@ -42898,7 +42909,7 @@
         <v>22300.743273692187</v>
       </c>
     </row>
-    <row r="926" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="926" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A926">
         <f t="shared" si="28"/>
         <v>0.92400000000000071</v>
@@ -42936,7 +42947,7 @@
         <v>22418.433462691592</v>
       </c>
     </row>
-    <row r="927" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="927" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A927">
         <f t="shared" si="28"/>
         <v>0.92500000000000071</v>
@@ -42974,7 +42985,7 @@
         <v>22537.553692163761</v>
       </c>
     </row>
-    <row r="928" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="928" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A928">
         <f t="shared" si="28"/>
         <v>0.92600000000000071</v>
@@ -43012,7 +43023,7 @@
         <v>22658.142643413135</v>
       </c>
     </row>
-    <row r="929" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="929" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A929">
         <f t="shared" si="28"/>
         <v>0.92700000000000071</v>
@@ -43050,7 +43061,7 @@
         <v>22780.240576321354</v>
       </c>
     </row>
-    <row r="930" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="930" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A930">
         <f t="shared" si="28"/>
         <v>0.92800000000000071</v>
@@ -43088,7 +43099,7 @@
         <v>22903.889416149446</v>
       </c>
     </row>
-    <row r="931" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="931" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A931">
         <f t="shared" si="28"/>
         <v>0.92900000000000071</v>
@@ -43126,7 +43137,7 @@
         <v>23029.132846888366</v>
       </c>
     </row>
-    <row r="932" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="932" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A932">
         <f t="shared" si="28"/>
         <v>0.93000000000000071</v>
@@ -43164,7 +43175,7 @@
         <v>23156.016411143333</v>
       </c>
     </row>
-    <row r="933" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="933" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A933">
         <f t="shared" si="28"/>
         <v>0.93100000000000072</v>
@@ -43202,7 +43213,7 @@
         <v>23284.587617017656</v>
       </c>
     </row>
-    <row r="934" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="934" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A934">
         <f t="shared" si="28"/>
         <v>0.93200000000000072</v>
@@ -43240,7 +43251,7 @@
         <v>23414.896053058306</v>
       </c>
     </row>
-    <row r="935" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="935" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A935">
         <f t="shared" ref="A935:A998" si="30">A934+0.001</f>
         <v>0.93300000000000072</v>
@@ -43278,7 +43289,7 @@
         <v>23546.993511510642</v>
       </c>
     </row>
-    <row r="936" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="936" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A936">
         <f t="shared" si="30"/>
         <v>0.93400000000000072</v>
@@ -43316,7 +43327,7 @@
         <v>23680.934121017322</v>
       </c>
     </row>
-    <row r="937" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="937" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A937">
         <f t="shared" si="30"/>
         <v>0.93500000000000072</v>
@@ -43354,7 +43365,7 @@
         <v>23816.77448931439</v>
       </c>
     </row>
-    <row r="938" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="938" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A938">
         <f t="shared" si="30"/>
         <v>0.93600000000000072</v>
@@ -43392,7 +43403,7 @@
         <v>23954.57385703046</v>
       </c>
     </row>
-    <row r="939" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="939" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A939">
         <f t="shared" si="30"/>
         <v>0.93700000000000072</v>
@@ -43430,7 +43441,7 @@
         <v>24094.394263796836</v>
       </c>
     </row>
-    <row r="940" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="940" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A940">
         <f t="shared" si="30"/>
         <v>0.93800000000000072</v>
@@ -43468,7 +43479,7 @@
         <v>24236.300727221511</v>
       </c>
     </row>
-    <row r="941" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="941" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A941">
         <f t="shared" si="30"/>
         <v>0.93900000000000072</v>
@@ -43506,7 +43517,7 @@
         <v>24380.361436807994</v>
       </c>
     </row>
-    <row r="942" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="942" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A942">
         <f t="shared" si="30"/>
         <v>0.94000000000000072</v>
@@ -43544,7 +43555,7 @@
         <v>24526.647963910342</v>
       </c>
     </row>
-    <row r="943" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="943" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A943">
         <f t="shared" si="30"/>
         <v>0.94100000000000072</v>
@@ -43582,7 +43593,7 @@
         <v>24675.23548901952</v>
       </c>
     </row>
-    <row r="944" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="944" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A944">
         <f t="shared" si="30"/>
         <v>0.94200000000000073</v>
@@ -43620,7 +43631,7 @@
         <v>24826.203048753065</v>
       </c>
     </row>
-    <row r="945" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="945" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A945">
         <f t="shared" si="30"/>
         <v>0.94300000000000073</v>
@@ -43658,7 +43669,7 @@
         <v>24979.63380438157</v>
       </c>
     </row>
-    <row r="946" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="946" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A946">
         <f t="shared" si="30"/>
         <v>0.94400000000000073</v>
@@ -43696,7 +43707,7 @@
         <v>25135.615333885631</v>
       </c>
     </row>
-    <row r="947" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="947" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A947">
         <f t="shared" si="30"/>
         <v>0.94500000000000073</v>
@@ -43734,7 +43745,7 @@
         <v>25294.239950555471</v>
       </c>
     </row>
-    <row r="948" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="948" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A948">
         <f t="shared" si="30"/>
         <v>0.94600000000000073</v>
@@ -43772,7 +43783,7 @@
         <v>25455.605050810824</v>
       </c>
     </row>
-    <row r="949" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="949" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A949">
         <f t="shared" si="30"/>
         <v>0.94700000000000073</v>
@@ -43810,7 +43821,7 @@
         <v>25619.813494427923</v>
       </c>
     </row>
-    <row r="950" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="950" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A950">
         <f t="shared" si="30"/>
         <v>0.94800000000000073</v>
@@ -43848,7 +43859,7 @@
         <v>25786.974021175389</v>
       </c>
     </row>
-    <row r="951" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="951" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A951">
         <f t="shared" si="30"/>
         <v>0.94900000000000073</v>
@@ -43886,7 +43897,7 @@
         <v>25957.20170784623</v>
       </c>
     </row>
-    <row r="952" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="952" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A952">
         <f t="shared" si="30"/>
         <v>0.95000000000000073</v>
@@ -43924,7 +43935,7 @@
         <v>26130.618470619062</v>
       </c>
     </row>
-    <row r="953" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="953" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A953">
         <f t="shared" si="30"/>
         <v>0.95100000000000073</v>
@@ -43962,7 +43973,7 @@
         <v>26307.353618132744</v>
       </c>
     </row>
-    <row r="954" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="954" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A954">
         <f t="shared" si="30"/>
         <v>0.95200000000000073</v>
@@ -44000,7 +44011,7 @@
         <v>26487.54446179371</v>
       </c>
     </row>
-    <row r="955" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="955" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A955">
         <f t="shared" si="30"/>
         <v>0.95300000000000074</v>
@@ -44038,7 +44049,7 @@
         <v>26671.336990199026</v>
       </c>
     </row>
-    <row r="956" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="956" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A956">
         <f t="shared" si="30"/>
         <v>0.95400000000000074</v>
@@ -44076,7 +44087,7 @@
         <v>26858.886616275387</v>
       </c>
     </row>
-    <row r="957" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="957" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A957">
         <f t="shared" si="30"/>
         <v>0.95500000000000074</v>
@@ -44114,7 +44125,7 @@
         <v>27050.359006723713</v>
       </c>
     </row>
-    <row r="958" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="958" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A958">
         <f t="shared" si="30"/>
         <v>0.95600000000000074</v>
@@ -44152,7 +44163,7 @@
         <v>27245.931004406859</v>
       </c>
     </row>
-    <row r="959" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="959" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A959">
         <f t="shared" si="30"/>
         <v>0.95700000000000074</v>
@@ -44190,7 +44201,7 @@
         <v>27445.791657388301</v>
       </c>
     </row>
-    <row r="960" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="960" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A960">
         <f t="shared" si="30"/>
         <v>0.95800000000000074</v>
@@ -44228,7 +44239,7 @@
         <v>27650.143368766268</v>
       </c>
     </row>
-    <row r="961" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="961" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A961">
         <f t="shared" si="30"/>
         <v>0.95900000000000074</v>
@@ -44266,7 +44277,7 @@
         <v>27859.203185391354</v>
       </c>
     </row>
-    <row r="962" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="962" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A962">
         <f t="shared" si="30"/>
         <v>0.96000000000000074</v>
@@ -44304,7 +44315,7 @@
         <v>28073.204246058569</v>
       </c>
     </row>
-    <row r="963" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="963" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A963">
         <f t="shared" si="30"/>
         <v>0.96100000000000074</v>
@@ -44342,7 +44353,7 @@
         <v>28292.397413024421</v>
       </c>
     </row>
-    <row r="964" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="964" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A964">
         <f t="shared" si="30"/>
         <v>0.96200000000000074</v>
@@ -44380,7 +44391,7 @@
         <v>28517.053115967403</v>
       </c>
     </row>
-    <row r="965" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="965" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A965">
         <f t="shared" si="30"/>
         <v>0.96300000000000074</v>
@@ -44418,7 +44429,7 @@
         <v>28747.46344199227</v>
       </c>
     </row>
-    <row r="966" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="966" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A966">
         <f t="shared" si="30"/>
         <v>0.96400000000000075</v>
@@ -44456,7 +44467,7 @@
         <v>28983.944512801801</v>
       </c>
     </row>
-    <row r="967" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="967" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A967">
         <f t="shared" si="30"/>
         <v>0.96500000000000075</v>
@@ -44494,7 +44505,7 @@
         <v>29226.839196911871</v>
       </c>
     </row>
-    <row r="968" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="968" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A968">
         <f t="shared" si="30"/>
         <v>0.96600000000000075</v>
@@ -44532,7 +44543,7 @@
         <v>29476.520215845059</v>
       </c>
     </row>
-    <row r="969" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="969" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A969">
         <f t="shared" si="30"/>
         <v>0.96700000000000075</v>
@@ -44570,7 +44581,7 @@
         <v>29733.393715170652</v>
       </c>
     </row>
-    <row r="970" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="970" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A970">
         <f t="shared" si="30"/>
         <v>0.96800000000000075</v>
@@ -44608,7 +44619,7 @@
         <v>29997.903385679794</v>
       </c>
     </row>
-    <row r="971" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="971" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A971">
         <f t="shared" si="30"/>
         <v>0.96900000000000075</v>
@@ -44646,7 +44657,7 @@
         <v>30270.535240560977</v>
       </c>
     </row>
-    <row r="972" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="972" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A972">
         <f t="shared" si="30"/>
         <v>0.97000000000000075</v>
@@ -44684,7 +44695,7 @@
         <v>30551.823177695016</v>
       </c>
     </row>
-    <row r="973" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="973" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A973">
         <f t="shared" si="30"/>
         <v>0.97100000000000075</v>
@@ -44722,7 +44733,7 @@
         <v>30842.355486965942</v>
       </c>
     </row>
-    <row r="974" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="974" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A974">
         <f t="shared" si="30"/>
         <v>0.97200000000000075</v>
@@ -44760,7 +44771,7 @@
         <v>31142.782502734888</v>
       </c>
     </row>
-    <row r="975" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="975" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A975">
         <f t="shared" si="30"/>
         <v>0.97300000000000075</v>
@@ -44798,7 +44809,7 @@
         <v>31453.825651755295</v>
       </c>
     </row>
-    <row r="976" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="976" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A976">
         <f t="shared" si="30"/>
         <v>0.97400000000000075</v>
@@ -44836,7 +44847,7 @@
         <v>31776.288213819469</v>
       </c>
     </row>
-    <row r="977" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="977" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A977">
         <f t="shared" si="30"/>
         <v>0.97500000000000075</v>
@@ -44874,7 +44885,7 @@
         <v>32111.068199941627</v>
       </c>
     </row>
-    <row r="978" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="978" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A978">
         <f t="shared" si="30"/>
         <v>0.97600000000000076</v>
@@ -44912,7 +44923,7 @@
         <v>32459.173868555779</v>
       </c>
     </row>
-    <row r="979" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="979" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A979">
         <f t="shared" si="30"/>
         <v>0.97700000000000076</v>
@@ -44950,7 +44961,7 @@
         <v>32821.742556698126</v>
       </c>
     </row>
-    <row r="980" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="980" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A980">
         <f t="shared" si="30"/>
         <v>0.97800000000000076</v>
@@ -44988,7 +44999,7 @@
         <v>33200.063714713877</v>
       </c>
     </row>
-    <row r="981" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="981" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A981">
         <f t="shared" si="30"/>
         <v>0.97900000000000076</v>
@@ -45026,7 +45037,7 @@
         <v>33595.607324095879</v>
       </c>
     </row>
-    <row r="982" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="982" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A982">
         <f t="shared" si="30"/>
         <v>0.98000000000000076</v>
@@ -45064,7 +45075,7 @@
         <v>34010.059283580602</v>
       </c>
     </row>
-    <row r="983" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="983" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A983">
         <f t="shared" si="30"/>
         <v>0.98100000000000076</v>
@@ -45102,7 +45113,7 @@
         <v>34445.365922016179</v>
       </c>
     </row>
-    <row r="984" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="984" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A984">
         <f t="shared" si="30"/>
         <v>0.98200000000000076</v>
@@ -45140,7 +45151,7 @@
         <v>34903.790620330226</v>
       </c>
     </row>
-    <row r="985" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="985" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A985">
         <f t="shared" si="30"/>
         <v>0.98300000000000076</v>
@@ -45178,7 +45189,7 @@
         <v>35387.986728179356</v>
       </c>
     </row>
-    <row r="986" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="986" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A986">
         <f t="shared" si="30"/>
         <v>0.98400000000000076</v>
@@ -45216,7 +45227,7 @@
         <v>35901.092755608232</v>
       </c>
     </row>
-    <row r="987" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="987" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A987">
         <f t="shared" si="30"/>
         <v>0.98500000000000076</v>
@@ -45254,7 +45265,7 @@
         <v>36446.8585518334</v>
       </c>
     </row>
-    <row r="988" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="988" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A988">
         <f t="shared" si="30"/>
         <v>0.98600000000000076</v>
@@ -45292,7 +45303,7 @@
         <v>37029.815443718653</v>
       </c>
     </row>
-    <row r="989" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="989" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A989">
         <f t="shared" si="30"/>
         <v>0.98700000000000077</v>
@@ -45330,7 +45341,7 @@
         <v>37655.510134529286</v>
       </c>
     </row>
-    <row r="990" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="990" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A990">
         <f t="shared" si="30"/>
         <v>0.98800000000000077</v>
@@ -45368,7 +45379,7 @@
         <v>38330.833442203548</v>
       </c>
     </row>
-    <row r="991" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="991" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A991">
         <f t="shared" si="30"/>
         <v>0.98900000000000077</v>
@@ -45406,7 +45417,7 @@
         <v>39064.494254183919</v>
       </c>
     </row>
-    <row r="992" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="992" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A992">
         <f t="shared" si="30"/>
         <v>0.99000000000000077</v>
@@ -45444,7 +45455,7 @@
         <v>39867.723456030908</v>
       </c>
     </row>
-    <row r="993" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="993" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A993">
         <f t="shared" si="30"/>
         <v>0.99100000000000077</v>
@@ -45482,7 +45493,7 @@
         <v>40755.356821813584</v>
       </c>
     </row>
-    <row r="994" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="994" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A994">
         <f t="shared" si="30"/>
         <v>0.99200000000000077</v>
@@ -45520,7 +45531,7 @@
         <v>41747.572821332105</v>
       </c>
     </row>
-    <row r="995" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="995" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A995">
         <f t="shared" si="30"/>
         <v>0.99300000000000077</v>
@@ -45558,7 +45569,7 @@
         <v>42872.830106978618</v>
       </c>
     </row>
-    <row r="996" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="996" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A996">
         <f t="shared" si="30"/>
         <v>0.99400000000000077</v>
@@ -45596,7 +45607,7 @@
         <v>44173.169316272797</v>
       </c>
     </row>
-    <row r="997" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="997" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A997">
         <f t="shared" si="30"/>
         <v>0.99500000000000077</v>
@@ -45634,7 +45645,7 @@
         <v>45714.639672325531</v>
       </c>
     </row>
-    <row r="998" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="998" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A998">
         <f t="shared" si="30"/>
         <v>0.99600000000000077</v>
@@ -45672,7 +45683,7 @@
         <v>47610.380144789771</v>
       </c>
     </row>
-    <row r="999" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="999" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A999">
         <f t="shared" ref="A999:A1002" si="32">A998+0.001</f>
         <v>0.99700000000000077</v>
@@ -45710,7 +45721,7 @@
         <v>50081.61952992664</v>
       </c>
     </row>
-    <row r="1000" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1000" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1000">
         <f t="shared" si="32"/>
         <v>0.99800000000000078</v>
@@ -45748,7 +45759,7 @@
         <v>53677.63749603177</v>
       </c>
     </row>
-    <row r="1001" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1001" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1001">
         <f t="shared" si="32"/>
         <v>0.99900000000000078</v>
@@ -45782,7 +45793,7 @@
         <v>-202160.21657817846</v>
       </c>
     </row>
-    <row r="1002" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1002" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1002">
         <f t="shared" si="32"/>
         <v>1.0000000000000007</v>
@@ -45823,19 +45834,19 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E6B1421B-4453-480E-877F-2566CD8B8681}">
-  <dimension ref="A1:K19"/>
+  <dimension ref="A1:L19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+      <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="12" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>8</v>
       </c>
@@ -45847,7 +45858,7 @@
         <v>773.15</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>35</v>
       </c>
@@ -45858,7 +45869,7 @@
         <v>298.14999999999998</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>19</v>
       </c>
@@ -45869,7 +45880,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>6</v>
       </c>
@@ -45880,7 +45891,7 @@
         <v>8.3140000000000001</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>22</v>
       </c>
@@ -45891,27 +45902,27 @@
         <f>-4*-92307+2*-241818</f>
         <v>-114408</v>
       </c>
-      <c r="F6" t="s">
+      <c r="G6" t="s">
         <v>41</v>
       </c>
-      <c r="G6">
+      <c r="H6">
         <v>-4</v>
       </c>
-      <c r="H6">
+      <c r="I6">
         <v>-1</v>
-      </c>
-      <c r="I6">
-        <v>2</v>
       </c>
       <c r="J6">
         <v>2</v>
       </c>
       <c r="K6">
-        <f>SUM(G6:J6)</f>
+        <v>2</v>
+      </c>
+      <c r="L6">
+        <f>SUM(H6:K6)</f>
         <v>-1</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>21</v>
       </c>
@@ -45923,32 +45934,32 @@
         <v>-75948</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="F8" t="s">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="G8" t="s">
         <v>40</v>
       </c>
-      <c r="G8">
-        <f>5-4*E16</f>
+      <c r="H8">
+        <f>5-4*H12</f>
         <v>1.8263748650259135</v>
       </c>
-      <c r="H8">
-        <f>1-E16</f>
+      <c r="I8">
+        <f>1-H12</f>
         <v>0.20659371625647838</v>
       </c>
-      <c r="I8">
-        <f>2*E16</f>
+      <c r="J8">
+        <f>2*H12</f>
         <v>1.5868125674870432</v>
       </c>
-      <c r="J8">
-        <f>2*E16</f>
+      <c r="K8">
+        <f>2*H12</f>
         <v>1.5868125674870432</v>
       </c>
-      <c r="K8">
-        <f>SUM(G8:J8)</f>
+      <c r="L8">
+        <f>SUM(H8:K8)</f>
         <v>5.2065937162564779</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>27</v>
       </c>
@@ -45965,7 +45976,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>28</v>
       </c>
@@ -45983,27 +45994,27 @@
         <f>0.151*10^5</f>
         <v>15100</v>
       </c>
-      <c r="F10" t="s">
+      <c r="G10" t="s">
         <v>39</v>
       </c>
-      <c r="G10">
-        <f>G8/$K$8</f>
+      <c r="H10">
+        <f>H8/$L$8</f>
         <v>0.35078113725744486</v>
       </c>
-      <c r="H10">
-        <f t="shared" ref="H10:J10" si="0">H8/$K$8</f>
+      <c r="I10">
+        <f>I8/$L$8</f>
         <v>3.9679246646696011E-2</v>
       </c>
-      <c r="I10">
-        <f t="shared" si="0"/>
+      <c r="J10">
+        <f>J8/$L$8</f>
         <v>0.30476980804792958</v>
       </c>
-      <c r="J10">
-        <f>J8/$K$8</f>
+      <c r="K10">
+        <f>K8/$L$8</f>
         <v>0.30476980804792958</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>29</v>
       </c>
@@ -46022,7 +46033,7 @@
         <v>-22700</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>30</v>
       </c>
@@ -46040,8 +46051,14 @@
         <f>0.121*10^5</f>
         <v>12100</v>
       </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="G12" t="s">
+        <v>37</v>
+      </c>
+      <c r="H12" s="1">
+        <v>0.79340628374352162</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>31</v>
       </c>
@@ -46060,7 +46077,7 @@
         <v>-34400</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>36</v>
       </c>
@@ -46073,39 +46090,33 @@
         <v>8.000000000000021E-5</v>
       </c>
       <c r="D14">
-        <f t="shared" ref="C14:E14" si="1">2*D13+D12*2-D11-4*D10</f>
+        <f t="shared" ref="D14:E14" si="0">2*D13+D12*2-D11-4*D10</f>
         <v>0</v>
       </c>
       <c r="E14">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>-82300</v>
       </c>
       <c r="G14" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
       <c r="G15">
-        <f>C3^-K6*B16-G10^G6*H10^H6*I10^I6*J10^J6</f>
+        <f>C3^-L6*B16-H10^H6*I10^I6*J10^J6*K10^K6</f>
         <v>-1.1985138677061968E-6</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>9</v>
       </c>
-      <c r="B16">
+      <c r="B16" s="1">
         <f>B17*B18*B19</f>
         <v>7.1804124133969207</v>
       </c>
-      <c r="D16" t="s">
-        <v>37</v>
-      </c>
-      <c r="E16">
-        <v>0.79340628374352162</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>33</v>
       </c>
@@ -46114,7 +46125,7 @@
         <v>20242041053443.477</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>32</v>
       </c>
@@ -46123,7 +46134,7 @@
         <v>4.8444733961739223E-13</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>34</v>
       </c>
